--- a/data/nzd0405/nzd0405.xlsx
+++ b/data/nzd0405/nzd0405.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E378"/>
+  <dimension ref="A1:E380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7919,6 +7919,48 @@
         <v>400.5</v>
       </c>
       <c r="E378" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>338.5636363636364</v>
+      </c>
+      <c r="C379" t="n">
+        <v>333.7064705882353</v>
+      </c>
+      <c r="D379" t="n">
+        <v>386.63</v>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:44+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>344.2572727272727</v>
+      </c>
+      <c r="C380" t="n">
+        <v>339.7841176470588</v>
+      </c>
+      <c r="D380" t="n">
+        <v>390.31</v>
+      </c>
+      <c r="E380" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -7935,7 +7977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B402"/>
+  <dimension ref="A1:B404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11963,6 +12005,26 @@
       </c>
       <c r="B402" t="n">
         <v>0.16</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>-0.4</v>
       </c>
     </row>
   </sheetData>
@@ -12131,28 +12193,28 @@
         <v>0.0697</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5453816239147868</v>
+        <v>-0.5279035671669655</v>
       </c>
       <c r="J2" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K2" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0553857144938722</v>
+        <v>0.05255827505813027</v>
       </c>
       <c r="M2" t="n">
-        <v>12.35050926534939</v>
+        <v>12.32501058813522</v>
       </c>
       <c r="N2" t="n">
-        <v>277.7089821696973</v>
+        <v>276.8077727508867</v>
       </c>
       <c r="O2" t="n">
-        <v>16.66460267062186</v>
+        <v>16.63754106684298</v>
       </c>
       <c r="P2" t="n">
-        <v>342.7561975148201</v>
+        <v>342.5843791691697</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -12208,28 +12270,28 @@
         <v>0.1034</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1874695220690602</v>
+        <v>-0.1817183246140872</v>
       </c>
       <c r="J3" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K3" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02302234116056567</v>
+        <v>0.02187410731598771</v>
       </c>
       <c r="M3" t="n">
-        <v>6.353922674461646</v>
+        <v>6.337951633296502</v>
       </c>
       <c r="N3" t="n">
-        <v>81.04808848084153</v>
+        <v>80.70887660012588</v>
       </c>
       <c r="O3" t="n">
-        <v>9.002671185867088</v>
+        <v>8.983811919231496</v>
       </c>
       <c r="P3" t="n">
-        <v>336.8473559157167</v>
+        <v>336.7905099090067</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -12285,28 +12347,28 @@
         <v>0.0556</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2029395524576562</v>
+        <v>-0.2056871727244418</v>
       </c>
       <c r="J4" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K4" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0185526475290112</v>
+        <v>0.01924310013632546</v>
       </c>
       <c r="M4" t="n">
-        <v>8.635366671535953</v>
+        <v>8.599797133944397</v>
       </c>
       <c r="N4" t="n">
-        <v>122.5586899467638</v>
+        <v>121.9194711399876</v>
       </c>
       <c r="O4" t="n">
-        <v>11.07062283463599</v>
+        <v>11.04171504522679</v>
       </c>
       <c r="P4" t="n">
-        <v>396.2691264824697</v>
+        <v>396.2952915933068</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -12343,7 +12405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E378"/>
+  <dimension ref="A1:E380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21645,6 +21707,60 @@
         </is>
       </c>
     </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>-42.801704021359626,173.36252100573407</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>-42.801994931972544,173.36168249351113</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>-42.80281172258093,173.36156566857156</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:44+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>-42.80174882069628,173.3625548726139</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>-42.80203745365172,173.3617292889128</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>-42.80283344541983,173.3615996559846</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0405/nzd0405.xlsx
+++ b/data/nzd0405/nzd0405.xlsx
@@ -12038,7 +12038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12129,35 +12129,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -12216,27 +12221,28 @@
       <c r="P2" t="n">
         <v>342.5843791691697</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.36050725010526 -42.799040076331686, 173.36581918931458 -42.80606652696139)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.3605072501053</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-42.79904007633169</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.3658191893146</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-42.80606652696139</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.3631632197099</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-42.80255330164654</v>
       </c>
     </row>
@@ -12293,27 +12299,28 @@
       <c r="P3" t="n">
         <v>336.7905099090067</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.35911318836563 -42.79966015621589, 173.3659904598014 -42.805909134222276)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.3591131883656</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-42.79966015621589</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.3659904598014</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-42.80590913422228</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.3625518240835</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-42.80278464521908</v>
       </c>
     </row>
@@ -12370,27 +12377,28 @@
       <c r="P4" t="n">
         <v>396.2952915933068</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.35799499839047 -42.800529409669764, 173.36624590112905 -42.80580282394523)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.3579949983905</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-42.80052940966976</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.366245901129</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-42.80580282394523</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.3621204497597</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-42.8031661168075</v>
       </c>
     </row>

--- a/data/nzd0405/nzd0405.xlsx
+++ b/data/nzd0405/nzd0405.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E380"/>
+  <dimension ref="A1:E383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7963,6 +7963,69 @@
       <c r="E380" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>343.4827272727272</v>
+      </c>
+      <c r="C381" t="n">
+        <v>336.1752941176471</v>
+      </c>
+      <c r="D381" t="n">
+        <v>394.3</v>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:07:30+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>332.0563636363636</v>
+      </c>
+      <c r="C382" t="n">
+        <v>338.6211764705882</v>
+      </c>
+      <c r="D382" t="n">
+        <v>400.47</v>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:07:12+00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>332.0445454545454</v>
+      </c>
+      <c r="C383" t="n">
+        <v>339.0264705882353</v>
+      </c>
+      <c r="D383" t="n">
+        <v>388.77</v>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -7977,7 +8040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B404"/>
+  <dimension ref="A1:B407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12025,6 +12088,36 @@
       </c>
       <c r="B404" t="n">
         <v>-0.4</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>-0.58</v>
       </c>
     </row>
   </sheetData>
@@ -12198,28 +12291,28 @@
         <v>0.0697</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5279035671669655</v>
+        <v>-0.5139605353945695</v>
       </c>
       <c r="J2" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K2" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05255827505813027</v>
+        <v>0.05083335010652945</v>
       </c>
       <c r="M2" t="n">
-        <v>12.32501058813522</v>
+        <v>12.23896004408571</v>
       </c>
       <c r="N2" t="n">
-        <v>276.8077727508867</v>
+        <v>274.4828753964481</v>
       </c>
       <c r="O2" t="n">
-        <v>16.63754106684298</v>
+        <v>16.56752472146784</v>
       </c>
       <c r="P2" t="n">
-        <v>342.5843791691697</v>
+        <v>342.4462300445825</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12276,28 +12369,28 @@
         <v>0.1034</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1817183246140872</v>
+        <v>-0.1711065278820136</v>
       </c>
       <c r="J3" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K3" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02187410731598771</v>
+        <v>0.01972335989063867</v>
       </c>
       <c r="M3" t="n">
-        <v>6.337951633296502</v>
+        <v>6.323181385693096</v>
       </c>
       <c r="N3" t="n">
-        <v>80.70887660012588</v>
+        <v>80.24524296431024</v>
       </c>
       <c r="O3" t="n">
-        <v>8.983811919231496</v>
+        <v>8.957970917808911</v>
       </c>
       <c r="P3" t="n">
-        <v>336.7905099090067</v>
+        <v>336.6846921811292</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12354,28 +12447,28 @@
         <v>0.0556</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2056871727244418</v>
+        <v>-0.2003278389031467</v>
       </c>
       <c r="J4" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K4" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01924310013632546</v>
+        <v>0.01852416926245692</v>
       </c>
       <c r="M4" t="n">
-        <v>8.599797133944397</v>
+        <v>8.571901542432817</v>
       </c>
       <c r="N4" t="n">
-        <v>121.9194711399876</v>
+        <v>121.1789736428296</v>
       </c>
       <c r="O4" t="n">
-        <v>11.04171504522679</v>
+        <v>11.00813215958228</v>
       </c>
       <c r="P4" t="n">
-        <v>396.2952915933068</v>
+        <v>396.2436709516146</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12413,7 +12506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E380"/>
+  <dimension ref="A1:E383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21769,6 +21862,87 @@
         </is>
       </c>
     </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>-42.80174272632762,173.36255026546084</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>-42.80201220486376,173.36170150243686</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>-42.802856998160216,173.36163650649462</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:07:30+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>-42.8016528200611,173.36248229924357</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>-42.802029317245996,173.36172033473545</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>-42.80289341929137,173.36169349092225</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:07:12+00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>-42.801652727071854,173.36248222894682</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>-42.80203215284726,173.3617234553362</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>-42.80282435488524,173.36158543298822</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0405/nzd0405.xlsx
+++ b/data/nzd0405/nzd0405.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E383"/>
+  <dimension ref="A1:E385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8026,6 +8026,44 @@
       <c r="E383" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr"/>
+      <c r="C384" t="n">
+        <v>342.33</v>
+      </c>
+      <c r="D384" t="n">
+        <v>398.45</v>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:07:07+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr"/>
+      <c r="C385" t="n">
+        <v>323.6458823529412</v>
+      </c>
+      <c r="D385" t="n">
+        <v>397.73</v>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -8040,7 +8078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B407"/>
+  <dimension ref="A1:B409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12118,6 +12156,26 @@
       </c>
       <c r="B407" t="n">
         <v>-0.58</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -12294,7 +12352,7 @@
         <v>-0.5139605353945695</v>
       </c>
       <c r="J2" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K2" t="n">
         <v>263</v>
@@ -12369,28 +12427,28 @@
         <v>0.1034</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1711065278820136</v>
+        <v>-0.170281062648492</v>
       </c>
       <c r="J3" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K3" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01972335989063867</v>
+        <v>0.01963973786325079</v>
       </c>
       <c r="M3" t="n">
-        <v>6.323181385693096</v>
+        <v>6.342355154291347</v>
       </c>
       <c r="N3" t="n">
-        <v>80.24524296431024</v>
+        <v>80.29434461571147</v>
       </c>
       <c r="O3" t="n">
-        <v>8.957970917808911</v>
+        <v>8.960711166850066</v>
       </c>
       <c r="P3" t="n">
-        <v>336.6846921811292</v>
+        <v>336.6765308637475</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12447,28 +12505,28 @@
         <v>0.0556</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2003278389031467</v>
+        <v>-0.1931204304906747</v>
       </c>
       <c r="J4" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K4" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01852416926245692</v>
+        <v>0.01738596545426951</v>
       </c>
       <c r="M4" t="n">
-        <v>8.571901542432817</v>
+        <v>8.566786978498175</v>
       </c>
       <c r="N4" t="n">
-        <v>121.1789736428296</v>
+        <v>120.7691259837868</v>
       </c>
       <c r="O4" t="n">
-        <v>11.00813215958228</v>
+        <v>10.98950071585542</v>
       </c>
       <c r="P4" t="n">
-        <v>396.2436709516146</v>
+        <v>396.173550308441</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12506,7 +12564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E383"/>
+  <dimension ref="A1:E385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21943,6 +22001,52 @@
         </is>
       </c>
     </row>
+    <row r="384">
+      <c r="A384" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr"/>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>-42.802055265669445,173.36174889118683</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>-42.80288149535857,173.36167483474895</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:07:07+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr"/>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>-42.8019245439813,173.36160503122903</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>-42.80287724524316,173.36166818502554</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0405/nzd0405.xlsx
+++ b/data/nzd0405/nzd0405.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E385"/>
+  <dimension ref="A1:E386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8064,6 +8064,23 @@
       <c r="E385" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr"/>
+      <c r="C386" t="inlineStr"/>
+      <c r="D386" t="n">
+        <v>399.09</v>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -8078,7 +8095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B409"/>
+  <dimension ref="A1:B410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12176,6 +12193,16 @@
       </c>
       <c r="B409" t="n">
         <v>0.06</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -12352,7 +12379,7 @@
         <v>-0.5139605353945695</v>
       </c>
       <c r="J2" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K2" t="n">
         <v>263</v>
@@ -12430,7 +12457,7 @@
         <v>-0.170281062648492</v>
       </c>
       <c r="J3" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K3" t="n">
         <v>303</v>
@@ -12505,28 +12532,28 @@
         <v>0.0556</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1931204304906747</v>
+        <v>-0.1890724522858268</v>
       </c>
       <c r="J4" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K4" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01738596545426951</v>
+        <v>0.01674248623237262</v>
       </c>
       <c r="M4" t="n">
-        <v>8.566786978498175</v>
+        <v>8.567004579362276</v>
       </c>
       <c r="N4" t="n">
-        <v>120.7691259837868</v>
+        <v>120.6036313036512</v>
       </c>
       <c r="O4" t="n">
-        <v>10.98950071585542</v>
+        <v>10.98196846214972</v>
       </c>
       <c r="P4" t="n">
-        <v>396.173550308441</v>
+        <v>396.1340737623916</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12564,7 +12591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E385"/>
+  <dimension ref="A1:E386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22047,6 +22074,25 @@
         </is>
       </c>
     </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr"/>
+      <c r="C386" t="inlineStr"/>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>-42.80288527323861,173.36168074561496</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0405/nzd0405.xlsx
+++ b/data/nzd0405/nzd0405.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E386"/>
+  <dimension ref="A1:E389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8035,7 +8035,9 @@
           <t>2025-05-06 22:07:18+00:00</t>
         </is>
       </c>
-      <c r="B384" t="inlineStr"/>
+      <c r="B384" t="n">
+        <v>248.88</v>
+      </c>
       <c r="C384" t="n">
         <v>342.33</v>
       </c>
@@ -8081,6 +8083,61 @@
       <c r="E386" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr"/>
+      <c r="C387" t="inlineStr"/>
+      <c r="D387" t="n">
+        <v>386.43</v>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:07:28+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr"/>
+      <c r="C388" t="n">
+        <v>310.635294117647</v>
+      </c>
+      <c r="D388" t="n">
+        <v>383.19</v>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:07:30+00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr"/>
+      <c r="C389" t="n">
+        <v>334.8211764705882</v>
+      </c>
+      <c r="D389" t="n">
+        <v>387.1</v>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -8095,7 +8152,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B410"/>
+  <dimension ref="A1:B413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12203,6 +12260,36 @@
       </c>
       <c r="B410" t="n">
         <v>0.31</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>-0.6</v>
       </c>
     </row>
   </sheetData>
@@ -12376,28 +12463,28 @@
         <v>0.0697</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5139605353945695</v>
+        <v>-0.569543860266771</v>
       </c>
       <c r="J2" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K2" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05083335010652945</v>
+        <v>0.05735847490256074</v>
       </c>
       <c r="M2" t="n">
-        <v>12.23896004408571</v>
+        <v>12.5857014311369</v>
       </c>
       <c r="N2" t="n">
-        <v>274.4828753964481</v>
+        <v>297.6468837650451</v>
       </c>
       <c r="O2" t="n">
-        <v>16.56752472146784</v>
+        <v>17.25244573285321</v>
       </c>
       <c r="P2" t="n">
-        <v>342.4462300445825</v>
+        <v>343.0020096302691</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12454,28 +12541,28 @@
         <v>0.1034</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.170281062648492</v>
+        <v>-0.1818464134875829</v>
       </c>
       <c r="J3" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K3" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01963973786325079</v>
+        <v>0.02219548391847115</v>
       </c>
       <c r="M3" t="n">
-        <v>6.342355154291347</v>
+        <v>6.389809573504095</v>
       </c>
       <c r="N3" t="n">
-        <v>80.29434461571147</v>
+        <v>81.31269949792629</v>
       </c>
       <c r="O3" t="n">
-        <v>8.960711166850066</v>
+        <v>9.017355460329059</v>
       </c>
       <c r="P3" t="n">
-        <v>336.6765308637475</v>
+        <v>336.7937693279898</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12532,28 +12619,28 @@
         <v>0.0556</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1890724522858268</v>
+        <v>-0.1976957350126059</v>
       </c>
       <c r="J4" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K4" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01674248623237262</v>
+        <v>0.01852807481987029</v>
       </c>
       <c r="M4" t="n">
-        <v>8.567004579362276</v>
+        <v>8.537490162430094</v>
       </c>
       <c r="N4" t="n">
-        <v>120.6036313036512</v>
+        <v>119.8842733869576</v>
       </c>
       <c r="O4" t="n">
-        <v>10.98196846214972</v>
+        <v>10.94916770293329</v>
       </c>
       <c r="P4" t="n">
-        <v>396.1340737623916</v>
+        <v>396.2187458046523</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12591,7 +12678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E386"/>
+  <dimension ref="A1:E389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22034,7 +22121,11 @@
           <t>2025-05-06 22:07:18+00:00</t>
         </is>
       </c>
-      <c r="B384" t="inlineStr"/>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>-42.80099836067373,173.361987556121</t>
+        </is>
+      </c>
       <c r="C384" t="inlineStr">
         <is>
           <t>-42.802055265669445,173.36174889118683</t>
@@ -22090,6 +22181,71 @@
       <c r="E386" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr"/>
+      <c r="C387" t="inlineStr"/>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>-42.80281054199157,173.36156382143022</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:07:28+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr"/>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>-42.801833516503194,173.3615048554531</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>-42.80279141643964,173.36153389775043</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:07:30+00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr"/>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>-42.80200273090763,173.36169107628663</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>-42.802814496965816,173.36157000935395</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0405/nzd0405.xlsx
+++ b/data/nzd0405/nzd0405.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E389"/>
+  <dimension ref="A1:E390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8035,9 +8035,7 @@
           <t>2025-05-06 22:07:18+00:00</t>
         </is>
       </c>
-      <c r="B384" t="n">
-        <v>248.88</v>
-      </c>
+      <c r="B384" t="inlineStr"/>
       <c r="C384" t="n">
         <v>342.33</v>
       </c>
@@ -8136,6 +8134,27 @@
         <v>387.1</v>
       </c>
       <c r="E389" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>314.8636363636364</v>
+      </c>
+      <c r="C390" t="n">
+        <v>338.7894117647058</v>
+      </c>
+      <c r="D390" t="n">
+        <v>397.58</v>
+      </c>
+      <c r="E390" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -8152,7 +8171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B413"/>
+  <dimension ref="A1:B414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12290,6 +12309,16 @@
       </c>
       <c r="B413" t="n">
         <v>-0.6</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -12463,28 +12492,28 @@
         <v>0.0697</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.569543860266771</v>
+        <v>-0.5240932271770699</v>
       </c>
       <c r="J2" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K2" t="n">
         <v>264</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05735847490256074</v>
+        <v>0.05298913412936546</v>
       </c>
       <c r="M2" t="n">
-        <v>12.5857014311369</v>
+        <v>12.2614803049529</v>
       </c>
       <c r="N2" t="n">
-        <v>297.6468837650451</v>
+        <v>274.2017154548905</v>
       </c>
       <c r="O2" t="n">
-        <v>17.25244573285321</v>
+        <v>16.55903727439764</v>
       </c>
       <c r="P2" t="n">
-        <v>343.0020096302691</v>
+        <v>342.5491505005181</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12541,28 +12570,28 @@
         <v>0.1034</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1818464134875829</v>
+        <v>-0.1777692135765376</v>
       </c>
       <c r="J3" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K3" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02219548391847115</v>
+        <v>0.0213269434670309</v>
       </c>
       <c r="M3" t="n">
-        <v>6.389809573504095</v>
+        <v>6.38727486672951</v>
       </c>
       <c r="N3" t="n">
-        <v>81.31269949792629</v>
+        <v>81.19310968391989</v>
       </c>
       <c r="O3" t="n">
-        <v>9.017355460329059</v>
+        <v>9.010721929119768</v>
       </c>
       <c r="P3" t="n">
-        <v>336.7937693279898</v>
+        <v>336.7522007666238</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12619,28 +12648,28 @@
         <v>0.0556</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1976957350126059</v>
+        <v>-0.1943949868591275</v>
       </c>
       <c r="J4" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K4" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01852807481987029</v>
+        <v>0.018004414882974</v>
       </c>
       <c r="M4" t="n">
-        <v>8.537490162430094</v>
+        <v>8.533649799504657</v>
       </c>
       <c r="N4" t="n">
-        <v>119.8842733869576</v>
+        <v>119.6681462883496</v>
       </c>
       <c r="O4" t="n">
-        <v>10.94916770293329</v>
+        <v>10.939293683248</v>
       </c>
       <c r="P4" t="n">
-        <v>396.2187458046523</v>
+        <v>396.1861487860473</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12678,7 +12707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E389"/>
+  <dimension ref="A1:E390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22121,11 +22150,7 @@
           <t>2025-05-06 22:07:18+00:00</t>
         </is>
       </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>-42.80099836067373,173.361987556121</t>
-        </is>
-      </c>
+      <c r="B384" t="inlineStr"/>
       <c r="C384" t="inlineStr">
         <is>
           <t>-42.802055265669445,173.36174889118683</t>
@@ -22244,6 +22269,33 @@
         </is>
       </c>
       <c r="E389" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>-42.80151754212977,173.3623800339539</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>-42.80203049428803,173.36172163007913</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>-42.80287635980242,173.36166679966664</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0405/nzd0405.xlsx
+++ b/data/nzd0405/nzd0405.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E390"/>
+  <dimension ref="A1:E391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8155,6 +8155,27 @@
         <v>397.58</v>
       </c>
       <c r="E390" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>333.9563636363636</v>
+      </c>
+      <c r="C391" t="n">
+        <v>342.2211764705882</v>
+      </c>
+      <c r="D391" t="n">
+        <v>404.79</v>
+      </c>
+      <c r="E391" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -8171,7 +8192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B414"/>
+  <dimension ref="A1:B415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12319,6 +12340,16 @@
       </c>
       <c r="B414" t="n">
         <v>0.13</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
@@ -12492,28 +12523,28 @@
         <v>0.0697</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5240932271770699</v>
+        <v>-0.5205270883140277</v>
       </c>
       <c r="J2" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K2" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05298913412936546</v>
+        <v>0.05266283151231332</v>
       </c>
       <c r="M2" t="n">
-        <v>12.2614803049529</v>
+        <v>12.22863903202919</v>
       </c>
       <c r="N2" t="n">
-        <v>274.2017154548905</v>
+        <v>273.2619391372007</v>
       </c>
       <c r="O2" t="n">
-        <v>16.55903727439764</v>
+        <v>16.53063638028496</v>
       </c>
       <c r="P2" t="n">
-        <v>342.5491505005181</v>
+        <v>342.5128494473382</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12570,28 +12601,28 @@
         <v>0.1034</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1777692135765376</v>
+        <v>-0.1716768617456904</v>
       </c>
       <c r="J3" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K3" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0213269434670309</v>
+        <v>0.01996310322279893</v>
       </c>
       <c r="M3" t="n">
-        <v>6.38727486672951</v>
+        <v>6.393716219270314</v>
       </c>
       <c r="N3" t="n">
-        <v>81.19310968391989</v>
+        <v>81.25739794913434</v>
       </c>
       <c r="O3" t="n">
-        <v>9.010721929119768</v>
+        <v>9.014288543702955</v>
       </c>
       <c r="P3" t="n">
-        <v>336.7522007666238</v>
+        <v>336.6899493005945</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12648,28 +12679,28 @@
         <v>0.0556</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1943949868591275</v>
+        <v>-0.187482090902534</v>
       </c>
       <c r="J4" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K4" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L4" t="n">
-        <v>0.018004414882974</v>
+        <v>0.01678671010413602</v>
       </c>
       <c r="M4" t="n">
-        <v>8.533649799504657</v>
+        <v>8.551653365127057</v>
       </c>
       <c r="N4" t="n">
-        <v>119.6681462883496</v>
+        <v>119.848981875756</v>
       </c>
       <c r="O4" t="n">
-        <v>10.939293683248</v>
+        <v>10.94755597728351</v>
       </c>
       <c r="P4" t="n">
-        <v>396.1861487860473</v>
+        <v>396.117725064266</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12707,7 +12738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E390"/>
+  <dimension ref="A1:E391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22301,6 +22332,33 @@
         </is>
       </c>
     </row>
+    <row r="391">
+      <c r="A391" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>-42.80166776986888,173.36249360079674</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>-42.802054504296294,173.36174805328903</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>-42.80291891996897,173.3617333892971</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0405/nzd0405.xlsx
+++ b/data/nzd0405/nzd0405.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E391"/>
+  <dimension ref="A1:E392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8178,6 +8178,27 @@
       <c r="E391" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>339.4009090909091</v>
+      </c>
+      <c r="C392" t="n">
+        <v>318.9311764705882</v>
+      </c>
+      <c r="D392" t="n">
+        <v>381.83</v>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -8192,7 +8213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B415"/>
+  <dimension ref="A1:B416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12350,6 +12371,16 @@
       </c>
       <c r="B415" t="n">
         <v>0.42</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>-0.6</v>
       </c>
     </row>
   </sheetData>
@@ -12738,7 +12769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E391"/>
+  <dimension ref="A1:E392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22359,6 +22390,33 @@
         </is>
       </c>
     </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>-42.80171060928764,173.36252598599546</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>-42.801891557951514,173.3615687300447</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>-42.80278338842783,173.36152133719895</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0405/nzd0405.xlsx
+++ b/data/nzd0405/nzd0405.xlsx
@@ -12554,28 +12554,28 @@
         <v>0.0697</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5205270883140277</v>
+        <v>-0.5132105710305265</v>
       </c>
       <c r="J2" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K2" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05266283151231332</v>
+        <v>0.05155649089384862</v>
       </c>
       <c r="M2" t="n">
-        <v>12.22863903202919</v>
+        <v>12.21056273524249</v>
       </c>
       <c r="N2" t="n">
-        <v>273.2619391372007</v>
+        <v>272.6401378011252</v>
       </c>
       <c r="O2" t="n">
-        <v>16.53063638028496</v>
+        <v>16.51181812524366</v>
       </c>
       <c r="P2" t="n">
-        <v>342.5128494473382</v>
+        <v>342.4382906265989</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12632,28 +12632,28 @@
         <v>0.1034</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1716768617456904</v>
+        <v>-0.1796371764223269</v>
       </c>
       <c r="J3" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K3" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01996310322279893</v>
+        <v>0.02180063293825341</v>
       </c>
       <c r="M3" t="n">
-        <v>6.393716219270314</v>
+        <v>6.423015883156259</v>
       </c>
       <c r="N3" t="n">
-        <v>81.25739794913434</v>
+        <v>81.56141726962601</v>
       </c>
       <c r="O3" t="n">
-        <v>9.014288543702955</v>
+        <v>9.031135989986311</v>
       </c>
       <c r="P3" t="n">
-        <v>336.6899493005945</v>
+        <v>336.771377799757</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12710,28 +12710,28 @@
         <v>0.0556</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.187482090902534</v>
+        <v>-0.1922121313708793</v>
       </c>
       <c r="J4" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K4" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01678671010413602</v>
+        <v>0.01768772840595856</v>
       </c>
       <c r="M4" t="n">
-        <v>8.551653365127057</v>
+        <v>8.551063958514467</v>
       </c>
       <c r="N4" t="n">
-        <v>119.848981875756</v>
+        <v>119.7605293493703</v>
       </c>
       <c r="O4" t="n">
-        <v>10.94755597728351</v>
+        <v>10.9435154017971</v>
       </c>
       <c r="P4" t="n">
-        <v>396.117725064266</v>
+        <v>396.1645958556414</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">

--- a/data/nzd0405/nzd0405.xlsx
+++ b/data/nzd0405/nzd0405.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>345.0194117647059</v>
+        <v>345.02</v>
       </c>
       <c r="D2" t="n">
         <v>404.46</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>376.9109090909091</v>
+        <v>376.91</v>
       </c>
       <c r="C3" t="n">
-        <v>341.0811764705882</v>
+        <v>341.08</v>
       </c>
       <c r="D3" t="n">
         <v>387.08</v>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>345.7681818181818</v>
+        <v>345.77</v>
       </c>
       <c r="C4" t="n">
-        <v>335.5682352941176</v>
+        <v>335.57</v>
       </c>
       <c r="D4" t="n">
         <v>395.04</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>341.9572727272728</v>
+        <v>341.96</v>
       </c>
       <c r="C5" t="n">
-        <v>332.9929411764706</v>
+        <v>332.99</v>
       </c>
       <c r="D5" t="n">
         <v>403.17</v>
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>350.8290909090909</v>
+        <v>350.83</v>
       </c>
       <c r="C6" t="n">
-        <v>340.7270588235294</v>
+        <v>340.73</v>
       </c>
       <c r="D6" t="n">
         <v>410.19</v>
@@ -573,10 +573,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>342.0836363636364</v>
+        <v>342.08</v>
       </c>
       <c r="C7" t="n">
-        <v>340.1576470588236</v>
+        <v>340.16</v>
       </c>
       <c r="D7" t="n">
         <v>399.35</v>
@@ -594,10 +594,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>330.1172727272727</v>
+        <v>330.12</v>
       </c>
       <c r="C8" t="n">
-        <v>338.2523529411765</v>
+        <v>338.25</v>
       </c>
       <c r="D8" t="n">
         <v>396.42</v>
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>358.8481818181818</v>
+        <v>358.85</v>
       </c>
       <c r="C9" t="n">
-        <v>336.9376470588236</v>
+        <v>336.94</v>
       </c>
       <c r="D9" t="n">
         <v>387.29</v>
@@ -637,7 +637,7 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>341.6429411764706</v>
+        <v>341.64</v>
       </c>
       <c r="D10" t="n">
         <v>387.77</v>
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>279.7263636363636</v>
+        <v>279.73</v>
       </c>
       <c r="C13" t="n">
-        <v>338.1235294117647</v>
+        <v>338.12</v>
       </c>
       <c r="D13" t="n">
         <v>411.06</v>
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>315.0890909090909</v>
+        <v>315.09</v>
       </c>
       <c r="C14" t="n">
-        <v>349.8805882352942</v>
+        <v>349.88</v>
       </c>
       <c r="D14" t="n">
         <v>404.25</v>
@@ -734,7 +734,7 @@
         <v>342.8</v>
       </c>
       <c r="C15" t="n">
-        <v>342.0558823529412</v>
+        <v>342.06</v>
       </c>
       <c r="D15" t="n">
         <v>395.94</v>
@@ -752,10 +752,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>342.6972727272728</v>
+        <v>342.7</v>
       </c>
       <c r="C16" t="n">
-        <v>332.6158823529412</v>
+        <v>332.62</v>
       </c>
       <c r="D16" t="n">
         <v>386.6</v>
@@ -775,7 +775,7 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>387.0700000000001</v>
+        <v>387.07</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -824,10 +824,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>320.129090909091</v>
+        <v>320.13</v>
       </c>
       <c r="C20" t="n">
-        <v>333.7770588235294</v>
+        <v>333.78</v>
       </c>
       <c r="D20" t="n">
         <v>407.07</v>
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>343.0272727272728</v>
+        <v>343.03</v>
       </c>
       <c r="C21" t="n">
-        <v>343.2929411764706</v>
+        <v>343.29</v>
       </c>
       <c r="D21" t="n">
         <v>404.65</v>
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>339.7827272727272</v>
+        <v>339.78</v>
       </c>
       <c r="C22" t="n">
-        <v>334.8488235294118</v>
+        <v>334.85</v>
       </c>
       <c r="D22" t="n">
         <v>385.6</v>
@@ -887,10 +887,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>367.8818181818182</v>
+        <v>367.88</v>
       </c>
       <c r="C23" t="n">
-        <v>345.8041176470588</v>
+        <v>345.8</v>
       </c>
       <c r="D23" t="n">
         <v>404.3</v>
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>342.5727272727273</v>
+        <v>342.57</v>
       </c>
       <c r="C24" t="n">
         <v>344.55</v>
@@ -930,7 +930,7 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>339.8823529411765</v>
+        <v>339.88</v>
       </c>
       <c r="D25" t="n">
         <v>392.85</v>
@@ -965,10 +965,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>344.9154545454546</v>
+        <v>344.92</v>
       </c>
       <c r="C27" t="n">
-        <v>338.635294117647</v>
+        <v>338.64</v>
       </c>
       <c r="D27" t="n">
         <v>402.42</v>
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>347.4445454545454</v>
+        <v>347.44</v>
       </c>
       <c r="C28" t="n">
-        <v>335.3035294117647</v>
+        <v>335.3</v>
       </c>
       <c r="D28" t="n">
         <v>404.64</v>
@@ -1007,10 +1007,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>317.7681818181818</v>
+        <v>317.77</v>
       </c>
       <c r="C29" t="n">
-        <v>323.2088235294117</v>
+        <v>323.21</v>
       </c>
       <c r="D29" t="n">
         <v>385.74</v>
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>306.0909090909091</v>
+        <v>306.09</v>
       </c>
       <c r="C30" t="n">
         <v>322.44</v>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>328.4329411764706</v>
+        <v>328.43</v>
       </c>
       <c r="D31" t="n">
         <v>397.8</v>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>335.2647058823529</v>
+        <v>335.26</v>
       </c>
       <c r="D33" t="n">
         <v>388.13</v>
@@ -1104,10 +1104,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>353.7272727272727</v>
+        <v>353.73</v>
       </c>
       <c r="C34" t="n">
-        <v>328.9888235294118</v>
+        <v>328.99</v>
       </c>
       <c r="D34" t="n">
         <v>372.28</v>
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>333.6281818181818</v>
+        <v>333.63</v>
       </c>
       <c r="C35" t="n">
-        <v>340.1764705882353</v>
+        <v>340.18</v>
       </c>
       <c r="D35" t="n">
         <v>397.63</v>
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>352.2554545454545</v>
+        <v>352.26</v>
       </c>
       <c r="C36" t="n">
-        <v>347.5235294117647</v>
+        <v>347.52</v>
       </c>
       <c r="D36" t="n">
         <v>407.61</v>
@@ -1167,10 +1167,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>344.3590909090909</v>
+        <v>344.36</v>
       </c>
       <c r="C37" t="n">
-        <v>336.5805882352942</v>
+        <v>336.58</v>
       </c>
       <c r="D37" t="n">
         <v>398.84</v>
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>338.1736363636364</v>
+        <v>338.17</v>
       </c>
       <c r="C38" t="n">
-        <v>331.5864705882353</v>
+        <v>331.59</v>
       </c>
       <c r="D38" t="n">
         <v>384.41</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>363.7990909090909</v>
+        <v>363.8</v>
       </c>
       <c r="C39" t="n">
-        <v>337.7335294117647</v>
+        <v>337.73</v>
       </c>
       <c r="D39" t="n">
         <v>395.85</v>
@@ -1230,10 +1230,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>332.8172727272727</v>
+        <v>332.82</v>
       </c>
       <c r="C40" t="n">
-        <v>348.015294117647</v>
+        <v>348.02</v>
       </c>
       <c r="D40" t="n">
         <v>412.9</v>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>326.3688235294118</v>
+        <v>326.37</v>
       </c>
       <c r="D41" t="n">
         <v>387.82</v>
@@ -1321,10 +1321,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>304.2154545454546</v>
+        <v>304.22</v>
       </c>
       <c r="C45" t="n">
-        <v>332.1552941176471</v>
+        <v>332.16</v>
       </c>
       <c r="D45" t="n">
         <v>394.81</v>
@@ -1345,7 +1345,7 @@
         <v>353.39</v>
       </c>
       <c r="C46" t="n">
-        <v>339.9194117647058</v>
+        <v>339.92</v>
       </c>
       <c r="D46" t="n">
         <v>392.66</v>
@@ -1363,10 +1363,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>349.2981818181818</v>
+        <v>349.3</v>
       </c>
       <c r="C47" t="n">
-        <v>341.8952941176471</v>
+        <v>341.9</v>
       </c>
       <c r="D47" t="n">
         <v>413.92</v>
@@ -1384,10 +1384,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>346.7872727272728</v>
+        <v>346.79</v>
       </c>
       <c r="C48" t="n">
-        <v>341.1011764705883</v>
+        <v>341.1</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
@@ -1403,10 +1403,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>353.3163636363636</v>
+        <v>353.32</v>
       </c>
       <c r="C49" t="n">
-        <v>346.0711764705882</v>
+        <v>346.07</v>
       </c>
       <c r="D49" t="n">
         <v>404.79</v>
@@ -1424,10 +1424,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>355.8318181818182</v>
+        <v>355.83</v>
       </c>
       <c r="C50" t="n">
-        <v>343.2205882352941</v>
+        <v>343.22</v>
       </c>
       <c r="D50" t="n">
         <v>423.72</v>
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>349.2645454545454</v>
+        <v>349.26</v>
       </c>
       <c r="C51" t="n">
-        <v>324.2382352941176</v>
+        <v>324.24</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
@@ -1464,10 +1464,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>340.5109090909091</v>
+        <v>340.51</v>
       </c>
       <c r="C52" t="n">
-        <v>341.7541176470588</v>
+        <v>341.75</v>
       </c>
       <c r="D52" t="n">
         <v>406.78</v>
@@ -1502,10 +1502,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>338.4454545454545</v>
+        <v>338.45</v>
       </c>
       <c r="C54" t="n">
-        <v>335.0482352941176</v>
+        <v>335.05</v>
       </c>
       <c r="D54" t="n">
         <v>392.69</v>
@@ -1540,10 +1540,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>298.6009090909091</v>
+        <v>298.6</v>
       </c>
       <c r="C56" t="n">
-        <v>333.4211764705883</v>
+        <v>333.42</v>
       </c>
       <c r="D56" t="n">
         <v>394.65</v>
@@ -1561,10 +1561,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>318.4627272727272</v>
+        <v>318.46</v>
       </c>
       <c r="C57" t="n">
-        <v>338.3941176470589</v>
+        <v>338.39</v>
       </c>
       <c r="D57" t="n">
         <v>407.55</v>
@@ -1601,7 +1601,7 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>383.5700000000001</v>
+        <v>383.57</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>328.1311764705882</v>
+        <v>328.13</v>
       </c>
       <c r="D61" t="n">
         <v>385.4</v>
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>318.1163636363636</v>
+        <v>318.12</v>
       </c>
       <c r="C62" t="n">
-        <v>331.4211764705883</v>
+        <v>331.42</v>
       </c>
       <c r="D62" t="n">
         <v>388.98</v>
@@ -1690,10 +1690,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>338.0163636363636</v>
+        <v>338.02</v>
       </c>
       <c r="C64" t="n">
-        <v>330.8905882352942</v>
+        <v>330.89</v>
       </c>
       <c r="D64" t="n">
         <v>384.76</v>
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>338.0936363636364</v>
+        <v>338.09</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
@@ -1730,10 +1730,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>344.9554545454546</v>
+        <v>344.96</v>
       </c>
       <c r="C66" t="n">
-        <v>340.3476470588236</v>
+        <v>340.35</v>
       </c>
       <c r="D66" t="n">
         <v>404.87</v>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>366.069090909091</v>
+        <v>366.07</v>
       </c>
       <c r="C67" t="n">
-        <v>339.5376470588236</v>
+        <v>339.54</v>
       </c>
       <c r="D67" t="n">
         <v>397.68</v>
@@ -1772,10 +1772,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>353.2245454545454</v>
+        <v>353.22</v>
       </c>
       <c r="C68" t="n">
-        <v>348.0352941176471</v>
+        <v>348.04</v>
       </c>
       <c r="D68" t="n">
         <v>362.4</v>
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>333.3036363636364</v>
+        <v>333.3</v>
       </c>
       <c r="C69" t="n">
-        <v>332.3388235294117</v>
+        <v>332.34</v>
       </c>
       <c r="D69" t="n">
         <v>388.3</v>
@@ -1814,13 +1814,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>348.0445454545454</v>
+        <v>348.04</v>
       </c>
       <c r="C70" t="n">
-        <v>341.3305882352942</v>
+        <v>341.33</v>
       </c>
       <c r="D70" t="n">
-        <v>390.2000000000001</v>
+        <v>390.2</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>334.9609090909091</v>
+        <v>334.96</v>
       </c>
       <c r="C71" t="n">
-        <v>325.4711764705882</v>
+        <v>325.47</v>
       </c>
       <c r="D71" t="n">
         <v>385.57</v>
@@ -1856,10 +1856,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>345.7745454545454</v>
+        <v>345.77</v>
       </c>
       <c r="C72" t="n">
-        <v>339.7476470588236</v>
+        <v>339.75</v>
       </c>
       <c r="D72" t="n">
         <v>393.38</v>
@@ -1877,7 +1877,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>338.5081818181818</v>
+        <v>338.51</v>
       </c>
       <c r="C73" t="n">
         <v>337.18</v>
@@ -1898,10 +1898,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>325.8181818181818</v>
+        <v>325.82</v>
       </c>
       <c r="C74" t="n">
-        <v>343.2023529411765</v>
+        <v>343.2</v>
       </c>
       <c r="D74" t="n">
         <v>401.78</v>
@@ -1919,13 +1919,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>340.1045454545454</v>
+        <v>340.1</v>
       </c>
       <c r="C75" t="n">
-        <v>324.6311764705882</v>
+        <v>324.63</v>
       </c>
       <c r="D75" t="n">
-        <v>394.7000000000001</v>
+        <v>394.7</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>319.7782352941176</v>
+        <v>319.78</v>
       </c>
       <c r="D79" t="n">
         <v>386.07</v>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>336.8752941176471</v>
+        <v>336.88</v>
       </c>
       <c r="D80" t="n">
         <v>401.46</v>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>333.5829411764706</v>
+        <v>333.58</v>
       </c>
       <c r="D81" t="n">
         <v>398.96</v>
@@ -2048,10 +2048,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>355.3718181818182</v>
+        <v>355.37</v>
       </c>
       <c r="C82" t="n">
-        <v>337.8611764705882</v>
+        <v>337.86</v>
       </c>
       <c r="D82" t="n">
         <v>396.75</v>
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>366.2118181818182</v>
+        <v>366.21</v>
       </c>
       <c r="C83" t="n">
-        <v>333.1164705882353</v>
+        <v>333.12</v>
       </c>
       <c r="D83" t="n">
         <v>409.33</v>
@@ -2090,13 +2090,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>349.5318181818182</v>
+        <v>349.53</v>
       </c>
       <c r="C84" t="n">
-        <v>336.6464705882353</v>
+        <v>336.65</v>
       </c>
       <c r="D84" t="n">
-        <v>406.5100000000001</v>
+        <v>406.51</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>337.3245454545454</v>
+        <v>337.32</v>
       </c>
       <c r="C85" t="n">
-        <v>329.0870588235294</v>
+        <v>329.09</v>
       </c>
       <c r="D85" t="n">
         <v>383.41</v>
@@ -2132,10 +2132,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>346.3318181818182</v>
+        <v>346.33</v>
       </c>
       <c r="C86" t="n">
-        <v>331.4517647058824</v>
+        <v>331.45</v>
       </c>
       <c r="D86" t="n">
         <v>389.31</v>
@@ -2153,10 +2153,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>345.8163636363636</v>
+        <v>345.82</v>
       </c>
       <c r="C87" t="n">
-        <v>335.1882352941176</v>
+        <v>335.19</v>
       </c>
       <c r="D87" t="n">
         <v>389.61</v>
@@ -2174,7 +2174,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>343.5218181818182</v>
+        <v>343.52</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>343.5972727272728</v>
+        <v>343.6</v>
       </c>
       <c r="C89" t="n">
-        <v>332.8976470588235</v>
+        <v>332.9</v>
       </c>
       <c r="D89" t="n">
         <v>382.74</v>
@@ -2214,10 +2214,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>293.4272727272727</v>
+        <v>293.43</v>
       </c>
       <c r="C90" t="n">
-        <v>338.0964705882353</v>
+        <v>338.1</v>
       </c>
       <c r="D90" t="n">
         <v>400.1</v>
@@ -2235,7 +2235,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>319.7936363636364</v>
+        <v>319.79</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>331.5781818181818</v>
+        <v>331.58</v>
       </c>
       <c r="C92" t="n">
-        <v>334.2776470588236</v>
+        <v>334.28</v>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>340.2609090909091</v>
+        <v>340.26</v>
       </c>
       <c r="C93" t="n">
-        <v>326.1435294117647</v>
+        <v>326.14</v>
       </c>
       <c r="D93" t="n">
         <v>370.52</v>
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>337.9236363636364</v>
+        <v>337.92</v>
       </c>
       <c r="C94" t="n">
-        <v>329.9352941176471</v>
+        <v>329.94</v>
       </c>
       <c r="D94" t="n">
         <v>396.59</v>
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>344.6009090909091</v>
+        <v>344.6</v>
       </c>
       <c r="C95" t="n">
-        <v>339.4323529411765</v>
+        <v>339.43</v>
       </c>
       <c r="D95" t="n">
         <v>385.21</v>
@@ -2334,10 +2334,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>338.5190909090909</v>
+        <v>338.52</v>
       </c>
       <c r="C96" t="n">
-        <v>338.3147058823529</v>
+        <v>338.31</v>
       </c>
       <c r="D96" t="n">
         <v>394.12</v>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>340.9172727272727</v>
+        <v>340.92</v>
       </c>
       <c r="C97" t="n">
         <v>336.81</v>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>337.1894117647059</v>
+        <v>337.19</v>
       </c>
       <c r="D100" t="n">
         <v>392.98</v>
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>363.2536363636364</v>
+        <v>363.25</v>
       </c>
       <c r="C101" t="n">
-        <v>337.2464705882353</v>
+        <v>337.25</v>
       </c>
       <c r="D101" t="n">
         <v>384.52</v>
@@ -2453,7 +2453,7 @@
         <v>347.38</v>
       </c>
       <c r="C102" t="n">
-        <v>337.8817647058824</v>
+        <v>337.88</v>
       </c>
       <c r="D102" t="n">
         <v>392.11</v>
@@ -2471,10 +2471,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>349.5918181818182</v>
+        <v>349.59</v>
       </c>
       <c r="C103" t="n">
-        <v>340.9276470588235</v>
+        <v>340.93</v>
       </c>
       <c r="D103" t="n">
         <v>397.9</v>
@@ -2492,10 +2492,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>347.2954545454546</v>
+        <v>347.3</v>
       </c>
       <c r="C104" t="n">
-        <v>341.6652941176471</v>
+        <v>341.67</v>
       </c>
       <c r="D104" t="n">
         <v>402.68</v>
@@ -2530,10 +2530,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>337.8945454545454</v>
+        <v>337.89</v>
       </c>
       <c r="C106" t="n">
-        <v>335.6805882352941</v>
+        <v>335.68</v>
       </c>
       <c r="D106" t="n">
         <v>388.81</v>
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>327.3018181818182</v>
+        <v>327.3</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>307.5029411764706</v>
+        <v>307.5</v>
       </c>
       <c r="D108" t="n">
         <v>384.98</v>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>337.7247058823529</v>
+        <v>337.72</v>
       </c>
       <c r="D110" t="n">
         <v>405.68</v>
@@ -2625,10 +2625,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>349.2327272727272</v>
+        <v>349.23</v>
       </c>
       <c r="C111" t="n">
-        <v>333.3629411764706</v>
+        <v>333.36</v>
       </c>
       <c r="D111" t="n">
         <v>385.02</v>
@@ -2646,10 +2646,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>342.9672727272728</v>
+        <v>342.97</v>
       </c>
       <c r="C112" t="n">
-        <v>333.9523529411765</v>
+        <v>333.95</v>
       </c>
       <c r="D112" t="n">
         <v>393</v>
@@ -2688,10 +2688,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>333.5272727272728</v>
+        <v>333.53</v>
       </c>
       <c r="C114" t="n">
-        <v>328.3858823529412</v>
+        <v>328.39</v>
       </c>
       <c r="D114" t="n">
         <v>393.64</v>
@@ -2709,10 +2709,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>355.9818181818182</v>
+        <v>355.98</v>
       </c>
       <c r="C115" t="n">
-        <v>327.7147058823529</v>
+        <v>327.71</v>
       </c>
       <c r="D115" t="n">
         <v>383.47</v>
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>342.3527272727272</v>
+        <v>342.35</v>
       </c>
       <c r="C116" t="n">
-        <v>341.8458823529411</v>
+        <v>341.85</v>
       </c>
       <c r="D116" t="n">
         <v>405.97</v>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="n">
-        <v>346.3776470588235</v>
+        <v>346.38</v>
       </c>
       <c r="D118" t="n">
         <v>408.69</v>
@@ -2787,10 +2787,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>332.8145454545455</v>
+        <v>332.81</v>
       </c>
       <c r="C119" t="n">
-        <v>332.9529411764706</v>
+        <v>332.95</v>
       </c>
       <c r="D119" t="n">
         <v>393.73</v>
@@ -2808,10 +2808,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>368.3854545454545</v>
+        <v>368.39</v>
       </c>
       <c r="C120" t="n">
-        <v>341.8505882352941</v>
+        <v>341.85</v>
       </c>
       <c r="D120" t="n">
         <v>365.8</v>
@@ -2829,10 +2829,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>347.8981818181818</v>
+        <v>347.9</v>
       </c>
       <c r="C121" t="n">
-        <v>343.6129411764706</v>
+        <v>343.61</v>
       </c>
       <c r="D121" t="n">
         <v>408.53</v>
@@ -2853,7 +2853,7 @@
         <v>343.04</v>
       </c>
       <c r="C122" t="n">
-        <v>340.7523529411765</v>
+        <v>340.75</v>
       </c>
       <c r="D122" t="n">
         <v>402.93</v>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
-        <v>333.8382352941176</v>
+        <v>333.84</v>
       </c>
       <c r="D123" t="n">
         <v>393.18</v>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
-        <v>337.4464705882353</v>
+        <v>337.45</v>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
@@ -2924,10 +2924,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>327.9218181818182</v>
+        <v>327.92</v>
       </c>
       <c r="C126" t="n">
-        <v>331.1382352941176</v>
+        <v>331.14</v>
       </c>
       <c r="D126" t="n">
         <v>400.49</v>
@@ -2945,10 +2945,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>328.0072727272727</v>
+        <v>328.01</v>
       </c>
       <c r="C127" t="n">
-        <v>342.7611764705882</v>
+        <v>342.76</v>
       </c>
       <c r="D127" t="n">
         <v>410.38</v>
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>304.0045454545455</v>
+        <v>304</v>
       </c>
       <c r="C128" t="n">
-        <v>319.3847058823529</v>
+        <v>319.38</v>
       </c>
       <c r="D128" t="n">
         <v>377.19</v>
@@ -2987,10 +2987,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>338.3518181818182</v>
+        <v>338.35</v>
       </c>
       <c r="C129" t="n">
-        <v>347.5541176470588</v>
+        <v>347.55</v>
       </c>
       <c r="D129" t="n">
         <v>407.4</v>
@@ -3008,10 +3008,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>338.9845454545454</v>
+        <v>338.98</v>
       </c>
       <c r="C130" t="n">
-        <v>328.5341176470588</v>
+        <v>328.53</v>
       </c>
       <c r="D130" t="n">
         <v>382.27</v>
@@ -3029,10 +3029,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>346.8745454545455</v>
+        <v>346.87</v>
       </c>
       <c r="C131" t="n">
-        <v>335.1229411764706</v>
+        <v>335.12</v>
       </c>
       <c r="D131" t="n">
         <v>394.72</v>
@@ -3050,10 +3050,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>345.3663636363636</v>
+        <v>345.37</v>
       </c>
       <c r="C132" t="n">
-        <v>337.3752941176471</v>
+        <v>337.38</v>
       </c>
       <c r="D132" t="n">
         <v>407.59</v>
@@ -3071,10 +3071,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>345.2736363636364</v>
+        <v>345.27</v>
       </c>
       <c r="C133" t="n">
-        <v>339.8817647058824</v>
+        <v>339.88</v>
       </c>
       <c r="D133" t="n">
         <v>407.12</v>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="n">
-        <v>308.3176470588235</v>
+        <v>308.32</v>
       </c>
       <c r="D134" t="n">
         <v>385.96</v>
@@ -3128,10 +3128,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>312.4172727272727</v>
+        <v>312.42</v>
       </c>
       <c r="C136" t="n">
-        <v>337.2152941176471</v>
+        <v>337.22</v>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
@@ -3147,10 +3147,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>337.8281818181818</v>
+        <v>337.83</v>
       </c>
       <c r="C137" t="n">
-        <v>340.9870588235294</v>
+        <v>340.99</v>
       </c>
       <c r="D137" t="n">
         <v>409.57</v>
@@ -3168,10 +3168,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>341.2054545454546</v>
+        <v>341.21</v>
       </c>
       <c r="C138" t="n">
-        <v>338.4852941176471</v>
+        <v>338.49</v>
       </c>
       <c r="D138" t="n">
         <v>401.23</v>
@@ -3206,10 +3206,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>348.3154545454545</v>
+        <v>348.32</v>
       </c>
       <c r="C140" t="n">
-        <v>336.9629411764706</v>
+        <v>336.96</v>
       </c>
       <c r="D140" t="n">
         <v>400.1</v>
@@ -3227,10 +3227,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>345.5872727272728</v>
+        <v>345.59</v>
       </c>
       <c r="C141" t="n">
-        <v>334.4711764705882</v>
+        <v>334.47</v>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="n">
-        <v>304.2082352941176</v>
+        <v>304.21</v>
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>316.4327272727273</v>
+        <v>316.43</v>
       </c>
       <c r="C147" t="n">
-        <v>337.0641176470588</v>
+        <v>337.06</v>
       </c>
       <c r="D147" t="n">
         <v>409.8</v>
@@ -3352,10 +3352,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>348.3563636363637</v>
+        <v>348.36</v>
       </c>
       <c r="C148" t="n">
-        <v>334.7482352941176</v>
+        <v>334.75</v>
       </c>
       <c r="D148" t="n">
         <v>388.49</v>
@@ -3373,10 +3373,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>316.5981818181818</v>
+        <v>316.6</v>
       </c>
       <c r="C149" t="n">
-        <v>341.4870588235294</v>
+        <v>341.49</v>
       </c>
       <c r="D149" t="n">
         <v>408.65</v>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>325.3463636363636</v>
+        <v>325.35</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="n">
@@ -3413,10 +3413,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>336.5554545454545</v>
+        <v>336.56</v>
       </c>
       <c r="C151" t="n">
-        <v>341.9276470588235</v>
+        <v>341.93</v>
       </c>
       <c r="D151" t="n">
         <v>409.15</v>
@@ -3434,10 +3434,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>353.5490909090909</v>
+        <v>353.55</v>
       </c>
       <c r="C152" t="n">
-        <v>346.2164705882353</v>
+        <v>346.22</v>
       </c>
       <c r="D152" t="n">
         <v>404.83</v>
@@ -3455,10 +3455,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>343.490909090909</v>
+        <v>343.49</v>
       </c>
       <c r="C153" t="n">
-        <v>333.8335294117647</v>
+        <v>333.83</v>
       </c>
       <c r="D153" t="n">
         <v>390.86</v>
@@ -3476,10 +3476,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>341.3472727272728</v>
+        <v>341.35</v>
       </c>
       <c r="C154" t="n">
-        <v>329.2941176470588</v>
+        <v>329.29</v>
       </c>
       <c r="D154" t="n">
         <v>387.58</v>
@@ -3497,10 +3497,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>333.3881818181818</v>
+        <v>333.39</v>
       </c>
       <c r="C155" t="n">
-        <v>329.2129411764706</v>
+        <v>329.21</v>
       </c>
       <c r="D155" t="n">
         <v>384.24</v>
@@ -3518,10 +3518,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>339.8327272727273</v>
+        <v>339.83</v>
       </c>
       <c r="C156" t="n">
-        <v>339.1235294117647</v>
+        <v>339.12</v>
       </c>
       <c r="D156" t="n">
         <v>399.34</v>
@@ -3539,7 +3539,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>328.3663636363636</v>
+        <v>328.37</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
@@ -3559,7 +3559,7 @@
         <v>363.32</v>
       </c>
       <c r="C158" t="n">
-        <v>340.8694117647058</v>
+        <v>340.87</v>
       </c>
       <c r="D158" t="n">
         <v>389.11</v>
@@ -3580,7 +3580,7 @@
         <v>342.46</v>
       </c>
       <c r="C159" t="n">
-        <v>347.7005882352942</v>
+        <v>347.7</v>
       </c>
       <c r="D159" t="n">
         <v>408.04</v>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="n">
-        <v>337.1064705882353</v>
+        <v>337.11</v>
       </c>
       <c r="D160" t="n">
         <v>390.22</v>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="n">
-        <v>341.7488235294118</v>
+        <v>341.75</v>
       </c>
       <c r="D161" t="n">
         <v>397.38</v>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>328.2488235294118</v>
+        <v>328.25</v>
       </c>
       <c r="D163" t="n">
         <v>394.41</v>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="n">
-        <v>325.2552941176471</v>
+        <v>325.26</v>
       </c>
       <c r="D165" t="n">
         <v>388.55</v>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="n">
-        <v>333.7276470588235</v>
+        <v>333.73</v>
       </c>
       <c r="D166" t="n">
         <v>408.02</v>
@@ -3727,10 +3727,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>330.4245454545455</v>
+        <v>330.42</v>
       </c>
       <c r="C167" t="n">
-        <v>339.1429411764706</v>
+        <v>339.14</v>
       </c>
       <c r="D167" t="n">
         <v>396.54</v>
@@ -3748,10 +3748,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>330.0218181818182</v>
+        <v>330.02</v>
       </c>
       <c r="C168" t="n">
-        <v>344.0923529411764</v>
+        <v>344.09</v>
       </c>
       <c r="D168" t="n">
         <v>409.84</v>
@@ -3769,10 +3769,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>346.5054545454545</v>
+        <v>346.51</v>
       </c>
       <c r="C169" t="n">
-        <v>350.5935294117647</v>
+        <v>350.59</v>
       </c>
       <c r="D169" t="n">
         <v>408.16</v>
@@ -3793,7 +3793,7 @@
         <v>344.56</v>
       </c>
       <c r="C170" t="n">
-        <v>330.5376470588236</v>
+        <v>330.54</v>
       </c>
       <c r="D170" t="n">
         <v>390.41</v>
@@ -3811,10 +3811,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>340.5836363636364</v>
+        <v>340.58</v>
       </c>
       <c r="C171" t="n">
-        <v>328.2070588235294</v>
+        <v>328.21</v>
       </c>
       <c r="D171" t="n">
         <v>390.66</v>
@@ -3832,10 +3832,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>344.7154545454546</v>
+        <v>344.72</v>
       </c>
       <c r="C172" t="n">
-        <v>337.0217647058824</v>
+        <v>337.02</v>
       </c>
       <c r="D172" t="n">
         <v>393.8</v>
@@ -3856,7 +3856,7 @@
         <v>341.86</v>
       </c>
       <c r="C173" t="n">
-        <v>337.0264705882353</v>
+        <v>337.03</v>
       </c>
       <c r="D173" t="n">
         <v>405.78</v>
@@ -3874,10 +3874,10 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>335.2818181818182</v>
+        <v>335.28</v>
       </c>
       <c r="C174" t="n">
-        <v>331.1552941176471</v>
+        <v>331.16</v>
       </c>
       <c r="D174" t="n">
         <v>391.96</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>344.9572727272728</v>
+        <v>344.96</v>
       </c>
       <c r="C175" t="n">
-        <v>337.8423529411764</v>
+        <v>337.84</v>
       </c>
       <c r="D175" t="n">
         <v>395.15</v>
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>334.2845454545454</v>
+        <v>334.28</v>
       </c>
       <c r="C176" t="n">
-        <v>342.6411764705882</v>
+        <v>342.64</v>
       </c>
       <c r="D176" t="n">
         <v>397.83</v>
@@ -3937,10 +3937,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>363.2990909090909</v>
+        <v>363.3</v>
       </c>
       <c r="C177" t="n">
-        <v>340.8735294117647</v>
+        <v>340.87</v>
       </c>
       <c r="D177" t="n">
         <v>387.32</v>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="n">
-        <v>302.4488235294117</v>
+        <v>302.45</v>
       </c>
       <c r="D178" t="n">
         <v>384.87</v>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="n">
-        <v>285.5735294117647</v>
+        <v>285.57</v>
       </c>
       <c r="D179" t="n">
         <v>392.72</v>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="n">
-        <v>330.2705882352942</v>
+        <v>330.27</v>
       </c>
       <c r="D181" t="n">
         <v>405.54</v>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="n">
-        <v>320.6252941176471</v>
+        <v>320.63</v>
       </c>
       <c r="D182" t="n">
         <v>381.75</v>
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>324.5163636363636</v>
+        <v>324.52</v>
       </c>
       <c r="C183" t="n">
-        <v>326.0505882352941</v>
+        <v>326.05</v>
       </c>
       <c r="D183" t="n">
         <v>389.15</v>
@@ -4072,10 +4072,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>333.4945454545455</v>
+        <v>333.49</v>
       </c>
       <c r="C184" t="n">
-        <v>340.1158823529412</v>
+        <v>340.12</v>
       </c>
       <c r="D184" t="n">
         <v>408.49</v>
@@ -4093,10 +4093,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>336.1218181818182</v>
+        <v>336.12</v>
       </c>
       <c r="C185" t="n">
-        <v>336.0652941176471</v>
+        <v>336.07</v>
       </c>
       <c r="D185" t="n">
         <v>392.11</v>
@@ -4114,10 +4114,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>342.8927272727273</v>
+        <v>342.89</v>
       </c>
       <c r="C186" t="n">
-        <v>336.4970588235294</v>
+        <v>336.5</v>
       </c>
       <c r="D186" t="n">
         <v>391.81</v>
@@ -4138,7 +4138,7 @@
         <v>343.7</v>
       </c>
       <c r="C187" t="n">
-        <v>339.3447058823529</v>
+        <v>339.34</v>
       </c>
       <c r="D187" t="n">
         <v>407.01</v>
@@ -4156,10 +4156,10 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>335.9836363636364</v>
+        <v>335.98</v>
       </c>
       <c r="C188" t="n">
-        <v>333.0388235294118</v>
+        <v>333.04</v>
       </c>
       <c r="D188" t="n">
         <v>388.33</v>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>331.9563636363636</v>
+        <v>331.96</v>
       </c>
       <c r="C189" t="n">
-        <v>336.5764705882353</v>
+        <v>336.58</v>
       </c>
       <c r="D189" t="n">
         <v>391.12</v>
@@ -4198,10 +4198,10 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>322.0136363636364</v>
+        <v>322.01</v>
       </c>
       <c r="C190" t="n">
-        <v>339.1094117647058</v>
+        <v>339.11</v>
       </c>
       <c r="D190" t="n">
         <v>398.02</v>
@@ -4219,10 +4219,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>328.2718181818182</v>
+        <v>328.27</v>
       </c>
       <c r="C191" t="n">
-        <v>336.2129411764706</v>
+        <v>336.21</v>
       </c>
       <c r="D191" t="n">
         <v>386.93</v>
@@ -4240,10 +4240,10 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>313.8481818181818</v>
+        <v>313.85</v>
       </c>
       <c r="C192" t="n">
-        <v>332.8288235294117</v>
+        <v>332.83</v>
       </c>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
@@ -4262,7 +4262,7 @@
         <v>291.89</v>
       </c>
       <c r="C193" t="n">
-        <v>338.7805882352941</v>
+        <v>338.78</v>
       </c>
       <c r="D193" t="n">
         <v>410.65</v>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="B198" t="inlineStr"/>
       <c r="C198" t="n">
-        <v>329.5082352941176</v>
+        <v>329.51</v>
       </c>
       <c r="D198" t="n">
         <v>406.97</v>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="B199" t="inlineStr"/>
       <c r="C199" t="n">
-        <v>320.4152941176471</v>
+        <v>320.42</v>
       </c>
       <c r="D199" t="n">
         <v>379.21</v>
@@ -4386,10 +4386,10 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>283.6790909090909</v>
+        <v>283.68</v>
       </c>
       <c r="C200" t="n">
-        <v>333.7188235294118</v>
+        <v>333.72</v>
       </c>
       <c r="D200" t="n">
         <v>406.36</v>
@@ -4407,10 +4407,10 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>327.3536363636364</v>
+        <v>327.35</v>
       </c>
       <c r="C201" t="n">
-        <v>331.2464705882353</v>
+        <v>331.25</v>
       </c>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
@@ -4426,10 +4426,10 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>317.8281818181818</v>
+        <v>317.83</v>
       </c>
       <c r="C202" t="n">
-        <v>335.3058823529412</v>
+        <v>335.31</v>
       </c>
       <c r="D202" t="n">
         <v>388.76</v>
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>329.3372727272728</v>
+        <v>329.34</v>
       </c>
       <c r="C203" t="n">
-        <v>338.0229411764706</v>
+        <v>338.02</v>
       </c>
       <c r="D203" t="n">
         <v>403.01</v>
@@ -4468,10 +4468,10 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>348.6345454545454</v>
+        <v>348.63</v>
       </c>
       <c r="C204" t="n">
-        <v>345.2229411764706</v>
+        <v>345.22</v>
       </c>
       <c r="D204" t="n">
         <v>396.91</v>
@@ -4492,7 +4492,7 @@
         <v>343.49</v>
       </c>
       <c r="C205" t="n">
-        <v>334.8376470588236</v>
+        <v>334.84</v>
       </c>
       <c r="D205" t="n">
         <v>392.76</v>
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>337.3263636363636</v>
+        <v>337.33</v>
       </c>
       <c r="C206" t="n">
-        <v>333.4747058823529</v>
+        <v>333.47</v>
       </c>
       <c r="D206" t="n">
         <v>397.47</v>
@@ -4531,10 +4531,10 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>345.949090909091</v>
+        <v>345.95</v>
       </c>
       <c r="C207" t="n">
-        <v>339.6788235294118</v>
+        <v>339.68</v>
       </c>
       <c r="D207" t="n">
         <v>408.43</v>
@@ -4552,10 +4552,10 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>339.8681818181818</v>
+        <v>339.87</v>
       </c>
       <c r="C208" t="n">
-        <v>336.6958823529412</v>
+        <v>336.7</v>
       </c>
       <c r="D208" t="n">
         <v>389.07</v>
@@ -4573,10 +4573,10 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>332.1281818181818</v>
+        <v>332.13</v>
       </c>
       <c r="C209" t="n">
-        <v>331.9870588235294</v>
+        <v>331.99</v>
       </c>
       <c r="D209" t="n">
         <v>404.37</v>
@@ -4594,10 +4594,10 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>313.1827272727273</v>
+        <v>313.18</v>
       </c>
       <c r="C210" t="n">
-        <v>321.4011764705882</v>
+        <v>321.4</v>
       </c>
       <c r="D210" t="n">
         <v>361.96</v>
@@ -4632,10 +4632,10 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>314.670909090909</v>
+        <v>314.67</v>
       </c>
       <c r="C212" t="n">
-        <v>323.8235294117647</v>
+        <v>323.82</v>
       </c>
       <c r="D212" t="n">
         <v>386.33</v>
@@ -4704,10 +4704,10 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>298.5645454545455</v>
+        <v>298.56</v>
       </c>
       <c r="C216" t="n">
-        <v>336.2505882352941</v>
+        <v>336.25</v>
       </c>
       <c r="D216" t="n">
         <v>390.88</v>
@@ -4725,10 +4725,10 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>303.0909090909091</v>
+        <v>303.09</v>
       </c>
       <c r="C217" t="n">
-        <v>334.2423529411765</v>
+        <v>334.24</v>
       </c>
       <c r="D217" t="n">
         <v>402.77</v>
@@ -4746,10 +4746,10 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>328.8163636363636</v>
+        <v>328.82</v>
       </c>
       <c r="C218" t="n">
-        <v>327.9494117647059</v>
+        <v>327.95</v>
       </c>
       <c r="D218" t="n">
         <v>382.53</v>
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>361.1481818181818</v>
+        <v>361.15</v>
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr"/>
@@ -4784,10 +4784,10 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>342.2663636363636</v>
+        <v>342.27</v>
       </c>
       <c r="C220" t="n">
-        <v>343.5370588235294</v>
+        <v>343.54</v>
       </c>
       <c r="D220" t="n">
         <v>397.74</v>
@@ -4805,10 +4805,10 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>346.7372727272727</v>
+        <v>346.74</v>
       </c>
       <c r="C221" t="n">
-        <v>339.3523529411765</v>
+        <v>339.35</v>
       </c>
       <c r="D221" t="n">
         <v>394.77</v>
@@ -4829,7 +4829,7 @@
         <v>348.61</v>
       </c>
       <c r="C222" t="n">
-        <v>338.5888235294117</v>
+        <v>338.59</v>
       </c>
       <c r="D222" t="n">
         <v>384.61</v>
@@ -4847,10 +4847,10 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>347.8663636363636</v>
+        <v>347.87</v>
       </c>
       <c r="C223" t="n">
-        <v>338.0635294117647</v>
+        <v>338.06</v>
       </c>
       <c r="D223" t="n">
         <v>408.22</v>
@@ -4868,10 +4868,10 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>323.3081818181818</v>
+        <v>323.31</v>
       </c>
       <c r="C224" t="n">
-        <v>313.7229411764706</v>
+        <v>313.72</v>
       </c>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
@@ -4887,10 +4887,10 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>292.1818181818182</v>
+        <v>292.18</v>
       </c>
       <c r="C225" t="n">
-        <v>333.2352941176471</v>
+        <v>333.24</v>
       </c>
       <c r="D225" t="n">
         <v>388.78</v>
@@ -4908,10 +4908,10 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>274.9445454545454</v>
+        <v>274.94</v>
       </c>
       <c r="C226" t="n">
-        <v>315.2888235294118</v>
+        <v>315.29</v>
       </c>
       <c r="D226" t="n">
         <v>362.98</v>
@@ -4948,7 +4948,7 @@
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="n">
-        <v>389.9500000000001</v>
+        <v>389.95</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -4980,10 +4980,10 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>326.6154545454545</v>
+        <v>326.62</v>
       </c>
       <c r="C230" t="n">
-        <v>334.3794117647059</v>
+        <v>334.38</v>
       </c>
       <c r="D230" t="n">
         <v>385.41</v>
@@ -5001,10 +5001,10 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>349.3863636363636</v>
+        <v>349.39</v>
       </c>
       <c r="C231" t="n">
-        <v>339.6335294117647</v>
+        <v>339.63</v>
       </c>
       <c r="D231" t="n">
         <v>412.58</v>
@@ -5022,10 +5022,10 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>328.9418181818182</v>
+        <v>328.94</v>
       </c>
       <c r="C232" t="n">
-        <v>328.2558823529412</v>
+        <v>328.26</v>
       </c>
       <c r="D232" t="n">
         <v>375.15</v>
@@ -5043,10 +5043,10 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>345.1136363636364</v>
+        <v>345.11</v>
       </c>
       <c r="C233" t="n">
-        <v>346.8617647058824</v>
+        <v>346.86</v>
       </c>
       <c r="D233" t="n">
         <v>405.86</v>
@@ -5064,10 +5064,10 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>336.5445454545454</v>
+        <v>336.54</v>
       </c>
       <c r="C234" t="n">
-        <v>333.6447058823529</v>
+        <v>333.64</v>
       </c>
       <c r="D234" t="n">
         <v>366.89</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>347.3809090909091</v>
+        <v>347.38</v>
       </c>
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr"/>
@@ -5102,10 +5102,10 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>336.7418181818182</v>
+        <v>336.74</v>
       </c>
       <c r="C236" t="n">
-        <v>330.7517647058824</v>
+        <v>330.75</v>
       </c>
       <c r="D236" t="n">
         <v>393.18</v>
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B237" t="inlineStr"/>
       <c r="C237" t="n">
-        <v>292.2276470588235</v>
+        <v>292.23</v>
       </c>
       <c r="D237" t="n">
         <v>402.7</v>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="B242" t="inlineStr"/>
       <c r="C242" t="n">
-        <v>319.1429411764706</v>
+        <v>319.14</v>
       </c>
       <c r="D242" t="n">
         <v>385.99</v>
@@ -5229,10 +5229,10 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>297.800909090909</v>
+        <v>297.8</v>
       </c>
       <c r="C243" t="n">
-        <v>330.0058823529412</v>
+        <v>330.01</v>
       </c>
       <c r="D243" t="n">
         <v>397.5</v>
@@ -5250,7 +5250,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>318.009090909091</v>
+        <v>318.01</v>
       </c>
       <c r="C244" t="n">
         <v>327.48</v>
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>336.4718181818182</v>
+        <v>336.47</v>
       </c>
       <c r="C245" t="n">
         <v>324.43</v>
@@ -5292,10 +5292,10 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>306.3327272727273</v>
+        <v>306.33</v>
       </c>
       <c r="C246" t="n">
-        <v>332.9088235294118</v>
+        <v>332.91</v>
       </c>
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr">
@@ -5311,10 +5311,10 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>341.2254545454546</v>
+        <v>341.23</v>
       </c>
       <c r="C247" t="n">
-        <v>337.6952941176471</v>
+        <v>337.7</v>
       </c>
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr">
@@ -5330,10 +5330,10 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>337.360909090909</v>
+        <v>337.36</v>
       </c>
       <c r="C248" t="n">
-        <v>335.4405882352942</v>
+        <v>335.44</v>
       </c>
       <c r="D248" t="n">
         <v>390.24</v>
@@ -5351,7 +5351,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>336.1427272727273</v>
+        <v>336.14</v>
       </c>
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr"/>
@@ -5368,10 +5368,10 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>337.4527272727273</v>
+        <v>337.45</v>
       </c>
       <c r="C250" t="n">
-        <v>332.8994117647059</v>
+        <v>332.9</v>
       </c>
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr">
@@ -5387,10 +5387,10 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>341.0109090909091</v>
+        <v>341.01</v>
       </c>
       <c r="C251" t="n">
-        <v>337.0617647058824</v>
+        <v>337.06</v>
       </c>
       <c r="D251" t="n">
         <v>395.49</v>
@@ -5408,10 +5408,10 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>342.6718181818182</v>
+        <v>342.67</v>
       </c>
       <c r="C252" t="n">
-        <v>329.4652941176471</v>
+        <v>329.47</v>
       </c>
       <c r="D252" t="n">
         <v>391.68</v>
@@ -5429,10 +5429,10 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>341.2518181818182</v>
+        <v>341.25</v>
       </c>
       <c r="C253" t="n">
-        <v>328.6129411764706</v>
+        <v>328.61</v>
       </c>
       <c r="D253" t="n">
         <v>383.54</v>
@@ -5450,10 +5450,10 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>338.6281818181818</v>
+        <v>338.63</v>
       </c>
       <c r="C254" t="n">
-        <v>331.6147058823529</v>
+        <v>331.61</v>
       </c>
       <c r="D254" t="n">
         <v>399.57</v>
@@ -5471,10 +5471,10 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>337.0127272727273</v>
+        <v>337.01</v>
       </c>
       <c r="C255" t="n">
-        <v>329.6211764705882</v>
+        <v>329.62</v>
       </c>
       <c r="D255" t="n">
         <v>387.17</v>
@@ -5492,13 +5492,13 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>336.5209090909091</v>
+        <v>336.52</v>
       </c>
       <c r="C256" t="n">
-        <v>331.9035294117647</v>
+        <v>331.9</v>
       </c>
       <c r="D256" t="n">
-        <v>392.3200000000001</v>
+        <v>392.32</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -5513,10 +5513,10 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>331.8263636363636</v>
+        <v>331.83</v>
       </c>
       <c r="C257" t="n">
-        <v>336.3294117647059</v>
+        <v>336.33</v>
       </c>
       <c r="D257" t="n">
         <v>390.36</v>
@@ -5537,7 +5537,7 @@
         <v>316.82</v>
       </c>
       <c r="C258" t="n">
-        <v>322.7252941176471</v>
+        <v>322.73</v>
       </c>
       <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr">
@@ -5553,10 +5553,10 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>318.7209090909091</v>
+        <v>318.72</v>
       </c>
       <c r="C259" t="n">
-        <v>327.9688235294118</v>
+        <v>327.97</v>
       </c>
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr">
@@ -5572,10 +5572,10 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>326.3218181818182</v>
+        <v>326.32</v>
       </c>
       <c r="C260" t="n">
-        <v>320.9182352941176</v>
+        <v>320.92</v>
       </c>
       <c r="D260" t="n">
         <v>358.36</v>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="B262" t="inlineStr"/>
       <c r="C262" t="n">
-        <v>331.7305882352941</v>
+        <v>331.73</v>
       </c>
       <c r="D262" t="n">
         <v>383.14</v>
@@ -5632,7 +5632,7 @@
       </c>
       <c r="B263" t="inlineStr"/>
       <c r="C263" t="n">
-        <v>307.5817647058824</v>
+        <v>307.58</v>
       </c>
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="B264" t="inlineStr"/>
       <c r="C264" t="n">
-        <v>323.4923529411765</v>
+        <v>323.49</v>
       </c>
       <c r="D264" t="n">
         <v>395.58</v>
@@ -5718,7 +5718,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>304.9063636363636</v>
+        <v>304.91</v>
       </c>
       <c r="C268" t="n">
         <v>318.31</v>
@@ -5739,10 +5739,10 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>300.4927272727273</v>
+        <v>300.49</v>
       </c>
       <c r="C269" t="n">
-        <v>322.6588235294118</v>
+        <v>322.66</v>
       </c>
       <c r="D269" t="n">
         <v>385.2</v>
@@ -5760,10 +5760,10 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>295.3290909090909</v>
+        <v>295.33</v>
       </c>
       <c r="C270" t="n">
-        <v>322.0576470588235</v>
+        <v>322.06</v>
       </c>
       <c r="D270" t="n">
         <v>387.24</v>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="B271" t="inlineStr"/>
       <c r="C271" t="n">
-        <v>327.7664705882353</v>
+        <v>327.77</v>
       </c>
       <c r="D271" t="n">
         <v>384.32</v>
@@ -5800,10 +5800,10 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>313.7536363636364</v>
+        <v>313.75</v>
       </c>
       <c r="C272" t="n">
-        <v>336.8429411764706</v>
+        <v>336.84</v>
       </c>
       <c r="D272" t="n">
         <v>391.03</v>
@@ -5821,10 +5821,10 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>332.3163636363636</v>
+        <v>332.32</v>
       </c>
       <c r="C273" t="n">
-        <v>332.6294117647059</v>
+        <v>332.63</v>
       </c>
       <c r="D273" t="n">
         <v>387.67</v>
@@ -5842,10 +5842,10 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>317.0236363636364</v>
+        <v>317.02</v>
       </c>
       <c r="C274" t="n">
-        <v>309.7905882352941</v>
+        <v>309.79</v>
       </c>
       <c r="D274" t="n">
         <v>363.18</v>
@@ -5863,7 +5863,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>355.7481818181818</v>
+        <v>355.75</v>
       </c>
       <c r="C275" t="inlineStr"/>
       <c r="D275" t="inlineStr"/>
@@ -5880,10 +5880,10 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>350.6481818181818</v>
+        <v>350.65</v>
       </c>
       <c r="C276" t="n">
-        <v>342.9352941176471</v>
+        <v>342.94</v>
       </c>
       <c r="D276" t="n">
         <v>414.88</v>
@@ -5901,10 +5901,10 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>341.4745454545454</v>
+        <v>341.47</v>
       </c>
       <c r="C277" t="n">
-        <v>332.1147058823529</v>
+        <v>332.11</v>
       </c>
       <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr">
@@ -5920,7 +5920,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>341.9509090909091</v>
+        <v>341.95</v>
       </c>
       <c r="C278" t="n">
         <v>340.33</v>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="B279" t="inlineStr"/>
       <c r="C279" t="n">
-        <v>334.5064705882353</v>
+        <v>334.51</v>
       </c>
       <c r="D279" t="n">
         <v>387.87</v>
@@ -5963,7 +5963,7 @@
         <v>329.54</v>
       </c>
       <c r="C280" t="n">
-        <v>333.2335294117647</v>
+        <v>333.23</v>
       </c>
       <c r="D280" t="n">
         <v>388.77</v>
@@ -5981,10 +5981,10 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>331.8645454545455</v>
+        <v>331.86</v>
       </c>
       <c r="C281" t="n">
-        <v>339.2252941176471</v>
+        <v>339.23</v>
       </c>
       <c r="D281" t="n">
         <v>397.22</v>
@@ -6002,10 +6002,10 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>310.7263636363636</v>
+        <v>310.73</v>
       </c>
       <c r="C282" t="n">
-        <v>332.4511764705882</v>
+        <v>332.45</v>
       </c>
       <c r="D282" t="n">
         <v>401.8</v>
@@ -6023,7 +6023,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>283.1418181818182</v>
+        <v>283.14</v>
       </c>
       <c r="C283" t="inlineStr"/>
       <c r="D283" t="inlineStr"/>
@@ -6040,10 +6040,10 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>290.3336363636364</v>
+        <v>290.33</v>
       </c>
       <c r="C284" t="n">
-        <v>334.5758823529412</v>
+        <v>334.58</v>
       </c>
       <c r="D284" t="n">
         <v>404.24</v>
@@ -6062,7 +6062,7 @@
       </c>
       <c r="B285" t="inlineStr"/>
       <c r="C285" t="n">
-        <v>330.7688235294117</v>
+        <v>330.77</v>
       </c>
       <c r="D285" t="n">
         <v>401.43</v>
@@ -6098,7 +6098,7 @@
       </c>
       <c r="B287" t="inlineStr"/>
       <c r="C287" t="n">
-        <v>314.6629411764706</v>
+        <v>314.66</v>
       </c>
       <c r="D287" t="n">
         <v>380.98</v>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="B288" t="inlineStr"/>
       <c r="C288" t="n">
-        <v>329.8494117647058</v>
+        <v>329.85</v>
       </c>
       <c r="D288" t="n">
         <v>403.03</v>
@@ -6135,10 +6135,10 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>311.2509090909091</v>
+        <v>311.25</v>
       </c>
       <c r="C289" t="n">
-        <v>324.7623529411765</v>
+        <v>324.76</v>
       </c>
       <c r="D289" t="n">
         <v>405.53</v>
@@ -6156,7 +6156,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>324.9872727272727</v>
+        <v>324.99</v>
       </c>
       <c r="C290" t="n">
         <v>340.75</v>
@@ -6194,10 +6194,10 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>329.0918181818182</v>
+        <v>329.09</v>
       </c>
       <c r="C292" t="n">
-        <v>335.3358823529412</v>
+        <v>335.34</v>
       </c>
       <c r="D292" t="n">
         <v>397.02</v>
@@ -6215,10 +6215,10 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>346.2127272727272</v>
+        <v>346.21</v>
       </c>
       <c r="C293" t="n">
-        <v>347.9641176470589</v>
+        <v>347.96</v>
       </c>
       <c r="D293" t="n">
         <v>405.74</v>
@@ -6236,10 +6236,10 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>342.7927272727272</v>
+        <v>342.79</v>
       </c>
       <c r="C294" t="n">
-        <v>339.7658823529412</v>
+        <v>339.77</v>
       </c>
       <c r="D294" t="n">
         <v>400.76</v>
@@ -6257,10 +6257,10 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>342.7272727272727</v>
+        <v>342.73</v>
       </c>
       <c r="C295" t="n">
-        <v>339.0005882352941</v>
+        <v>339</v>
       </c>
       <c r="D295" t="n">
         <v>398.1</v>
@@ -6295,7 +6295,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>342.8781818181818</v>
+        <v>342.88</v>
       </c>
       <c r="C297" t="n">
         <v>337.9</v>
@@ -6316,10 +6316,10 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>344.8290909090909</v>
+        <v>344.83</v>
       </c>
       <c r="C298" t="n">
-        <v>319.9894117647059</v>
+        <v>319.99</v>
       </c>
       <c r="D298" t="n">
         <v>383.4</v>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="B300" t="inlineStr"/>
       <c r="C300" t="n">
-        <v>332.9788235294118</v>
+        <v>332.98</v>
       </c>
       <c r="D300" t="n">
         <v>406.08</v>
@@ -6374,7 +6374,7 @@
       </c>
       <c r="B301" t="inlineStr"/>
       <c r="C301" t="n">
-        <v>293.0111764705882</v>
+        <v>293.01</v>
       </c>
       <c r="D301" t="n">
         <v>380.6</v>
@@ -6411,7 +6411,7 @@
       <c r="B303" t="inlineStr"/>
       <c r="C303" t="inlineStr"/>
       <c r="D303" t="n">
-        <v>401.2000000000001</v>
+        <v>401.2</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
       <c r="B304" t="inlineStr"/>
       <c r="C304" t="inlineStr"/>
       <c r="D304" t="n">
-        <v>390.7600000000001</v>
+        <v>390.76</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
       </c>
       <c r="B305" t="inlineStr"/>
       <c r="C305" t="n">
-        <v>344.6252941176471</v>
+        <v>344.63</v>
       </c>
       <c r="D305" t="n">
         <v>403.82</v>
@@ -6480,7 +6480,7 @@
       </c>
       <c r="B307" t="inlineStr"/>
       <c r="C307" t="n">
-        <v>354.0847058823529</v>
+        <v>354.08</v>
       </c>
       <c r="D307" t="n">
         <v>385.84</v>
@@ -6498,10 +6498,10 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>344.8745454545455</v>
+        <v>344.87</v>
       </c>
       <c r="C308" t="n">
-        <v>336.6364705882353</v>
+        <v>336.64</v>
       </c>
       <c r="D308" t="n">
         <v>387.68</v>
@@ -6519,10 +6519,10 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>331.8809090909091</v>
+        <v>331.88</v>
       </c>
       <c r="C309" t="n">
-        <v>341.1705882352941</v>
+        <v>341.17</v>
       </c>
       <c r="D309" t="n">
         <v>391.63</v>
@@ -6540,10 +6540,10 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>319.1263636363636</v>
+        <v>319.13</v>
       </c>
       <c r="C310" t="n">
-        <v>343.4335294117647</v>
+        <v>343.43</v>
       </c>
       <c r="D310" t="n">
         <v>407.04</v>
@@ -6561,10 +6561,10 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>337.1763636363636</v>
+        <v>337.18</v>
       </c>
       <c r="C311" t="n">
-        <v>344.1347058823529</v>
+        <v>344.13</v>
       </c>
       <c r="D311" t="inlineStr"/>
       <c r="E311" t="inlineStr">
@@ -6580,10 +6580,10 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>336.9354545454545</v>
+        <v>336.94</v>
       </c>
       <c r="C312" t="n">
-        <v>333.8447058823529</v>
+        <v>333.84</v>
       </c>
       <c r="D312" t="n">
         <v>389.19</v>
@@ -6601,10 +6601,10 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>333.1636363636364</v>
+        <v>333.16</v>
       </c>
       <c r="C313" t="n">
-        <v>336.1658823529411</v>
+        <v>336.17</v>
       </c>
       <c r="D313" t="n">
         <v>380.64</v>
@@ -6622,10 +6622,10 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>338.3281818181818</v>
+        <v>338.33</v>
       </c>
       <c r="C314" t="n">
-        <v>328.7976470588235</v>
+        <v>328.8</v>
       </c>
       <c r="D314" t="n">
         <v>387.11</v>
@@ -6643,10 +6643,10 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>330.5672727272727</v>
+        <v>330.57</v>
       </c>
       <c r="C315" t="n">
-        <v>335.3058823529412</v>
+        <v>335.31</v>
       </c>
       <c r="D315" t="n">
         <v>385.47</v>
@@ -6664,10 +6664,10 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>337.8627272727272</v>
+        <v>337.86</v>
       </c>
       <c r="C316" t="n">
-        <v>333.7047058823529</v>
+        <v>333.7</v>
       </c>
       <c r="D316" t="n">
         <v>385.98</v>
@@ -6688,7 +6688,7 @@
         <v>335.66</v>
       </c>
       <c r="C317" t="n">
-        <v>335.8535294117647</v>
+        <v>335.85</v>
       </c>
       <c r="D317" t="n">
         <v>389.91</v>
@@ -6706,10 +6706,10 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>349.8454545454546</v>
+        <v>349.85</v>
       </c>
       <c r="C318" t="n">
-        <v>342.6729411764706</v>
+        <v>342.67</v>
       </c>
       <c r="D318" t="n">
         <v>396.63</v>
@@ -6727,10 +6727,10 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>340.2918181818182</v>
+        <v>340.29</v>
       </c>
       <c r="C319" t="n">
-        <v>337.0976470588236</v>
+        <v>337.1</v>
       </c>
       <c r="D319" t="n">
         <v>391.1</v>
@@ -6748,10 +6748,10 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>346.0363636363636</v>
+        <v>346.04</v>
       </c>
       <c r="C320" t="n">
-        <v>327.5064705882353</v>
+        <v>327.51</v>
       </c>
       <c r="D320" t="n">
         <v>392.54</v>
@@ -6769,7 +6769,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>335.9972727272728</v>
+        <v>336</v>
       </c>
       <c r="C321" t="n">
         <v>332.3</v>
@@ -6790,10 +6790,10 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>330.6672727272727</v>
+        <v>330.67</v>
       </c>
       <c r="C322" t="n">
-        <v>339.9370588235294</v>
+        <v>339.94</v>
       </c>
       <c r="D322" t="n">
         <v>404.62</v>
@@ -6811,10 +6811,10 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>355.0572727272727</v>
+        <v>355.06</v>
       </c>
       <c r="C323" t="n">
-        <v>332.4376470588236</v>
+        <v>332.44</v>
       </c>
       <c r="D323" t="n">
         <v>380.58</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>328.430909090909</v>
+        <v>328.43</v>
       </c>
       <c r="C324" t="n">
-        <v>334.2435294117647</v>
+        <v>334.24</v>
       </c>
       <c r="D324" t="inlineStr"/>
       <c r="E324" t="inlineStr">
@@ -6851,10 +6851,10 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>330.5963636363636</v>
+        <v>330.6</v>
       </c>
       <c r="C325" t="n">
-        <v>328.8941176470589</v>
+        <v>328.89</v>
       </c>
       <c r="D325" t="n">
         <v>384.31</v>
@@ -6889,10 +6889,10 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>330.6736363636364</v>
+        <v>330.67</v>
       </c>
       <c r="C327" t="n">
-        <v>333.9658823529412</v>
+        <v>333.97</v>
       </c>
       <c r="D327" t="n">
         <v>385.65</v>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="B328" t="inlineStr"/>
       <c r="C328" t="n">
-        <v>325.1229411764706</v>
+        <v>325.12</v>
       </c>
       <c r="D328" t="n">
         <v>384.27</v>
@@ -6929,10 +6929,10 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>321.8736363636364</v>
+        <v>321.87</v>
       </c>
       <c r="C329" t="n">
-        <v>320.5347058823529</v>
+        <v>320.53</v>
       </c>
       <c r="D329" t="n">
         <v>379.37</v>
@@ -6950,10 +6950,10 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>321.2745454545454</v>
+        <v>321.27</v>
       </c>
       <c r="C330" t="n">
-        <v>321.0111764705882</v>
+        <v>321.01</v>
       </c>
       <c r="D330" t="n">
         <v>369.35</v>
@@ -6971,10 +6971,10 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>312.0354545454546</v>
+        <v>312.04</v>
       </c>
       <c r="C331" t="n">
-        <v>335.2605882352942</v>
+        <v>335.26</v>
       </c>
       <c r="D331" t="n">
         <v>347.56</v>
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>321.2118181818182</v>
+        <v>321.21</v>
       </c>
       <c r="C332" t="n">
-        <v>333.7535294117647</v>
+        <v>333.75</v>
       </c>
       <c r="D332" t="n">
         <v>392.86</v>
@@ -7013,10 +7013,10 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>300.3636363636364</v>
+        <v>300.36</v>
       </c>
       <c r="C333" t="n">
-        <v>322.3935294117647</v>
+        <v>322.39</v>
       </c>
       <c r="D333" t="n">
         <v>381.98</v>
@@ -7034,10 +7034,10 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>327.0354545454546</v>
+        <v>327.04</v>
       </c>
       <c r="C334" t="n">
-        <v>347.5470588235294</v>
+        <v>347.55</v>
       </c>
       <c r="D334" t="n">
         <v>404.14</v>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="B335" t="inlineStr"/>
       <c r="C335" t="n">
-        <v>328.3547058823529</v>
+        <v>328.35</v>
       </c>
       <c r="D335" t="n">
         <v>390.04</v>
@@ -7108,10 +7108,10 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>320.5681818181818</v>
+        <v>320.57</v>
       </c>
       <c r="C338" t="n">
-        <v>331.5723529411765</v>
+        <v>331.57</v>
       </c>
       <c r="D338" t="n">
         <v>393.52</v>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="B340" t="inlineStr"/>
       <c r="C340" t="n">
-        <v>328.5870588235294</v>
+        <v>328.59</v>
       </c>
       <c r="D340" t="n">
         <v>398.94</v>
@@ -7184,10 +7184,10 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>347.7345454545454</v>
+        <v>347.73</v>
       </c>
       <c r="C342" t="n">
-        <v>331.3082352941177</v>
+        <v>331.31</v>
       </c>
       <c r="D342" t="n">
         <v>381.08</v>
@@ -7205,10 +7205,10 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>337.0227272727273</v>
+        <v>337.02</v>
       </c>
       <c r="C343" t="n">
-        <v>347.2682352941176</v>
+        <v>347.27</v>
       </c>
       <c r="D343" t="n">
         <v>408.4</v>
@@ -7226,7 +7226,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>305.0309090909091</v>
+        <v>305.03</v>
       </c>
       <c r="C344" t="n">
         <v>326.73</v>
@@ -7245,10 +7245,10 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>329.4263636363636</v>
+        <v>329.43</v>
       </c>
       <c r="C345" t="n">
-        <v>335.7464705882353</v>
+        <v>335.75</v>
       </c>
       <c r="D345" t="n">
         <v>393.16</v>
@@ -7269,7 +7269,7 @@
         <v>341.06</v>
       </c>
       <c r="C346" t="n">
-        <v>337.0982352941176</v>
+        <v>337.1</v>
       </c>
       <c r="D346" t="n">
         <v>399.27</v>
@@ -7304,10 +7304,10 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>339.4681818181818</v>
+        <v>339.47</v>
       </c>
       <c r="C348" t="n">
-        <v>338.0964705882353</v>
+        <v>338.1</v>
       </c>
       <c r="D348" t="n">
         <v>399.2</v>
@@ -7325,10 +7325,10 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>342.0827272727273</v>
+        <v>342.08</v>
       </c>
       <c r="C349" t="n">
-        <v>331.8111764705882</v>
+        <v>331.81</v>
       </c>
       <c r="D349" t="n">
         <v>391.17</v>
@@ -7346,10 +7346,10 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>350.6136363636364</v>
+        <v>350.61</v>
       </c>
       <c r="C350" t="n">
-        <v>340.6794117647058</v>
+        <v>340.68</v>
       </c>
       <c r="D350" t="n">
         <v>400.21</v>
@@ -7367,10 +7367,10 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>342.3863636363636</v>
+        <v>342.39</v>
       </c>
       <c r="C351" t="n">
-        <v>338.885294117647</v>
+        <v>338.89</v>
       </c>
       <c r="D351" t="n">
         <v>399.6</v>
@@ -7388,10 +7388,10 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>339.1190909090909</v>
+        <v>339.12</v>
       </c>
       <c r="C352" t="n">
-        <v>329.9394117647059</v>
+        <v>329.94</v>
       </c>
       <c r="D352" t="n">
         <v>383.81</v>
@@ -7409,10 +7409,10 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>334.7381818181818</v>
+        <v>334.74</v>
       </c>
       <c r="C353" t="n">
-        <v>336.8382352941176</v>
+        <v>336.84</v>
       </c>
       <c r="D353" t="n">
         <v>398.33</v>
@@ -7430,10 +7430,10 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>346.7263636363636</v>
+        <v>346.73</v>
       </c>
       <c r="C354" t="n">
-        <v>344.3682352941176</v>
+        <v>344.37</v>
       </c>
       <c r="D354" t="n">
         <v>389.17</v>
@@ -7451,10 +7451,10 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>351.2272727272727</v>
+        <v>351.23</v>
       </c>
       <c r="C355" t="n">
-        <v>339.2988235294118</v>
+        <v>339.3</v>
       </c>
       <c r="D355" t="n">
         <v>401.33</v>
@@ -7472,10 +7472,10 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>343.3118181818182</v>
+        <v>343.31</v>
       </c>
       <c r="C356" t="n">
-        <v>337.4511764705882</v>
+        <v>337.45</v>
       </c>
       <c r="D356" t="n">
         <v>390.56</v>
@@ -7493,10 +7493,10 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>344.3936363636363</v>
+        <v>344.39</v>
       </c>
       <c r="C357" t="n">
-        <v>345.0358823529411</v>
+        <v>345.04</v>
       </c>
       <c r="D357" t="n">
         <v>403.2</v>
@@ -7514,10 +7514,10 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>331.1345454545454</v>
+        <v>331.13</v>
       </c>
       <c r="C358" t="n">
-        <v>336.2664705882353</v>
+        <v>336.27</v>
       </c>
       <c r="D358" t="n">
         <v>386.83</v>
@@ -7535,10 +7535,10 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>345.6381818181818</v>
+        <v>345.64</v>
       </c>
       <c r="C359" t="n">
-        <v>342.7988235294118</v>
+        <v>342.8</v>
       </c>
       <c r="D359" t="n">
         <v>398.71</v>
@@ -7556,10 +7556,10 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>332.0254545454546</v>
+        <v>332.03</v>
       </c>
       <c r="C360" t="n">
-        <v>332.0994117647058</v>
+        <v>332.1</v>
       </c>
       <c r="D360" t="n">
         <v>378.36</v>
@@ -7577,10 +7577,10 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>319.4936363636364</v>
+        <v>319.49</v>
       </c>
       <c r="C361" t="n">
-        <v>334.4452941176471</v>
+        <v>334.45</v>
       </c>
       <c r="D361" t="n">
         <v>397.47</v>
@@ -7598,10 +7598,10 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>302.5263636363636</v>
+        <v>302.53</v>
       </c>
       <c r="C362" t="n">
-        <v>336.7664705882353</v>
+        <v>336.77</v>
       </c>
       <c r="D362" t="n">
         <v>393.08</v>
@@ -7619,10 +7619,10 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>270.5263636363636</v>
+        <v>270.53</v>
       </c>
       <c r="C363" t="n">
-        <v>327.8947058823529</v>
+        <v>327.89</v>
       </c>
       <c r="D363" t="n">
         <v>374.4</v>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="B364" t="inlineStr"/>
       <c r="C364" t="n">
-        <v>332.8264705882353</v>
+        <v>332.83</v>
       </c>
       <c r="D364" t="n">
         <v>396.61</v>
@@ -7744,10 +7744,10 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>310.3336363636364</v>
+        <v>310.33</v>
       </c>
       <c r="C370" t="n">
-        <v>322.8347058823529</v>
+        <v>322.83</v>
       </c>
       <c r="D370" t="n">
         <v>386.88</v>
@@ -7765,10 +7765,10 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>311.3836363636364</v>
+        <v>311.38</v>
       </c>
       <c r="C371" t="n">
-        <v>340.0917647058824</v>
+        <v>340.09</v>
       </c>
       <c r="D371" t="n">
         <v>401.7</v>
@@ -7789,7 +7789,7 @@
         <v>323.65</v>
       </c>
       <c r="C372" t="n">
-        <v>339.5894117647059</v>
+        <v>339.59</v>
       </c>
       <c r="D372" t="n">
         <v>387.09</v>
@@ -7807,10 +7807,10 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>335.5736363636364</v>
+        <v>335.57</v>
       </c>
       <c r="C373" t="n">
-        <v>337.2041176470589</v>
+        <v>337.2</v>
       </c>
       <c r="D373" t="n">
         <v>385.1</v>
@@ -7828,10 +7828,10 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>346.4581818181818</v>
+        <v>346.46</v>
       </c>
       <c r="C374" t="n">
-        <v>342.6670588235294</v>
+        <v>342.67</v>
       </c>
       <c r="D374" t="n">
         <v>391.14</v>
@@ -7849,10 +7849,10 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>350.009090909091</v>
+        <v>350.01</v>
       </c>
       <c r="C375" t="n">
-        <v>340.9535294117647</v>
+        <v>340.95</v>
       </c>
       <c r="D375" t="n">
         <v>387.05</v>
@@ -7870,7 +7870,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>334.7727272727273</v>
+        <v>334.77</v>
       </c>
       <c r="C376" t="inlineStr"/>
       <c r="D376" t="n">
@@ -7889,10 +7889,10 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>335.3081818181818</v>
+        <v>335.31</v>
       </c>
       <c r="C377" t="n">
-        <v>340.4082352941176</v>
+        <v>340.41</v>
       </c>
       <c r="D377" t="n">
         <v>394.99</v>
@@ -7910,10 +7910,10 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>344.0990909090909</v>
+        <v>344.1</v>
       </c>
       <c r="C378" t="n">
-        <v>335.7923529411765</v>
+        <v>335.79</v>
       </c>
       <c r="D378" t="n">
         <v>400.5</v>
@@ -7931,10 +7931,10 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>338.5636363636364</v>
+        <v>338.56</v>
       </c>
       <c r="C379" t="n">
-        <v>333.7064705882353</v>
+        <v>333.71</v>
       </c>
       <c r="D379" t="n">
         <v>386.63</v>
@@ -7952,10 +7952,10 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>344.2572727272727</v>
+        <v>344.26</v>
       </c>
       <c r="C380" t="n">
-        <v>339.7841176470588</v>
+        <v>339.78</v>
       </c>
       <c r="D380" t="n">
         <v>390.31</v>
@@ -7973,10 +7973,10 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>343.4827272727272</v>
+        <v>343.48</v>
       </c>
       <c r="C381" t="n">
-        <v>336.1752941176471</v>
+        <v>336.18</v>
       </c>
       <c r="D381" t="n">
         <v>394.3</v>
@@ -7994,10 +7994,10 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>332.0563636363636</v>
+        <v>332.06</v>
       </c>
       <c r="C382" t="n">
-        <v>338.6211764705882</v>
+        <v>338.62</v>
       </c>
       <c r="D382" t="n">
         <v>400.47</v>
@@ -8015,10 +8015,10 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>332.0445454545454</v>
+        <v>332.04</v>
       </c>
       <c r="C383" t="n">
-        <v>339.0264705882353</v>
+        <v>339.03</v>
       </c>
       <c r="D383" t="n">
         <v>388.77</v>
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B385" t="inlineStr"/>
       <c r="C385" t="n">
-        <v>323.6458823529412</v>
+        <v>323.65</v>
       </c>
       <c r="D385" t="n">
         <v>397.73</v>
@@ -8109,7 +8109,7 @@
       </c>
       <c r="B388" t="inlineStr"/>
       <c r="C388" t="n">
-        <v>310.635294117647</v>
+        <v>310.64</v>
       </c>
       <c r="D388" t="n">
         <v>383.19</v>
@@ -8128,7 +8128,7 @@
       </c>
       <c r="B389" t="inlineStr"/>
       <c r="C389" t="n">
-        <v>334.8211764705882</v>
+        <v>334.82</v>
       </c>
       <c r="D389" t="n">
         <v>387.1</v>
@@ -8146,10 +8146,10 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>314.8636363636364</v>
+        <v>314.86</v>
       </c>
       <c r="C390" t="n">
-        <v>338.7894117647058</v>
+        <v>338.79</v>
       </c>
       <c r="D390" t="n">
         <v>397.58</v>
@@ -8167,10 +8167,10 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>333.9563636363636</v>
+        <v>333.96</v>
       </c>
       <c r="C391" t="n">
-        <v>342.2211764705882</v>
+        <v>342.22</v>
       </c>
       <c r="D391" t="n">
         <v>404.79</v>
@@ -8188,10 +8188,10 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>339.4009090909091</v>
+        <v>339.4</v>
       </c>
       <c r="C392" t="n">
-        <v>318.9311764705882</v>
+        <v>318.93</v>
       </c>
       <c r="D392" t="n">
         <v>381.83</v>
@@ -12554,7 +12554,7 @@
         <v>0.0697</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.5132105710305265</v>
+        <v>-0.5132267824490235</v>
       </c>
       <c r="J2" t="n">
         <v>391</v>
@@ -12563,19 +12563,19 @@
         <v>266</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05155649089384862</v>
+        <v>0.05155863782200965</v>
       </c>
       <c r="M2" t="n">
-        <v>12.21056273524249</v>
+        <v>12.21068338044861</v>
       </c>
       <c r="N2" t="n">
-        <v>272.6401378011252</v>
+        <v>272.6453917540184</v>
       </c>
       <c r="O2" t="n">
-        <v>16.51181812524366</v>
+        <v>16.51197722121789</v>
       </c>
       <c r="P2" t="n">
-        <v>342.4382906265989</v>
+        <v>342.4385154829406</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12632,7 +12632,7 @@
         <v>0.1034</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1796371764223269</v>
+        <v>-0.1796332129578567</v>
       </c>
       <c r="J3" t="n">
         <v>391</v>
@@ -12641,19 +12641,19 @@
         <v>308</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02180063293825341</v>
+        <v>0.021799335730602</v>
       </c>
       <c r="M3" t="n">
-        <v>6.423015883156259</v>
+        <v>6.423129904280719</v>
       </c>
       <c r="N3" t="n">
-        <v>81.56141726962601</v>
+        <v>81.56277961521192</v>
       </c>
       <c r="O3" t="n">
-        <v>9.031135989986311</v>
+        <v>9.031211414600586</v>
       </c>
       <c r="P3" t="n">
-        <v>336.771377799757</v>
+        <v>336.7715354087937</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12710,7 +12710,7 @@
         <v>0.0556</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1922121313708793</v>
+        <v>-0.1922121313708791</v>
       </c>
       <c r="J4" t="n">
         <v>391</v>
@@ -12719,10 +12719,10 @@
         <v>363</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01768772840595856</v>
+        <v>0.01768772840595834</v>
       </c>
       <c r="M4" t="n">
-        <v>8.551063958514467</v>
+        <v>8.551063958514465</v>
       </c>
       <c r="N4" t="n">
         <v>119.7605293493703</v>
@@ -12813,7 +12813,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-42.802074081872945,173.3617695985921</t>
+          <t>-42.80207408598847,173.36176960312127</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -12835,12 +12835,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-42.802005749659635,173.36274910387485</t>
+          <t>-42.80200574250664,173.36274909846733</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-42.802046528397774,173.36173927574464</t>
+          <t>-42.80204652016671,173.3617392666863</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -12862,12 +12862,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-42.80176070900644,173.36256385980948</t>
+          <t>-42.80176072331245,173.3625638706244</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-42.8020079576342,173.36169682833264</t>
+          <t>-42.8020079699808,173.36169684192015</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -12889,12 +12889,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-42.8017307235681,173.3625411917512</t>
+          <t>-42.80173074502715,173.36254120797358</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-42.80198993983065,173.36167699963008</t>
+          <t>-42.80198991925298,173.36167697698423</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -12916,12 +12916,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-42.80180052983289,173.36259396315458</t>
+          <t>-42.8018005369859,173.36259396856204</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-42.80204405084815,173.36173654918073</t>
+          <t>-42.8020440714258,173.3617365718266</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -12943,12 +12943,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-42.801731717837235,173.36254194338736</t>
+          <t>-42.801731689225186,173.36254192175753</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-42.80204006701405,173.3617321649389</t>
+          <t>-42.802040083476186,173.3617321830556</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -12970,12 +12970,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-42.80163756267232,173.362470765176</t>
+          <t>-42.80163758413137,173.3624707813983</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-42.802026736807605,173.36171749494372</t>
+          <t>-42.802026720345474,173.36171747682704</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -12997,12 +12997,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-42.80186362654839,173.36264166246275</t>
+          <t>-42.801863640854414,173.3626416732777</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-42.80201753859363,173.3617073722431</t>
+          <t>-42.802017555055755,173.36170739035978</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -13025,7 +13025,7 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-42.80205045872969,173.3617436011081</t>
+          <t>-42.80205043815204,173.3617435784622</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -13085,12 +13085,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-42.80124107041973,173.3621710328214</t>
+          <t>-42.80124109903185,173.36217105445087</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-42.80202583550614,173.3617165030548</t>
+          <t>-42.80202581081296,173.36171647587975</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -13112,12 +13112,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-42.80151931607959,173.3623813749933</t>
+          <t>-42.801519323232604,173.36238138040073</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-42.802108092603696,173.36180702775715</t>
+          <t>-42.802108088488175,173.36180702322798</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-42.80205334783221,173.36174678059027</t>
+          <t>-42.80205337664092,173.36174681229448</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -13166,12 +13166,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-42.80173654612257,173.3625455934192</t>
+          <t>-42.80173656758162,173.3625456096416</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-42.80198730177369,173.3616740964336</t>
+          <t>-42.80198733058242,173.3616741281378</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -13250,12 +13250,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-42.801558972437064,173.36241135373285</t>
+          <t>-42.801558979590084,173.36241135914028</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-42.80199542583653,173.36168303701135</t>
+          <t>-42.801995446414196,173.36168305965717</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -13277,12 +13277,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-42.80173914266707,173.36254755632547</t>
+          <t>-42.80173916412612,173.36254757254784</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-42.80206200279261,173.361756305451</t>
+          <t>-42.80206198221496,173.36175628280512</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -13304,12 +13304,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-42.80171361355441,173.36252825712478</t>
+          <t>-42.80171359209537,173.3625282409024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-42.80200292433768,173.3616912891576</t>
+          <t>-42.80200293256875,173.36169129821593</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -13331,12 +13331,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-42.801934705999805,173.36269539662584</t>
+          <t>-42.801934691693795,173.36269538581084</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-42.80207957198934,173.3617756405189</t>
+          <t>-42.80207954318064,173.36177560881464</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -13358,7 +13358,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-42.801735566159486,173.36254485259786</t>
+          <t>-42.80173554470045,173.36254483637552</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -13386,7 +13386,7 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-42.80203814094544,173.361730045285</t>
+          <t>-42.802038124483325,173.3617300271683</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -13427,12 +13427,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-42.8017539994789,173.36255878761324</t>
+          <t>-42.80175403524396,173.36255881465053</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-42.80202941601875,173.36172044343562</t>
+          <t>-42.80202944894301,173.361720479669</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -13454,12 +13454,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-42.80177389916435,173.3625738311665</t>
+          <t>-42.80177386339927,173.36257380412917</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-42.80200610564451,173.36169479020597</t>
+          <t>-42.802006080951315,173.36169476303095</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -13481,12 +13481,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-42.80154039603832,173.36239731065692</t>
+          <t>-42.80154041034436,173.36239732147172</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-42.801921486137736,173.36160166606462</t>
+          <t>-42.8019214943688,173.36160167512293</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -13508,7 +13508,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-42.801448515441,173.3623278524402</t>
+          <t>-42.801448508287976,173.3623278470328</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -13536,7 +13536,7 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-42.80195803621002,173.3616418895391</t>
+          <t>-42.80195801563234,173.36164186689325</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -13578,7 +13578,7 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-42.80200583401935,173.36169449128076</t>
+          <t>-42.802005801095085,173.3616944550474</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -13600,12 +13600,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-42.80182333363636,173.36261120216324</t>
+          <t>-42.80182335509539,173.36261121838567</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-42.80196192539037,173.36164616959854</t>
+          <t>-42.80196193362143,173.36164617865688</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -13627,12 +13627,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-42.801665187629425,173.3624916487099</t>
+          <t>-42.80166520193547,173.36249165952475</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-42.802040198711055,173.3617323098725</t>
+          <t>-42.80204022340424,173.36173233704756</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -13654,12 +13654,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-42.80181175290964,173.36260244747064</t>
+          <t>-42.80181178867472,173.36260247450795</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-42.802091601681,173.36178887931732</t>
+          <t>-42.802091576987834,173.36178885214224</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -13681,12 +13681,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-42.80174962183393,173.36255547824913</t>
+          <t>-42.80174962898694,173.36255548365656</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-42.80201504046556,173.36170462303588</t>
+          <t>-42.802015036350035,173.3617046185067</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -13708,12 +13708,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-42.80170095271554,173.3625186859384</t>
+          <t>-42.80170092410348,173.3625186643086</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-42.8019800995897,173.36166617039152</t>
+          <t>-42.801980124282906,173.36166619756648</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -13735,12 +13735,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-42.801902581839244,173.36267111160237</t>
+          <t>-42.80190258899224,173.36267111700985</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-42.802023106908514,173.36171350021317</t>
+          <t>-42.80202308221532,173.36171347303815</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -13762,12 +13762,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-42.801658807137365,173.36248682527162</t>
+          <t>-42.80165882859641,173.36248684149393</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-42.80209504226308,173.36179266571426</t>
+          <t>-42.8020950751873,173.36179270194773</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -13790,7 +13790,7 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-42.801943594797095,173.3616259967092</t>
+          <t>-42.801943603028164,173.3616260057675</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -13869,12 +13869,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-42.80143375874772,173.36231669696687</t>
+          <t>-42.801433794512846,173.36231672400388</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-42.80198407931085,173.3616705500957</t>
+          <t>-42.80198411223513,173.36167058632904</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -13901,7 +13901,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-42.802038400223914,173.361730330623</t>
+          <t>-42.80203840433945,173.3617303351522</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -13923,12 +13923,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-42.801788484158934,173.36258485698323</t>
+          <t>-42.80178849846497,173.36258486779815</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-42.80205222429235,173.36174554412491</t>
+          <t>-42.80205225721659,173.36174558035833</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -13950,12 +13950,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-42.80176872753528,173.3625699215721</t>
+          <t>-42.801768748994334,173.36256993779446</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-42.802046668325836,173.36173942973664</t>
+          <t>-42.80204666009476,173.36173942067828</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -13973,12 +13973,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-42.80182010047492,173.36260875798683</t>
+          <t>-42.80182012908696,173.36260877961672</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-42.80208144043968,173.36177769676712</t>
+          <t>-42.80208143220861,173.36177768770875</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -14000,12 +14000,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-42.80183989285829,173.3626237204601</t>
+          <t>-42.80183987855227,173.3626237096452</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-42.80206149658239,173.3617557483621</t>
+          <t>-42.80206149246686,173.3617557438329</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -14027,12 +14027,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-42.801788219497446,173.36258465690705</t>
+          <t>-42.80178818373238,173.36258462986973</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-42.80192868832631,173.36160959209175</t>
+          <t>-42.80192870067291,173.3616096056792</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -14050,12 +14050,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-42.80171934312022,173.36253258849345</t>
+          <t>-42.80171933596719,173.362532583086</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-42.80205123656499,173.36174445712248</t>
+          <t>-42.80205120775628,173.36174442541827</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -14096,12 +14096,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-42.80170309146749,173.36252030276566</t>
+          <t>-42.80170312723257,173.3625203298029</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-42.8020043195033,173.36169282454617</t>
+          <t>-42.80200433184989,173.36169283813368</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -14142,12 +14142,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-42.801389581650334,173.3622833008751</t>
+          <t>-42.8013895744973,173.3622832954677</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-42.801992935938934,173.36168029686442</t>
+          <t>-42.801992927707865,173.36168028780608</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -14169,12 +14169,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-42.80154586094749,173.36240144192672</t>
+          <t>-42.801545839488426,173.3624014257045</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-42.802027728650756,173.3617185864745</t>
+          <t>-42.80202769984203,173.36171855477028</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -14254,7 +14254,7 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-42.801955924940614,173.36163956607845</t>
+          <t>-42.80195591670955,173.36163955702014</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -14276,12 +14276,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-42.80154313564594,173.36239938169916</t>
+          <t>-42.801543164258035,173.36239940332882</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-42.80197894312469,173.3616648976958</t>
+          <t>-42.80197893489361,173.36166488863742</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -14322,12 +14322,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-42.80169971524368,173.36251775044977</t>
+          <t>-42.80169974385575,173.36251777207954</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-42.80197523091302,173.36166081238807</t>
+          <t>-42.80197522679749,173.3616608078589</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -14349,7 +14349,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-42.80170032325009,173.3625182100829</t>
+          <t>-42.801700294638025,173.3625181884531</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -14372,12 +14372,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-42.80175431421152,173.3625590255414</t>
+          <t>-42.80175434997659,173.3625590525787</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-42.80204139633062,173.3617336278625</t>
+          <t>-42.80204141279275,173.36173364597923</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -14399,12 +14399,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-42.80192044290179,173.36268461409392</t>
+          <t>-42.8019204500548,173.36268461950144</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-42.802035729244096,173.36172739118862</t>
+          <t>-42.80203574570623,173.3617274093053</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -14426,12 +14426,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-42.801819378020696,173.3626082118324</t>
+          <t>-42.801819342255634,173.36260818479505</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-42.80209518219106,173.3617928197065</t>
+          <t>-42.80209521511529,173.36179285593994</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -14453,12 +14453,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-42.80166263400203,173.36248971825296</t>
+          <t>-42.80166260538996,173.36248969662321</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-42.80198536335736,173.36167196319582</t>
+          <t>-42.80198537158844,173.36167197225416</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -14480,12 +14480,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-42.8017786201534,173.3625774000914</t>
+          <t>-42.80177858438833,173.3625773730541</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-42.802048273382866,173.36174119611536</t>
+          <t>-42.802048269267324,173.36174119158616</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -14507,12 +14507,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-42.80167567395338,173.36249957602206</t>
+          <t>-42.801675666800364,173.3624995706146</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-42.8019373144897,173.3616190852101</t>
+          <t>-42.80193730625864,173.36161907615178</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -14534,12 +14534,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-42.801760759077524,173.3625638976617</t>
+          <t>-42.80176072331245,173.3625638706244</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-42.802037198488776,173.36172900810396</t>
+          <t>-42.80203721495091,173.36172902622067</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -14561,7 +14561,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-42.80170358502563,173.36252067587964</t>
+          <t>-42.80170359933165,173.36252068669455</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -14588,12 +14588,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-42.801603736042765,173.36244519341685</t>
+          <t>-42.80160375034881,173.36244520423168</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-42.80206136900097,173.36175560795755</t>
+          <t>-42.80206135253883,173.36175558984084</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -14615,12 +14615,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-42.80171614572209,173.36253017136252</t>
+          <t>-42.80171610995702,173.36253014432526</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-42.80193143750442,173.36161261757002</t>
+          <t>-42.80193142927335,173.3616126085117</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -14700,7 +14700,7 @@
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-42.8018974843258,173.3615752520263</t>
+          <t>-42.80189749667242,173.3615752656138</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -14723,7 +14723,7 @@
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-42.802017102347214,173.3617068921509</t>
+          <t>-42.80201713527148,173.36170692838425</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -14746,7 +14746,7 @@
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-42.801994067710574,173.36168154238572</t>
+          <t>-42.8019940471329,173.36168151973988</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -14768,12 +14768,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-42.80183627343454,173.3626209842789</t>
+          <t>-42.80183625912851,173.36262097346392</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-42.80202399997893,173.36171448304367</t>
+          <t>-42.80202399174787,173.36171447398533</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -14795,12 +14795,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-42.801921565924104,173.36268546306943</t>
+          <t>-42.80192155161807,173.36268545225445</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-42.80199080409267,173.36167795075534</t>
+          <t>-42.80199082878586,173.36167797793036</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -14822,12 +14822,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-42.801790322483335,173.36258624670157</t>
+          <t>-42.80179030817731,173.3625862358866</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-42.80201550140518,173.3617051303031</t>
+          <t>-42.80201552609837,173.36170515747813</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -14849,12 +14849,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-42.80169427179797,173.36251363538173</t>
+          <t>-42.801694236032894,173.36251360834447</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-42.801962612684655,173.3616469259689</t>
+          <t>-42.801962633262335,173.36164694861472</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -14876,12 +14876,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-42.801765143875244,173.36256721243447</t>
+          <t>-42.80176512956922,173.36256720161953</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-42.801979157132436,173.36166513321243</t>
+          <t>-42.80197914478585,173.36166511962492</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -14903,12 +14903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-42.80176108811619,173.36256414640482</t>
+          <t>-42.80176111672824,173.36256416803465</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-42.80200529900009,173.36169390248864</t>
+          <t>-42.802005311346704,173.36169391607615</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -14930,7 +14930,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-42.80174303390726,173.36255049798143</t>
+          <t>-42.801743019601226,173.36255048716654</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -14953,12 +14953,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-42.80174362760751,173.36255094680033</t>
+          <t>-42.801743649066545,173.36255096302267</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-42.80198927311423,173.3616762659049</t>
+          <t>-42.80198928957636,173.36167628402157</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -14980,12 +14980,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-42.80134887376217,173.36225252741366</t>
+          <t>-42.80134889522127,173.36225254363583</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-42.80202564619167,173.36171629471283</t>
+          <t>-42.80202567088488,173.36171632188788</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -15007,7 +15007,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-42.801556332971955,173.36240935839348</t>
+          <t>-42.80155630435987,173.3624093367638</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -15026,12 +15026,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-42.8016490575734,173.36247945493005</t>
+          <t>-42.801649071879424,173.36247946574494</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-42.80199892815519,173.36168689133407</t>
+          <t>-42.801998944617324,173.36168690945073</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
@@ -15049,12 +15049,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-42.80171737604085,173.36253110144418</t>
+          <t>-42.80171736888781,173.36253109603675</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-42.80194201854698,173.36162426204055</t>
+          <t>-42.80194199385377,173.3616242348656</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -15076,12 +15076,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-42.80169898563598,173.36251719889</t>
+          <t>-42.801698957023916,173.3625171772602</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-42.80196854728542,173.3616534570238</t>
+          <t>-42.8019685802097,173.3616534932571</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -15103,12 +15103,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-42.80175152453583,173.36255691663283</t>
+          <t>-42.80175151738282,173.36255691122537</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-42.802034992563975,173.36172658046638</t>
+          <t>-42.80203497610185,173.36172656234967</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -15130,12 +15130,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-42.80170367086182,173.36252074076904</t>
+          <t>-42.80170367801483,173.3625207461765</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-42.80202717305397,173.36171797503607</t>
+          <t>-42.80202714012971,173.36171793880268</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -15157,7 +15157,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-42.80172254051827,173.36253500562464</t>
+          <t>-42.80172256197732,173.362535021847</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -15223,7 +15223,7 @@
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-42.802019300041394,173.3617093107287</t>
+          <t>-42.80201930415692,173.3617093152579</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -15245,12 +15245,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-42.80189829003381,173.36266786711215</t>
+          <t>-42.80189826142177,173.3626678454822</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-42.802019699248,173.36170975005842</t>
+          <t>-42.80201972394119,173.36170977723344</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -15277,7 +15277,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-42.80202414402255,173.3617146415647</t>
+          <t>-42.80202413167596,173.3617146279772</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -15299,12 +15299,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-42.8017907945822,173.3625866035942</t>
+          <t>-42.80179078027617,173.36258659277925</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-42.8020454542442,173.3617380936297</t>
+          <t>-42.80204547070633,173.3617381117464</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -15326,12 +15326,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-42.80177272607008,173.36257294434282</t>
+          <t>-42.801772761835146,173.36257297138013</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-42.80205061511985,173.3617437732168</t>
+          <t>-42.80205064804411,173.36174380945022</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -15372,12 +15372,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-42.801698756739455,173.36251702585164</t>
+          <t>-42.80169872097437,173.3625169988144</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-42.802008743700924,173.3616976934042</t>
+          <t>-42.8020087395854,173.361697688875</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -15399,7 +15399,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-42.801615409771394,173.36245401834725</t>
+          <t>-42.801615395465355,173.36245400753242</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -15423,7 +15423,7 @@
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-42.801811601247806,173.36148073776454</t>
+          <t>-42.80181158067009,173.36148071511886</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -15465,7 +15465,7 @@
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-42.802023045175524,173.3617134322756</t>
+          <t>-42.802023012251276,173.36171339604223</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -15487,12 +15487,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-42.80178796914197,173.3625844676458</t>
+          <t>-42.801787947682946,173.36258445142343</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-42.80199252850113,173.36167984847677</t>
+          <t>-42.80199250792346,173.36167982583092</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -15514,12 +15514,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-42.80173867056808,173.36254719943344</t>
+          <t>-42.801738692027115,173.36254721565578</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-42.801996652265416,173.36168438670362</t>
+          <t>-42.801996635803285,173.36168436858694</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -15568,12 +15568,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-42.80166439364444,173.36249104848378</t>
+          <t>-42.8016644151035,173.3624910647061</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-42.80195770696722,173.36164152720602</t>
+          <t>-42.80195773577598,173.36164155891018</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -15595,12 +15595,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-42.80184107310516,173.3626246126932</t>
+          <t>-42.801841058799134,173.36262460187825</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-42.801953011141826,173.3616363594313</t>
+          <t>-42.80195297821755,173.36163632319798</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -15622,12 +15622,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-42.80173383512978,173.36254354399384</t>
+          <t>-42.80173381367074,173.3625435277715</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-42.802051878587775,173.36174516367407</t>
+          <t>-42.80205190739649,173.3617451953783</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -15669,7 +15669,7 @@
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-42.80208358463042,173.3617800564706</t>
+          <t>-42.80208360109254,173.36178007458733</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -15691,12 +15691,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-42.80165878567829,173.36248680904927</t>
+          <t>-42.801658749913216,173.36248678201207</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-42.80198965997437,173.36167669164666</t>
+          <t>-42.801989639396695,173.36167666900084</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -15718,12 +15718,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-42.80193866876607,173.3626983923753</t>
+          <t>-42.801938704531096,173.36269841941277</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-42.80205191151202,173.3617451999075</t>
+          <t>-42.80205190739649,173.3617451953783</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -15745,12 +15745,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-42.80177746851819,173.36257652948998</t>
+          <t>-42.80177748282423,173.36257654030487</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-42.80206424164102,173.36175876932413</t>
+          <t>-42.802064221063354,173.36175874667825</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -15777,7 +15777,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-42.802044227815976,173.3617367439353</t>
+          <t>-42.80204421135386,173.3617367258186</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -15800,7 +15800,7 @@
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-42.801995853851984,173.36168350804488</t>
+          <t>-42.80199586619858,173.3616835216324</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -15823,7 +15823,7 @@
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-42.802021098528904,173.361711289977</t>
+          <t>-42.8020211232221,173.36171131715201</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-42.801620288130806,173.36245770621747</t>
+          <t>-42.80162027382477,173.36245769540258</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-42.80197696355285,173.36166271916687</t>
+          <t>-42.80197697589944,173.36166273275438</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -15887,12 +15887,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-42.80162096051465,173.36245821451632</t>
+          <t>-42.801620981973706,173.36245823073864</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-42.80205828235324,173.36175221107405</t>
+          <t>-42.80205827412218,173.36175220201565</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -15914,12 +15914,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-42.80143209924553,173.36231544244964</t>
+          <t>-42.801432063480405,173.36231541541264</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-42.801894731031126,173.3615722220222</t>
+          <t>-42.801894698106835,173.361572185789</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -15941,12 +15941,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-42.801702354706784,173.36251974579838</t>
+          <t>-42.80170234040075,173.3625197349835</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-42.802091815688506,173.36178911483483</t>
+          <t>-42.8020917868798,173.36178908313053</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -15968,12 +15968,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-42.8017073332062,173.36252350938324</t>
+          <t>-42.80170729744111,173.36252348234598</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-42.801958744082015,173.36164266855513</t>
+          <t>-42.80195871527327,173.36164263685103</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -15995,12 +15995,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-42.801769414224644,173.36257044068833</t>
+          <t>-42.80176937845957,173.362570413651</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-42.802004842175954,173.36169339975075</t>
+          <t>-42.80200482159829,173.3616933771049</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -16022,12 +16022,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-42.80175754737408,173.3625614697126</t>
+          <t>-42.801757575986144,173.36256149134246</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-42.80202060054953,173.36171074194715</t>
+          <t>-42.80202063347379,173.3617107781805</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -16049,12 +16049,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-42.8017568177666,173.36256091815181</t>
+          <t>-42.80175678915454,173.36256089652198</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-42.80203813682992,173.36173004075582</t>
+          <t>-42.802038124483325,173.3617300271683</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -16077,7 +16077,7 @@
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-42.801817301272486,173.36148701062652</t>
+          <t>-42.80181731773464,173.36148702874308</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -16118,12 +16118,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-42.80149829334271,173.36236548259987</t>
+          <t>-42.801498314801776,173.3623654988221</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-42.80201948112481,173.3617095100123</t>
+          <t>-42.80201951404906,173.36170954624566</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -16141,12 +16141,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-42.801698234569244,173.36251663110792</t>
+          <t>-42.801698248875276,173.36251664192284</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-42.80204586991283,173.36173855107648</t>
+          <t>-42.80204589049049,173.36173857372236</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -16168,12 +16168,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-42.80172480802424,173.36253671978716</t>
+          <t>-42.80172484378932,173.36253674682442</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-42.80202836655816,173.36171928849637</t>
+          <t>-42.80202839948243,173.36171932472976</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -16214,12 +16214,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-42.80178075175144,173.36257901151524</t>
+          <t>-42.80178078751652,173.36257903855258</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-42.80201771556151,173.3617075669975</t>
+          <t>-42.80201769498385,173.36170754435165</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -16241,12 +16241,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-42.80175928555657,173.3625627837251</t>
+          <t>-42.80175930701561,173.3625627999475</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-42.802000282165544,173.36168838143075</t>
+          <t>-42.80200027393449,173.3616883723724</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
@@ -16341,7 +16341,7 @@
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-42.80178855009749,173.3614553700508</t>
+          <t>-42.801788562444116,173.36145538363823</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
@@ -16359,12 +16359,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-42.80152988824784,173.36238936715714</t>
+          <t>-42.801529866788776,173.36238935093488</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-42.80201842343305,173.3617083460151</t>
+          <t>-42.802018394624326,173.36170831431085</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -16386,12 +16386,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-42.80178107363706,173.36257925485108</t>
+          <t>-42.8017811022491,173.36257927648091</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-42.80200222058155,173.36169051466956</t>
+          <t>-42.80200223292815,173.36169052825707</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -16413,12 +16413,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-42.801531190098025,173.3623903513074</t>
+          <t>-42.80153120440407,173.36239036212226</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-42.80204936811405,173.3617424008763</t>
+          <t>-42.80204938869169,173.36174242352217</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -16440,7 +16440,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-42.80160002362525,173.36244238695988</t>
+          <t>-42.801600052237326,173.36244240858963</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -16463,12 +16463,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-42.80168822034566,173.36250906068148</t>
+          <t>-42.80168825611075,173.36250908771868</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-42.802052450646535,173.36174579322966</t>
+          <t>-42.80205246710865,173.36174581134637</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -16490,12 +16490,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-42.801821931645996,173.3626101422991</t>
+          <t>-42.801821938799016,173.3626101477066</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-42.802082456975405,173.3617788154749</t>
+          <t>-42.80208248166858,173.36177884264998</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -16517,12 +16517,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-42.80174279070474,173.36255031412796</t>
+          <t>-42.80174278355173,173.36255030872047</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-42.801995820927715,173.36168347181155</t>
+          <t>-42.80199579623453,173.36168344463653</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -16544,12 +16544,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-42.8017259238947,173.36253756334986</t>
+          <t>-42.80172594535372,173.3625375795722</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-42.80196406135284,173.3616485202346</t>
+          <t>-42.8019640325441,173.36164848853045</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -16571,12 +16571,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-42.8016632992327,173.3624902211451</t>
+          <t>-42.80166331353875,173.36249023195998</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-42.80196349340906,173.36164789520998</t>
+          <t>-42.8019634728314,173.36164787256416</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -16598,12 +16598,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-42.80171400697031,173.36252855453458</t>
+          <t>-42.80171398551125,173.3625285383122</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-42.80203283190996,173.3617242026499</t>
+          <t>-42.80203280721678,173.36172417547488</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -16625,7 +16625,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-42.80162378595736,173.3624603504532</t>
+          <t>-42.80162381456943,173.36246037208292</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -16649,7 +16649,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-42.80204504680664,173.36173764524128</t>
+          <t>-42.802045050922175,173.36173764977045</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -16676,7 +16676,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-42.80209284045519,173.36179024260136</t>
+          <t>-42.80209283633966,173.36179023807216</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -16699,7 +16699,7 @@
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-42.80201871975136,173.36170867211544</t>
+          <t>-42.80201874444456,173.3617086992905</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -16722,7 +16722,7 @@
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-42.8020511995252,173.3617444163599</t>
+          <t>-42.80205120775628,173.36174442541827</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -16764,7 +16764,7 @@
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-42.8019567480476,173.36164047191104</t>
+          <t>-42.80195675627867,173.36164048096936</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -16806,7 +16806,7 @@
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-42.80193580408806,173.36161742300837</t>
+          <t>-42.801935837012344,173.36161745924164</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -16829,7 +16829,7 @@
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-42.80199508013175,173.3616826565612</t>
+          <t>-42.80199509659388,173.36168267467784</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -16851,12 +16851,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-42.80163998039269,173.36247259289001</t>
+          <t>-42.8016399446276,173.3624725658528</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-42.8020329677225,173.36172435211265</t>
+          <t>-42.802032947144845,173.3617243294668</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -16878,12 +16878,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-42.80163681160532,173.36247019739503</t>
+          <t>-42.80163679729928,173.36247018658014</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-42.802067595797986,173.36176246060498</t>
+          <t>-42.802067579335855,173.36176244248827</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -16905,12 +16905,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-42.80176651010094,173.36256824525935</t>
+          <t>-42.801766545866,173.36256827229667</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-42.80211308062366,173.36181251712995</t>
+          <t>-42.80211305593049,173.36181248995481</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -16937,7 +16937,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-42.80197276159253,173.36165809488875</t>
+          <t>-42.80197277805467,173.36165811300543</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -16959,12 +16959,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-42.80171991536146,173.3625330210896</t>
+          <t>-42.80171988674941,173.3625329994598</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>-42.80195645584462,173.36164015034046</t>
+          <t>-42.80195647642228,173.36164017298628</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -16986,12 +16986,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-42.80175242581568,173.36255759797248</t>
+          <t>-42.801752461580755,173.36255762500977</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-42.802018127114735,173.3617080199147</t>
+          <t>-42.802018114768124,173.36170800632715</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -17018,7 +17018,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-42.80201816003898,173.36170805614805</t>
+          <t>-42.802018184732184,173.3617080833231</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -17040,12 +17040,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-42.80167819896854,173.36250148485001</t>
+          <t>-42.8016781846625,173.3625014740351</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-42.801977082903335,173.3616628505127</t>
+          <t>-42.8019771158276,173.36166288674605</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -17067,12 +17067,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-42.80175432851755,173.36255903635632</t>
+          <t>-42.80175434997659,173.3625590525787</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-42.802023868281914,173.36171433811015</t>
+          <t>-42.80202385181978,173.36171431999347</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -17094,12 +17094,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-42.801670352108275,173.36249555288376</t>
+          <t>-42.80167031634319,173.36249552584655</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-42.80205744278505,173.36175128712176</t>
+          <t>-42.80205743455399,173.36175127806342</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -17121,12 +17121,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-42.801898647684254,173.3626681374863</t>
+          <t>-42.80189865483726,173.3626681428938</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-42.80204507561537,173.36173767694552</t>
+          <t>-42.802045050922175,173.36173764977045</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -17149,7 +17149,7 @@
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-42.80177624050922,173.36144182340047</t>
+          <t>-42.8017762487403,173.36144183245875</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -17172,7 +17172,7 @@
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-42.80165817373599,173.36131189177624</t>
+          <t>-42.801658149042694,173.3613118646015</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -17214,7 +17214,7 @@
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-42.801970893139995,173.36165603864777</t>
+          <t>-42.80197088902446,173.36165603411862</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -17237,7 +17237,7 @@
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-42.8019034106997,173.36158177400918</t>
+          <t>-42.801903443624,173.36158181024243</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -17259,12 +17259,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-42.80159349291757,173.36243744997572</t>
+          <t>-42.80159352152964,173.36243747160543</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-42.80194136829236,173.36162354643315</t>
+          <t>-42.80194136417682,173.36162354190398</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -17286,12 +17286,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-42.80166413613579,173.36249085381584</t>
+          <t>-42.80166410037071,173.36249082677864</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-42.80203977481134,173.36173184336747</t>
+          <t>-42.802039803620055,173.36173187507168</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -17313,12 +17313,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-42.801684808356505,173.36250648132958</t>
+          <t>-42.801684794050466,173.3625064705147</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-42.8020114352592,173.36170065548188</t>
+          <t>-42.80201146818345,173.36170069171527</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -17340,12 +17340,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-42.80173808402083,173.36254675602206</t>
+          <t>-42.80173806256179,173.3625467397997</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-42.80201445605998,173.36170397989355</t>
+          <t>-42.80201447663764,173.3617040025394</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -17372,7 +17372,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-42.8020343793498,173.3617259056194</t>
+          <t>-42.802034346425536,173.361725869386</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -17394,12 +17394,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-42.801683721097895,173.3625056593978</t>
+          <t>-42.80168369248583,173.362505637768</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-42.80199026084226,173.3616773529052</t>
+          <t>-42.801990269073315,173.3616773619635</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -17421,12 +17421,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-42.80165203322907,173.3624817044251</t>
+          <t>-42.80165206184114,173.36248172605485</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-42.80201501165683,173.3617045913317</t>
+          <t>-42.802015036350035,173.3617046185067</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -17448,12 +17448,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-42.80157380065085,173.36242256332554</t>
+          <t>-42.80157377203877,173.36242254169582</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-42.80203273313721,173.36172409394973</t>
+          <t>-42.802032737252745,173.3617240984789</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -17475,12 +17475,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-42.801623042043325,173.36245978807995</t>
+          <t>-42.801623027737286,173.36245977726506</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-42.80201246825783,173.36170179230382</t>
+          <t>-42.80201244768017,173.36170176965797</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -17502,12 +17502,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-42.80150955220242,173.36237399387014</t>
+          <t>-42.801509566508464,173.362374004685</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-42.80198879159682,173.36167573599226</t>
+          <t>-42.80198879982788,173.36167574505063</t>
         </is>
       </c>
       <c r="D192" t="inlineStr"/>
@@ -17530,7 +17530,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-42.80203043255507,173.3617215621415</t>
+          <t>-42.802030428439544,173.36172155761236</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -17629,7 +17629,7 @@
       <c r="B198" t="inlineStr"/>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-42.801965559407414,173.36165016885036</t>
+          <t>-42.801965571754025,173.36165018243784</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -17652,7 +17652,7 @@
       <c r="B199" t="inlineStr"/>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-42.801901941452876,173.36158015710083</t>
+          <t>-42.80190197437718,173.36158019333405</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -17674,12 +17674,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-42.80127217180831,173.36219454407137</t>
+          <t>-42.80127217896134,173.36219454947874</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-42.801995018398756,173.36168258862364</t>
+          <t>-42.80199502662982,173.36168259768198</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -17701,12 +17701,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-42.80161581749351,173.362454326571</t>
+          <t>-42.80161578888144,173.36245430494125</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-42.8019777208111,173.36166355253343</t>
+          <t>-42.80197774550431,173.36166357970842</t>
         </is>
       </c>
       <c r="D201" t="inlineStr"/>
@@ -17724,12 +17724,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-42.8015408681378,173.36239766754667</t>
+          <t>-42.801540882443845,173.36239767836153</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>-42.80200612210664,173.36169480832265</t>
+          <t>-42.80200615091537,173.36169484002684</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -17751,12 +17751,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-42.80163142538197,173.36246612559484</t>
+          <t>-42.80163144684102,173.36246614181715</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-42.802025131750206,173.36171572856622</t>
+          <t>-42.80202511117254,173.36171570592035</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -17778,12 +17778,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-42.80178326245919,173.36258090953476</t>
+          <t>-42.80178322669411,173.36258088249744</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-42.80207550584619,173.36177116568845</t>
+          <t>-42.802075485268546,173.36177114304255</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -17810,7 +17810,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>-42.80200284614255,173.3616912031034</t>
+          <t>-42.80200286260468,173.36169122122004</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -17832,12 +17832,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-42.80169428610401,173.36251364619662</t>
+          <t>-42.80169431471608,173.36251366782642</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-42.80199331045246,173.36168070901874</t>
+          <t>-42.80199327752819,173.36168067278538</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -17859,12 +17859,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-42.801762132456254,173.36256493589391</t>
+          <t>-42.80176213960928,173.36256494130134</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-42.80203671697161,173.3617284781905</t>
+          <t>-42.80203672520268,173.36172848724888</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -17886,12 +17886,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-42.801714285937926,173.36252876542517</t>
+          <t>-42.80171430024396,173.36252877624008</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-42.802015847109885,173.36170551075352</t>
+          <t>-42.802015875918606,173.3617055424577</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -17913,12 +17913,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-42.801653385149535,173.36248272643132</t>
+          <t>-42.801653399455574,173.3624827372462</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-42.80198290226822,173.36166925475396</t>
+          <t>-42.80198292284589,173.3616692773998</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -17940,12 +17940,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-42.80150431618897,173.3623700356424</t>
+          <t>-42.80150429472989,173.36237001942018</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-42.80190883909324,173.36158774796542</t>
+          <t>-42.80190883086216,173.3615877389071</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -17986,12 +17986,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-42.8015160256888,173.3623788875816</t>
+          <t>-42.801516018535786,173.36237888217417</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-42.801925786873255,173.36160639903488</t>
+          <t>-42.801925762180055,173.36160637185995</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -18070,12 +18070,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-42.8013892955292,173.36228308457933</t>
+          <t>-42.801389259764065,173.36228305754233</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-42.80201273165191,173.36170208217078</t>
+          <t>-42.80201272753638,173.3617020776416</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -18097,12 +18097,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-42.801424910453605,173.36231000801138</t>
+          <t>-42.80142490330058,173.36231000260398</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-42.80199868122322,173.3616866195839</t>
+          <t>-42.801998664761086,173.36168660146726</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -18124,12 +18124,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-42.801627326701954,173.36246302713386</t>
+          <t>-42.80162735531403,173.36246304876357</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-42.80195465324031,173.36163816656713</t>
+          <t>-42.80195465735584,173.3616381710963</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -18151,7 +18151,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-42.80188172366393,173.36265534338418</t>
+          <t>-42.80188173796996,173.36265535419912</t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -18170,12 +18170,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-42.801733155593325,173.36254303028565</t>
+          <t>-42.80173318420539,173.36254305191548</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-42.80206371073763,173.3617581850601</t>
+          <t>-42.802063731315265,173.36175820770598</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -18197,12 +18197,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-42.801768334119515,173.36256962416175</t>
+          <t>-42.80176835557855,173.36256964038412</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-42.802034432851706,173.36172596449867</t>
+          <t>-42.802034416389574,173.361725946382</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -18229,7 +18229,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>-42.80202909089175,173.3617200856309</t>
+          <t>-42.80202909912281,173.36172009468925</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -18251,12 +18251,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-42.801777218162705,173.36257634022877</t>
+          <t>-42.80177724677477,173.36257636185863</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-42.8020254157219,173.36171604107915</t>
+          <t>-42.80202539102871,173.3617160139041</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -18278,12 +18278,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-42.801583986552956,173.3624302635023</t>
+          <t>-42.801584000859,173.36243027431715</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-42.80185511897236,173.36152862894346</t>
+          <t>-42.80185509839467,173.3615286062977</t>
         </is>
       </c>
       <c r="D224" t="inlineStr"/>
@@ -18301,12 +18301,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-42.80133907411111,173.36224511929422</t>
+          <t>-42.801339059805045,173.36224510847947</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-42.801991635430404,173.3616788656473</t>
+          <t>-42.80199166835466,173.36167890188062</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -18328,12 +18328,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-42.801203445458,173.3621425900805</t>
+          <t>-42.80120340969283,173.3621425630437</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-42.80186607453775,173.36154068553793</t>
+          <t>-42.80186608276884,173.36154069459627</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -18412,12 +18412,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-42.80161000924139,173.36244993573504</t>
+          <t>-42.801610045006484,173.36244996277222</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-42.80199964014242,173.36168767488033</t>
+          <t>-42.80199964425795,173.36168767940953</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -18439,12 +18439,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-42.80178917800123,173.36258538150724</t>
+          <t>-42.80178920661328,173.3625854031371</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-42.80203640007571,173.36172812944406</t>
+          <t>-42.802036375382514,173.361728102269</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -18466,12 +18466,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-42.80162831381862,173.36246377336002</t>
+          <t>-42.80162829951257,173.36246376254513</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-42.80195679743401,173.361640526261</t>
+          <t>-42.80195682624276,173.36164055796513</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -18493,12 +18493,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-42.801755558836064,173.36255996643914</t>
+          <t>-42.80175553022401,173.36255994480928</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-42.802086971710914,173.3617837839872</t>
+          <t>-42.802086959364324,173.36178377039963</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -18520,12 +18520,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-42.80168813450946,173.3625089957921</t>
+          <t>-42.801688098744364,173.36250896875487</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-42.80199449984156,173.36168201794843</t>
+          <t>-42.8019944669173,173.36168198171507</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -18547,7 +18547,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-42.80177339845338,173.36257345264417</t>
+          <t>-42.80177339130035,173.3625734472367</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -18566,12 +18566,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-42.80168968671414,173.36251016920804</t>
+          <t>-42.80168967240811,173.36251015839315</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>-42.80197425964696,173.361659743505</t>
+          <t>-42.80197424730036,173.3616597299175</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -18594,7 +18594,7 @@
       <c r="B237" t="inlineStr"/>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-42.80170472880634,173.36136312521316</t>
+          <t>-42.801704745268516,173.36136314332967</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -18693,7 +18693,7 @@
       <c r="B242" t="inlineStr"/>
       <c r="C242" t="inlineStr">
         <is>
-          <t>-42.80189303954512,173.36157036054</t>
+          <t>-42.80189301896743,173.36157033789422</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -18715,12 +18715,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-42.80138328698536,173.3622785423685</t>
+          <t>-42.80138327983233,173.3622785369611</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>-42.801969041149555,173.36165400052354</t>
+          <t>-42.80196906995828,173.36165403222773</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -18742,7 +18742,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-42.801542291589286,173.36239874362346</t>
+          <t>-42.801542298742305,173.3623987490309</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -18769,7 +18769,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>-42.8016875622681,173.3625085631964</t>
+          <t>-42.80168754796206,173.36250855238148</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -18796,12 +18796,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-42.801450418145926,173.36232929080987</t>
+          <t>-42.801450396686846,173.36232927458764</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>-42.801989351309366,173.3616763519591</t>
+          <t>-42.80198935954043,173.36167636101743</t>
         </is>
       </c>
       <c r="D246" t="inlineStr"/>
@@ -18819,12 +18819,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-42.8017249653906,173.36253683875114</t>
+          <t>-42.801725001155674,173.3625368657884</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>-42.80202283939894,173.36171320581695</t>
+          <t>-42.80202287232319,173.36171324205034</t>
         </is>
       </c>
       <c r="D247" t="inlineStr"/>
@@ -18842,12 +18842,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>-42.80169455791865,173.36251385167964</t>
+          <t>-42.80169455076563,173.36251384627218</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>-42.80200706456362,173.36169584550265</t>
+          <t>-42.802007060448084,173.36169584097348</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -18869,7 +18869,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>-42.8016849728759,173.36250660570082</t>
+          <t>-42.801684951416846,173.3625065894785</t>
         </is>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -18888,12 +18888,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-42.80169528037333,173.36251439783186</t>
+          <t>-42.801695258914286,173.36251438160951</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>-42.801989285460834,173.3616762794924</t>
+          <t>-42.80198928957636,173.36167628402157</t>
         </is>
       </c>
       <c r="D250" t="inlineStr"/>
@@ -18911,12 +18911,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>-42.80172327727889,173.36253556259226</t>
+          <t>-42.80172327012587,173.36253555718483</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>-42.80201840697092,173.36170832789838</t>
+          <t>-42.802018394624326,173.36170831431085</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -18938,12 +18938,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-42.80173634583815,173.3625454420105</t>
+          <t>-42.80173633153211,173.36254543119554</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>-42.801965258973404,173.36164983822138</t>
+          <t>-42.80196529189767,173.36164987445468</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -18965,12 +18965,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-42.80172517282805,173.3625369955673</t>
+          <t>-42.801725158522025,173.36253698475235</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>-42.801959295563684,173.36164327546305</t>
+          <t>-42.801959274986,173.3616432528172</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -18992,12 +18992,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-42.8017045292238,173.36252138966296</t>
+          <t>-42.80170454352982,173.36252140047787</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>-42.80198029713533,173.3616663877915</t>
+          <t>-42.80198026421107,173.36166635155817</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -19019,12 +19019,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>-42.80169181831318,173.36251178062727</t>
+          <t>-42.80169179685414,173.3625117644049</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>-42.801966349590046,173.36165103844993</t>
+          <t>-42.80196634135897,173.3616510293916</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -19046,12 +19046,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>-42.801687948531004,173.36250885519848</t>
+          <t>-42.80168794137799,173.36250884979106</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>-42.801982317862425,173.3616686116123</t>
+          <t>-42.80198229316923,173.3616685844373</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -19073,12 +19073,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>-42.80165101034744,173.36248093116117</t>
+          <t>-42.80165103895951,173.36248095279092</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>-42.802013283133256,173.36170268907972</t>
+          <t>-42.80201328724878,173.3617026936089</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -19105,7 +19105,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>-42.801918103166685,173.36159794309705</t>
+          <t>-42.801918136090976,173.36159797933033</t>
         </is>
       </c>
       <c r="D258" t="inlineStr"/>
@@ -19123,12 +19123,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>-42.801547892405836,173.36240297763456</t>
+          <t>-42.80154788525281,173.36240297222713</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>-42.801954789052964,173.3616383160295</t>
+          <t>-42.80195479728404,173.36163832508785</t>
         </is>
       </c>
       <c r="D259" t="inlineStr"/>
@@ -19146,12 +19146,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>-42.80160769881593,173.36244818913426</t>
+          <t>-42.80160768450988,173.3624481783194</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>-42.80190546023725,173.36158402952853</t>
+          <t>-42.80190547258386,173.361584043116</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -19197,7 +19197,7 @@
       <c r="B262" t="inlineStr"/>
       <c r="C262" t="inlineStr">
         <is>
-          <t>-42.80198110789549,173.3616672800373</t>
+          <t>-42.801981103779966,173.36166727550813</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -19220,7 +19220,7 @@
       <c r="B263" t="inlineStr"/>
       <c r="C263" t="inlineStr">
         <is>
-          <t>-42.80181215273035,173.36148134466956</t>
+          <t>-42.80181214038373,173.36148133108213</t>
         </is>
       </c>
       <c r="D263" t="inlineStr"/>
@@ -19239,7 +19239,7 @@
       <c r="B264" t="inlineStr"/>
       <c r="C264" t="inlineStr">
         <is>
-          <t>-42.80192346982629,173.36160384911878</t>
+          <t>-42.801923453364154,173.36160383100213</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -19318,7 +19318,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>-42.80143919504784,173.3623208065929</t>
+          <t>-42.80143922365995,173.3623208282225</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -19345,12 +19345,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>-42.80140446710154,173.36229455366558</t>
+          <t>-42.801404445642476,173.3622945374434</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>-42.80191763811106,173.3615974313023</t>
+          <t>-42.80191764634211,173.3615974403606</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -19372,12 +19372,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>-42.80136383789989,173.36226383967065</t>
+          <t>-42.801363845052926,173.36226384507805</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>-42.80191343203247,173.36159280250388</t>
+          <t>-42.80191344849463,173.3615928206205</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -19400,7 +19400,7 @@
       <c r="B271" t="inlineStr"/>
       <c r="C271" t="inlineStr">
         <is>
-          <t>-42.8019533733089,173.3616367579976</t>
+          <t>-42.80195339800212,173.36163678517255</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -19422,12 +19422,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>-42.80150880828795,173.36237343149895</t>
+          <t>-42.801508779675856,173.36237340986926</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>-42.80201687599294,173.36170664304643</t>
+          <t>-42.80201685541528,173.36170662040058</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -19449,12 +19449,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>-42.801654865824325,173.36248384577155</t>
+          <t>-42.8016548944364,173.3624838674013</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>-42.80198739643095,173.36167420060448</t>
+          <t>-42.801987400546494,173.36167420513365</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -19476,12 +19476,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-42.801534537712726,173.3623928819797</t>
+          <t>-42.801534509100634,173.36239286035</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>-42.801827606586954,173.3614983516015</t>
+          <t>-42.801827602471405,173.36149834707237</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -19503,7 +19503,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>-42.80183923478125,173.36262322297262</t>
+          <t>-42.801839249087266,173.36262323378753</t>
         </is>
       </c>
       <c r="C275" t="inlineStr"/>
@@ -19522,12 +19522,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>-42.801799106383335,173.3625928870688</t>
+          <t>-42.80179912068935,173.36259289788373</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>-42.802059500550214,173.36175355171068</t>
+          <t>-42.80205953347445,173.36175358794412</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -19549,12 +19549,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>-42.80172692531687,173.36253832039333</t>
+          <t>-42.80172688955179,173.36253829335604</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>-42.80198379533904,173.36167023758318</t>
+          <t>-42.80198376241478,173.36167020134985</t>
         </is>
       </c>
       <c r="D277" t="inlineStr"/>
@@ -19572,7 +19572,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>-42.801730673497,173.36254115389906</t>
+          <t>-42.80173066634397,173.36254114849157</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -19600,7 +19600,7 @@
       <c r="B279" t="inlineStr"/>
       <c r="C279" t="inlineStr">
         <is>
-          <t>-42.802000529097526,173.36168865318092</t>
+          <t>-42.802000553790734,173.36168868035594</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -19627,7 +19627,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>-42.8019916230838,173.36167885205978</t>
+          <t>-42.801991598390586,173.36167882488476</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -19649,12 +19649,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>-42.80165131077421,173.36248115827365</t>
+          <t>-42.80165127500912,173.36248113123645</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>-42.80203354389691,173.36172498619703</t>
+          <t>-42.80203357682117,173.36172502243042</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -19676,12 +19676,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>-42.80148498871729,173.36235542481307</t>
+          <t>-42.80148501732939,173.36235544644273</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>-42.80198614942429,173.36167282826676</t>
+          <t>-42.801986141193225,173.36167281920842</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -19703,7 +19703,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>-42.80126794436596,173.36219134831362</t>
+          <t>-42.801267930059886,173.36219133749884</t>
         </is>
       </c>
       <c r="C283" t="inlineStr"/>
@@ -19722,12 +19722,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>-42.801324532000244,173.3622341260819</t>
+          <t>-42.80132450338813,173.36223410445234</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>-42.80200101473041,173.3616891876229</t>
+          <t>-42.80200104353915,173.3616892193271</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -19750,7 +19750,7 @@
       <c r="B285" t="inlineStr"/>
       <c r="C285" t="inlineStr">
         <is>
-          <t>-42.801974378997464,173.3616598748508</t>
+          <t>-42.80197438722852,173.3616598839091</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -19792,7 +19792,7 @@
       <c r="B287" t="inlineStr"/>
       <c r="C287" t="inlineStr">
         <is>
-          <t>-42.801861695604195,173.36153586652296</t>
+          <t>-42.801861675026494,173.3615358438772</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -19815,7 +19815,7 @@
       <c r="B288" t="inlineStr"/>
       <c r="C288" t="inlineStr">
         <is>
-          <t>-42.8019679464174,173.36165279576574</t>
+          <t>-42.801967950532934,173.3616528002949</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -19837,12 +19837,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>-42.80148911601248,173.3623585448895</t>
+          <t>-42.80148910885946,173.3623585394821</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>-42.80193235526896,173.36161362757258</t>
+          <t>-42.8019323388068,173.36161360945593</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>-42.801597198182186,173.36244025102465</t>
+          <t>-42.801597219641266,173.36244026724697</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -19910,12 +19910,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>-42.801629494066795,173.362464665587</t>
+          <t>-42.801629479760756,173.3624646547721</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>-42.802006331998804,173.36169503931035</t>
+          <t>-42.80200636080753,173.36169507101454</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -19937,12 +19937,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>-42.801764206830384,173.3625665040572</t>
+          <t>-42.801764185371354,173.3625664878348</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>-42.80209468421209,173.3617922716753</t>
+          <t>-42.80209465540338,173.36179223997104</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -19964,12 +19964,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>-42.80173729718917,173.362546161202</t>
+          <t>-42.801737275730126,173.36254614497963</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>-42.802037326070256,173.3617291485084</t>
+          <t>-42.802037354878976,173.3617291802126</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -19991,12 +19991,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>-42.80173678217207,173.36254577186523</t>
+          <t>-42.80173680363112,173.3625457880876</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>-42.80203197176388,173.36172325605253</t>
+          <t>-42.80203196764834,173.36172325152336</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -20037,7 +20037,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>-42.801737969572585,173.3625466695028</t>
+          <t>-42.801737983878624,173.36254668031768</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -20064,12 +20064,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>-42.8017533199425,173.36255827390474</t>
+          <t>-42.80175332709552,173.3625582793122</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>-42.80189896180378,173.36157687799275</t>
+          <t>-42.801898965919314,173.36157688252192</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -20111,7 +20111,7 @@
       <c r="B300" t="inlineStr"/>
       <c r="C300" t="inlineStr">
         <is>
-          <t>-42.801989841057846,173.36167689093006</t>
+          <t>-42.801989849288915,173.3616768999884</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -20134,7 +20134,7 @@
       <c r="B301" t="inlineStr"/>
       <c r="C301" t="inlineStr">
         <is>
-          <t>-42.8017102107137,173.36136915800978</t>
+          <t>-42.801710202482624,173.36136914895152</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -20214,7 +20214,7 @@
       <c r="B305" t="inlineStr"/>
       <c r="C305" t="inlineStr">
         <is>
-          <t>-42.80207132446803,173.36176656404155</t>
+          <t>-42.80207135739227,173.361766600275</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -20256,7 +20256,7 @@
       <c r="B307" t="inlineStr"/>
       <c r="C307" t="inlineStr">
         <is>
-          <t>-42.80213750627854,173.36183939785835</t>
+          <t>-42.80213747335433,173.36183936162485</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -20278,12 +20278,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>-42.80175367759323,173.36255854427762</t>
+          <t>-42.80175364182816,173.36255851724033</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>-42.80201543144112,173.3617050533072</t>
+          <t>-42.80201545613433,173.3617050804822</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -20305,12 +20305,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>-42.80165143952854,173.36248125560755</t>
+          <t>-42.801651432375515,173.36248125020015</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>-42.80204715395847,173.3617399641794</t>
+          <t>-42.80204714984294,173.36173995965024</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -20332,12 +20332,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>-42.801551082653745,173.36240538934493</t>
+          <t>-42.801551111265844,173.36240541097462</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>-42.802062986404316,173.36175738792465</t>
+          <t>-42.802062961711144,173.36175736074958</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -20359,12 +20359,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>-42.801693105856224,173.3625127539678</t>
+          <t>-42.801693134468294,173.36251277559757</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>-42.80206789211613,173.36176278670587</t>
+          <t>-42.802067859191894,173.36176275047242</t>
         </is>
       </c>
       <c r="D311" t="inlineStr"/>
@@ -20382,12 +20382,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>-42.80169121030675,173.36251132099426</t>
+          <t>-42.80169124607183,173.3625113480315</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>-42.80199589912285,173.36168355786575</t>
+          <t>-42.80199586619858,173.3616835216324</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -20409,12 +20409,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>-42.801661532437244,173.3624888855069</t>
+          <t>-42.80166150382519,173.36248886387713</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>-42.80201213901525,173.36170142997014</t>
+          <t>-42.80201216782398,173.36170146167433</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -20436,12 +20436,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>-42.801702168728355,173.3625196052047</t>
+          <t>-42.80170218303438,173.36251961601963</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>-42.8019605878416,173.36164469762036</t>
+          <t>-42.80196060430374,173.36164471573704</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -20463,12 +20463,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>-42.80164110341666,173.36247344185782</t>
+          <t>-42.801641124875715,173.36247345808013</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>-42.80200612210664,173.36169480832265</t>
+          <t>-42.80200615091537,173.36169484002684</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -20490,12 +20490,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>-42.80169850638388,173.36251683659097</t>
+          <t>-42.80169848492481,173.36251682036863</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>-42.801994919625955,173.36168247992362</t>
+          <t>-42.80199488670168,173.36168244369026</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -20522,7 +20522,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>-42.80200995366751,173.36169902498037</t>
+          <t>-42.8020099289743,173.36169899780535</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -20544,12 +20544,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>-42.80179279027287,173.36258811227685</t>
+          <t>-42.80179282603793,173.36258813931417</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>-42.80205766502368,173.36175153169737</t>
+          <t>-42.80205764444604,173.3617515090515</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -20571,12 +20571,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>-42.80171761924337,173.36253128529754</t>
+          <t>-42.801717604937345,173.36253127448265</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>-42.80201865801838,173.3617086041779</t>
+          <t>-42.80201867448051,173.36170862229454</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -20598,12 +20598,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>-42.80176281914564,173.36256545501</t>
+          <t>-42.80176284775768,173.36256547663984</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>-42.80195155424241,173.36163475610783</t>
+          <t>-42.80195157893561,173.3616347832828</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -20625,7 +20625,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>-42.801683828393145,173.36250574050948</t>
+          <t>-42.8016838498522,173.36250575673182</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -20652,12 +20652,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>-42.801641890248725,173.36247403667605</t>
+          <t>-42.80164191170778,173.36247405289836</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>-42.80203852368986,173.36173046649827</t>
+          <t>-42.80203854426751,173.36173048914412</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -20679,12 +20679,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>-42.80183379849254,173.3626191132935</t>
+          <t>-42.80183381995158,173.3626191295159</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>-42.80198605476701,173.3616727240959</t>
+          <t>-42.801986071229145,173.3616727422126</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -20706,12 +20706,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>-42.801624293821725,173.3624607343811</t>
+          <t>-42.80162428666872,173.36246072897367</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>-42.80199868945429,173.36168662864227</t>
+          <t>-42.801998664761086,173.36168660146726</t>
         </is>
       </c>
       <c r="D324" t="inlineStr"/>
@@ -20729,12 +20729,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>-42.80164133231325,173.36247361489586</t>
+          <t>-42.80164136092533,173.36247363652558</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>-42.801961262789284,173.36164544040318</t>
+          <t>-42.801961233980535,173.36164540869905</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -20775,12 +20775,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>-42.801641940319854,173.3624740745281</t>
+          <t>-42.80164191170778,173.36247405289836</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>-42.801996746922676,173.36168449087452</t>
+          <t>-42.80199677573141,173.36168452257868</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -20803,7 +20803,7 @@
       <c r="B328" t="inlineStr"/>
       <c r="C328" t="inlineStr">
         <is>
-          <t>-42.80193487809249,173.3616164039474</t>
+          <t>-42.80193485751481,173.3616163813016</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -20825,12 +20825,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>-42.80157269908557,173.36242173058184</t>
+          <t>-42.80157267047348,173.36242170895213</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>-42.80190277690694,173.3615810765193</t>
+          <t>-42.80190274398266,173.36158104028604</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -20852,12 +20852,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>-42.80156798524444,173.36241816708812</t>
+          <t>-42.80156794947933,173.362418140051</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>-42.801906110492126,173.3615847451351</t>
+          <t>-42.801906102261064,173.36158473607682</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -20879,12 +20879,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>-42.801495289072534,173.36236321148635</t>
+          <t>-42.80149532483765,173.36236323852341</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>-42.80200580521063,173.36169445957654</t>
+          <t>-42.802005801095085,173.3616944550474</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -20906,12 +20906,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>-42.80156749168594,173.36241779397577</t>
+          <t>-42.8015674773799,173.3624177831609</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>-42.801995261215204,173.36168285584458</t>
+          <t>-42.80199523652201,173.3616828286696</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -20933,12 +20933,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>-42.801403451371606,173.36229378581524</t>
+          <t>-42.801403422759506,173.36229376418567</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>-42.80191578200399,173.36159538865243</t>
+          <t>-42.801915757310766,173.3615953614775</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -20960,12 +20960,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>-42.801613313936585,173.3624524339692</t>
+          <t>-42.80161334970168,173.36245246100637</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>-42.80209176630216,173.36178906048463</t>
+          <t>-42.8020917868798,173.36178908313053</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -20988,7 +20988,7 @@
       <c r="B335" t="inlineStr"/>
       <c r="C335" t="inlineStr">
         <is>
-          <t>-42.80195748884388,173.36164128716038</t>
+          <t>-42.8019574559196,173.36164125092708</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -21048,12 +21048,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>-42.8015624273466,173.3624139655188</t>
+          <t>-42.80156244165265,173.36241397633364</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>-42.8019800008169,173.36166606169152</t>
+          <t>-42.80197998435475,173.36166604357484</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -21095,7 +21095,7 @@
       <c r="B340" t="inlineStr"/>
       <c r="C340" t="inlineStr">
         <is>
-          <t>-42.80195911448014,173.36164307617983</t>
+          <t>-42.801959135057814,173.36164309882568</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -21140,12 +21140,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>-42.80177618097573,173.3625755561468</t>
+          <t>-42.80177614521067,173.36257552910948</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>-42.801978152942176,173.36166402809587</t>
+          <t>-42.80197816528878,173.36166404168338</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -21167,12 +21167,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>-42.80169189699637,173.3625118401092</t>
+          <t>-42.80169187553732,173.36251182388685</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>-42.80208981554145,173.36178691365208</t>
+          <t>-42.80208982788804,173.36178692723965</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -21194,7 +21194,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>-42.80144017501246,173.36232154740713</t>
+          <t>-42.801440167859425,173.36232154199973</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -21217,12 +21217,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>-42.801632126377854,173.36246665552366</t>
+          <t>-42.801632154989925,173.3624666771534</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>-42.80200920464058,173.3616982006713</t>
+          <t>-42.80200922933378,173.36169822784635</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -21249,7 +21249,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>-42.802018662133925,173.36170860870703</t>
+          <t>-42.80201867448051,173.36170862229454</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -21290,12 +21290,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>-42.80171113861084,173.36252638614678</t>
+          <t>-42.80171115291687,173.3625263969617</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>-42.80202564619167,173.36171629471283</t>
+          <t>-42.80202567088488,173.36171632188788</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -21317,12 +21317,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>-42.80173171068424,173.36254193797987</t>
+          <t>-42.801731689225186,173.36254192175753</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>-42.80198167172363,173.36166790053312</t>
+          <t>-42.80198166349257,173.36166789147478</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -21344,12 +21344,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>-42.80179883456885,173.3625926815851</t>
+          <t>-42.80179880595679,173.36259265995525</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>-42.802043717490136,173.36173618231751</t>
+          <t>-42.80204372160566,173.36173618684668</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -21371,12 +21371,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>-42.80173409979135,173.36254374406965</t>
+          <t>-42.80173412840342,173.36254376569948</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>-42.802031165119686,173.36172236833443</t>
+          <t>-42.80203119804395,173.36172240456781</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -21398,12 +21398,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>-42.801708391852614,173.36252430968582</t>
+          <t>-42.80170839900563,173.36252431509328</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>-42.801968576094175,173.36165348872794</t>
+          <t>-42.8019685802097,173.3616534932571</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -21425,12 +21425,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>-42.801673921464094,173.36249825119822</t>
+          <t>-42.801673935770125,173.36249826201308</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>-42.802016843068685,173.36170660681307</t>
+          <t>-42.80201685541528,173.36170662040058</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -21452,12 +21452,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>-42.80176824828335,173.36256955927223</t>
+          <t>-42.80176827689541,173.3625695809021</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>-42.8020695259815,173.36176458479008</t>
+          <t>-42.80206953832809,173.36176459837762</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -21479,12 +21479,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>-42.80180366285248,173.3625963316249</t>
+          <t>-42.80180368431151,173.3625963478473</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>-42.802034058338336,173.3617255523438</t>
+          <t>-42.8020340665694,173.36172556140215</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -21506,12 +21506,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>-42.80174138156079,173.3625492488591</t>
+          <t>-42.80174136725476,173.3625492380442</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>-42.80202113145316,173.36171132621035</t>
+          <t>-42.8020211232221,173.36171131715201</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -21533,12 +21533,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>-42.80174989364849,173.3625556837325</t>
+          <t>-42.801749865036435,173.36255566210266</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>-42.80207419710778,173.36176972540915</t>
+          <t>-42.80207422591648,173.36176975711342</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -21560,12 +21560,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>-42.801645566900326,173.3624768160996</t>
+          <t>-42.801645531135236,173.3624767890624</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>-42.80201284277129,173.3617022044584</t>
+          <t>-42.802012867464484,173.36170223163342</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -21587,12 +21587,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>-42.80175968612537,173.36256308654282</t>
+          <t>-42.801759700431404,173.36256309735774</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>-42.80205854574719,173.3617525009414</t>
+          <t>-42.80205855397825,173.36175250999977</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -21614,12 +21614,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>-42.801652576858466,173.36248211539058</t>
+          <t>-42.801652612623556,173.36248214242778</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>-42.80198368833516,173.36167011982485</t>
+          <t>-42.8019836924507,173.36167012435402</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -21641,12 +21641,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>-42.8015539724747,173.36240757394376</t>
+          <t>-42.8015539438626,173.3624075523141</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>-42.80200010108209,173.3616881821473</t>
+          <t>-42.80200013400638,173.36168821838066</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -21668,12 +21668,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>-42.801420468423835,173.36230665001585</t>
+          <t>-42.801420497035934,173.36230667164546</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>-42.80201634097375,173.3617060542541</t>
+          <t>-42.802016365666944,173.36170608142916</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -21695,12 +21695,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>-42.801168681703494,173.36211631031642</t>
+          <t>-42.80116871031564,173.36211633194583</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>-42.80195427049555,173.361637745355</t>
+          <t>-42.801954237571266,173.36163770912174</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -21723,7 +21723,7 @@
       <c r="B364" t="inlineStr"/>
       <c r="C364" t="inlineStr">
         <is>
-          <t>-42.80198877513469,173.3616757178756</t>
+          <t>-42.80198879982788,173.36167574505063</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -21840,12 +21840,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>-42.801481898610604,173.36235308881163</t>
+          <t>-42.80148186999851,173.36235306718197</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>-42.80191886865649,173.36159878552036</t>
+          <t>-42.80191883573221,173.36159874928708</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -21867,12 +21867,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>-42.80149016035406,173.36235933437163</t>
+          <t>-42.80149013174195,173.36235931274197</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>-42.80203960607456,173.3617316576713</t>
+          <t>-42.80203959372797,173.36173164408376</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -21899,7 +21899,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>-42.80203609141086,173.361727789756</t>
+          <t>-42.80203609552638,173.36172779428514</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -21921,12 +21921,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>-42.80168049508712,173.36250322063987</t>
+          <t>-42.80168046647504,173.3625031990101</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>-42.8020194029297,173.36170942395802</t>
+          <t>-42.80201937412096,173.3617093922538</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -21948,12 +21948,12 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>-42.80176613814421,173.36256796407142</t>
+          <t>-42.80176615245023,173.36256797488636</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>-42.80205762386838,173.36175148640558</t>
+          <t>-42.80205764444604,173.3617515090515</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -21975,12 +21975,12 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>-42.801794077815224,173.36258908562056</t>
+          <t>-42.801794084968236,173.362589091028</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>-42.802045635327566,173.36173829291346</t>
+          <t>-42.802045610634394,173.36173826573838</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -22002,7 +22002,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>-42.80167419327874,173.36249845668107</t>
+          <t>-42.80167417181969,173.36249844045875</t>
         </is>
       </c>
       <c r="C376" t="inlineStr"/>
@@ -22025,12 +22025,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>-42.80167840640604,173.36250164166592</t>
+          <t>-42.801678420712086,173.3625016524808</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>-42.80204182023032,173.3617340943676</t>
+          <t>-42.80204183257691,173.3617341079551</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -22052,12 +22052,12 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>-42.80174757607171,173.36255393171638</t>
+          <t>-42.80174758322472,173.3625539371238</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>-42.80200952565211,173.36169855394664</t>
+          <t>-42.802009509189986,173.36169853582993</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -22079,12 +22079,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>-42.801704021359626,173.36252100573407</t>
+          <t>-42.80170399274755,173.36252098410424</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>-42.801994931972544,173.36168249351113</t>
+          <t>-42.801994956665744,173.36168252068612</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -22106,12 +22106,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>-42.80174882069628,173.3625548726139</t>
+          <t>-42.80174884215532,173.36255488883629</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>-42.80203745365172,173.3617292889128</t>
+          <t>-42.80203742484299,173.36172925720857</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -22133,12 +22133,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>-42.80174272632762,173.36255026546084</t>
+          <t>-42.80174270486857,173.36255024923847</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>-42.80201220486376,173.36170150243686</t>
+          <t>-42.80201223778801,173.36170153867022</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -22160,12 +22160,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>-42.8016528200611,173.36248229924357</t>
+          <t>-42.801652848673164,173.3624823208733</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>-42.802029317245996,173.36172033473545</t>
+          <t>-42.80202930901493,173.3617203256771</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -22187,12 +22187,12 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>-42.801652727071854,173.36248222894682</t>
+          <t>-42.80165269130676,173.36248220190961</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>-42.80203215284726,173.3617234553362</t>
+          <t>-42.802032177540454,173.36172348251122</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -22238,7 +22238,7 @@
       <c r="B385" t="inlineStr"/>
       <c r="C385" t="inlineStr">
         <is>
-          <t>-42.8019245439813,173.36160503122903</t>
+          <t>-42.80192457279005,173.36160506293317</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -22299,7 +22299,7 @@
       <c r="B388" t="inlineStr"/>
       <c r="C388" t="inlineStr">
         <is>
-          <t>-42.801833516503194,173.3615048554531</t>
+          <t>-42.80183354942752,173.36150489168625</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -22322,7 +22322,7 @@
       <c r="B389" t="inlineStr"/>
       <c r="C389" t="inlineStr">
         <is>
-          <t>-42.80200273090763,173.36169107628663</t>
+          <t>-42.80200272267656,173.36169106722826</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -22344,12 +22344,12 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>-42.80151754212977,173.3623800339539</t>
+          <t>-42.80151751351768,173.36238001232425</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>-42.80203049428803,173.36172163007913</t>
+          <t>-42.80203049840357,173.36172163460827</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -22371,12 +22371,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>-42.80166776986888,173.36249360079674</t>
+          <t>-42.80166779848095,173.3624936224265</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>-42.802054504296294,173.36174805328903</t>
+          <t>-42.80205449606523,173.3617480442307</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -22398,12 +22398,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>-42.80171060928764,173.36252598599546</t>
+          <t>-42.801710602134634,173.362525980588</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>-42.801891557951514,173.3615687300447</t>
+          <t>-42.801891549720445,173.3615687209864</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">

--- a/data/nzd0405/nzd0405.xlsx
+++ b/data/nzd0405/nzd0405.xlsx
@@ -12545,13 +12545,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0474</v>
+        <v>0.034</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0697</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
         <v>-0.5132267824490235</v>
@@ -12623,13 +12623,13 @@
         <v>0.5026978139361767</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0732</v>
+        <v>0.1234</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1034</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>-0.1796332129578567</v>
@@ -12701,13 +12701,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.125</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0451</v>
+        <v>0.0921</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0556</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="n">
         <v>-0.1922121313708791</v>

--- a/data/nzd0405/nzd0405.xlsx
+++ b/data/nzd0405/nzd0405.xlsx
@@ -474,7 +474,7 @@
         <v>342.99</v>
       </c>
       <c r="D2" t="n">
-        <v>400.86</v>
+        <v>400.77</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -495,7 +495,7 @@
         <v>345.14</v>
       </c>
       <c r="D3" t="n">
-        <v>394.28</v>
+        <v>394.46</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -516,7 +516,7 @@
         <v>336.38</v>
       </c>
       <c r="D4" t="n">
-        <v>396.48</v>
+        <v>396.52</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
         <v>330.49</v>
       </c>
       <c r="D5" t="n">
-        <v>398.73</v>
+        <v>398.62</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
         <v>335.18</v>
       </c>
       <c r="D6" t="n">
-        <v>400.35</v>
+        <v>400.1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         <v>337.79</v>
       </c>
       <c r="D7" t="n">
-        <v>395.15</v>
+        <v>395.04</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         <v>339.47</v>
       </c>
       <c r="D8" t="n">
-        <v>398.58</v>
+        <v>398.64</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         <v>341.47</v>
       </c>
       <c r="D9" t="n">
-        <v>395.33</v>
+        <v>395.54</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         <v>346.04</v>
       </c>
       <c r="D10" t="n">
-        <v>395.57</v>
+        <v>395.77</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>396.08</v>
+        <v>396.29</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>398.41</v>
+        <v>398.47</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>333.05</v>
       </c>
       <c r="D13" t="n">
-        <v>402.06</v>
+        <v>401.83</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         <v>347.31</v>
       </c>
       <c r="D14" t="n">
-        <v>399.69</v>
+        <v>399.57</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
         <v>342.8</v>
       </c>
       <c r="D15" t="n">
-        <v>397.26</v>
+        <v>397.29</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>336.81</v>
       </c>
       <c r="D16" t="n">
-        <v>394.04</v>
+        <v>394.23</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>394.51</v>
+        <v>394.7</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>391.77</v>
+        <v>391.99</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>399.31</v>
+        <v>399.36</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>328.23</v>
       </c>
       <c r="D20" t="n">
-        <v>397.23</v>
+        <v>396.98</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>340.79</v>
       </c>
       <c r="D21" t="n">
-        <v>400.21</v>
+        <v>400.1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>338.84</v>
       </c>
       <c r="D22" t="n">
-        <v>392.68</v>
+        <v>392.86</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>342.76</v>
       </c>
       <c r="D23" t="n">
-        <v>398.9</v>
+        <v>398.76</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>341.1</v>
       </c>
       <c r="D24" t="n">
-        <v>397.89</v>
+        <v>397.73</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>342.25</v>
       </c>
       <c r="D25" t="n">
-        <v>397.05</v>
+        <v>397.16</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>385.61</v>
+        <v>385.8</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>336.2</v>
       </c>
       <c r="D27" t="n">
-        <v>398.1</v>
+        <v>397.99</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         <v>332.53</v>
       </c>
       <c r="D28" t="n">
-        <v>399.72</v>
+        <v>399.59</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>320.3</v>
       </c>
       <c r="D29" t="n">
-        <v>380.58</v>
+        <v>380.45</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         <v>321.29</v>
       </c>
       <c r="D30" t="n">
-        <v>392.67</v>
+        <v>392.62</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>327.08</v>
       </c>
       <c r="D31" t="n">
-        <v>395.4</v>
+        <v>395.34</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>383.04</v>
+        <v>382.94</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>338.85</v>
       </c>
       <c r="D33" t="n">
-        <v>394.49</v>
+        <v>394.65</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>327.23</v>
       </c>
       <c r="D34" t="n">
-        <v>369.16</v>
+        <v>369.08</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         <v>339.5</v>
       </c>
       <c r="D35" t="n">
-        <v>396.43</v>
+        <v>396.4</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>343.6</v>
       </c>
       <c r="D36" t="n">
-        <v>400.65</v>
+        <v>400.47</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>334.01</v>
       </c>
       <c r="D37" t="n">
-        <v>394.28</v>
+        <v>394.16</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>336.66</v>
       </c>
       <c r="D38" t="n">
-        <v>393.41</v>
+        <v>393.64</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>341.86</v>
       </c>
       <c r="D39" t="n">
-        <v>403.17</v>
+        <v>403.36</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>343.28</v>
       </c>
       <c r="D40" t="n">
-        <v>404.5</v>
+        <v>404.28</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>331.51</v>
       </c>
       <c r="D41" t="n">
-        <v>396.94</v>
+        <v>397.17</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1272,7 +1272,7 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>385.77</v>
+        <v>385.83</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>388.75</v>
+        <v>388.72</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>406.29</v>
+        <v>406.07</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>329.72</v>
       </c>
       <c r="D45" t="n">
-        <v>390.49</v>
+        <v>390.38</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>343.64</v>
       </c>
       <c r="D46" t="n">
-        <v>399.26</v>
+        <v>399.43</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>336.01</v>
       </c>
       <c r="D47" t="n">
-        <v>403.48</v>
+        <v>403.21</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>343.23</v>
       </c>
       <c r="D49" t="n">
-        <v>399.75</v>
+        <v>399.62</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>337.2</v>
       </c>
       <c r="D50" t="n">
-        <v>413.04</v>
+        <v>412.77</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>339.86</v>
       </c>
       <c r="D52" t="n">
-        <v>403.42</v>
+        <v>403.33</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>399.95</v>
+        <v>399.94</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>339.31</v>
       </c>
       <c r="D54" t="n">
-        <v>400.25</v>
+        <v>400.44</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>398.63</v>
+        <v>398.48</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>337.48</v>
       </c>
       <c r="D56" t="n">
-        <v>401.85</v>
+        <v>402.03</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         <v>334.2</v>
       </c>
       <c r="D57" t="n">
-        <v>400.11</v>
+        <v>399.92</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>393.93</v>
+        <v>393.85</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1601,7 +1601,7 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>386.21</v>
+        <v>386.28</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>387.45</v>
+        <v>387.37</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>332.19</v>
       </c>
       <c r="D61" t="n">
-        <v>392.6</v>
+        <v>392.78</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>328.58</v>
       </c>
       <c r="D62" t="n">
-        <v>383.94</v>
+        <v>383.81</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>331.77</v>
       </c>
       <c r="D64" t="n">
-        <v>386.32</v>
+        <v>386.36</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>396.82</v>
+        <v>396.78</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>335.68</v>
       </c>
       <c r="D66" t="n">
-        <v>396.59</v>
+        <v>396.38</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>342.92</v>
       </c>
       <c r="D67" t="n">
-        <v>403.68</v>
+        <v>403.83</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>346.75</v>
       </c>
       <c r="D68" t="n">
-        <v>360.12</v>
+        <v>360.06</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>335.18</v>
       </c>
       <c r="D69" t="n">
-        <v>393.34</v>
+        <v>393.47</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>344.51</v>
       </c>
       <c r="D70" t="n">
-        <v>395.84</v>
+        <v>395.98</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>329.53</v>
       </c>
       <c r="D71" t="n">
-        <v>392.77</v>
+        <v>392.95</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>336.23</v>
       </c>
       <c r="D72" t="n">
-        <v>387.14</v>
+        <v>386.98</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>339.48</v>
       </c>
       <c r="D73" t="n">
-        <v>395.45</v>
+        <v>395.55</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>324.09</v>
       </c>
       <c r="D75" t="n">
-        <v>393.74</v>
+        <v>393.72</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>399.42</v>
+        <v>399.31</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
-        <v>380.55</v>
+        <v>380.61</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
-        <v>387.76</v>
+        <v>387.88</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>324.04</v>
       </c>
       <c r="D79" t="n">
-        <v>393.63</v>
+        <v>393.82</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         <v>336.74</v>
       </c>
       <c r="D80" t="n">
-        <v>401.22</v>
+        <v>401.21</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>332.23</v>
       </c>
       <c r="D81" t="n">
-        <v>396.56</v>
+        <v>396.5</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>340.77</v>
       </c>
       <c r="D82" t="n">
-        <v>401.91</v>
+        <v>402.04</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>327.84</v>
       </c>
       <c r="D83" t="n">
-        <v>399.97</v>
+        <v>399.73</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>331.37</v>
       </c>
       <c r="D84" t="n">
-        <v>397.15</v>
+        <v>396.91</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>329.29</v>
       </c>
       <c r="D85" t="n">
-        <v>383.77</v>
+        <v>383.78</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>330.64</v>
       </c>
       <c r="D86" t="n">
-        <v>387.87</v>
+        <v>387.83</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         <v>338.3</v>
       </c>
       <c r="D87" t="n">
-        <v>395.13</v>
+        <v>395.27</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
-        <v>378.93</v>
+        <v>379.13</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>338.58</v>
       </c>
       <c r="D89" t="n">
-        <v>392.82</v>
+        <v>393.08</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>338.57</v>
       </c>
       <c r="D90" t="n">
-        <v>400.94</v>
+        <v>400.96</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>327.97</v>
       </c>
       <c r="D93" t="n">
-        <v>373.76</v>
+        <v>373.84</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         <v>329.8</v>
       </c>
       <c r="D94" t="n">
-        <v>396.35</v>
+        <v>396.34</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>336.05</v>
       </c>
       <c r="D95" t="n">
-        <v>379.21</v>
+        <v>379.06</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>335</v>
       </c>
       <c r="D96" t="n">
-        <v>388.24</v>
+        <v>388.09</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>340.26</v>
       </c>
       <c r="D97" t="n">
-        <v>395.49</v>
+        <v>395.65</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
-        <v>394.2</v>
+        <v>394</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="n">
-        <v>399.21</v>
+        <v>399.07</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>339.76</v>
       </c>
       <c r="D100" t="n">
-        <v>397.54</v>
+        <v>397.66</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>342.32</v>
       </c>
       <c r="D101" t="n">
-        <v>393.52</v>
+        <v>393.75</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>339.37</v>
       </c>
       <c r="D102" t="n">
-        <v>394.75</v>
+        <v>394.82</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         <v>339.23</v>
       </c>
       <c r="D104" t="n">
-        <v>398.36</v>
+        <v>398.25</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
-        <v>384.24</v>
+        <v>384.42</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>338.86</v>
       </c>
       <c r="D106" t="n">
-        <v>394.45</v>
+        <v>394.59</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>383.64</v>
+        <v>383.81</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>309.6</v>
       </c>
       <c r="D108" t="n">
-        <v>388.7</v>
+        <v>388.8</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
-        <v>394.64</v>
+        <v>394.49</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>334.41</v>
       </c>
       <c r="D110" t="n">
-        <v>399.8</v>
+        <v>399.65</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>336.61</v>
       </c>
       <c r="D111" t="n">
-        <v>390.78</v>
+        <v>390.93</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>335.17</v>
       </c>
       <c r="D112" t="n">
-        <v>395.16</v>
+        <v>395.22</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>332.58</v>
       </c>
       <c r="D114" t="n">
-        <v>401.08</v>
+        <v>401.27</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>333.6</v>
       </c>
       <c r="D115" t="n">
-        <v>393.91</v>
+        <v>394.18</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>339.14</v>
       </c>
       <c r="D116" t="n">
-        <v>401.17</v>
+        <v>401.05</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>399.36</v>
+        <v>399.26</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>342.86</v>
       </c>
       <c r="D118" t="n">
-        <v>402.45</v>
+        <v>402.29</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>333.9</v>
       </c>
       <c r="D119" t="n">
-        <v>395.41</v>
+        <v>395.45</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         <v>343.88</v>
       </c>
       <c r="D120" t="n">
-        <v>369.4</v>
+        <v>369.49</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>339.96</v>
       </c>
       <c r="D121" t="n">
-        <v>402.05</v>
+        <v>401.88</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         <v>338.52</v>
       </c>
       <c r="D122" t="n">
-        <v>398.97</v>
+        <v>398.87</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>335.8</v>
       </c>
       <c r="D123" t="n">
-        <v>396.66</v>
+        <v>396.75</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="n">
-        <v>400.89</v>
+        <v>400.76</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>327.35</v>
       </c>
       <c r="D126" t="n">
-        <v>393.77</v>
+        <v>393.6</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>338.77</v>
       </c>
       <c r="D127" t="n">
-        <v>403.3</v>
+        <v>403.12</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         <v>321.82</v>
       </c>
       <c r="D128" t="n">
-        <v>381.51</v>
+        <v>381.62</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>344.51</v>
       </c>
       <c r="D129" t="n">
-        <v>402</v>
+        <v>401.86</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>334.69</v>
       </c>
       <c r="D130" t="n">
-        <v>393.19</v>
+        <v>393.47</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>336.07</v>
       </c>
       <c r="D131" t="n">
-        <v>396.4</v>
+        <v>396.44</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>333.79</v>
       </c>
       <c r="D132" t="n">
-        <v>401.23</v>
+        <v>401.07</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         <v>336.77</v>
       </c>
       <c r="D133" t="n">
-        <v>401.6</v>
+        <v>401.46</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         <v>310.55</v>
       </c>
       <c r="D134" t="n">
-        <v>389.92</v>
+        <v>390.02</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="n">
-        <v>394.78</v>
+        <v>395.07</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         <v>336.59</v>
       </c>
       <c r="D137" t="n">
-        <v>401.77</v>
+        <v>401.57</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
         <v>336.05</v>
       </c>
       <c r="D138" t="n">
-        <v>396.91</v>
+        <v>396.8</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="n">
-        <v>395.7</v>
+        <v>395.78</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>336.76</v>
       </c>
       <c r="D140" t="n">
-        <v>399.74</v>
+        <v>399.73</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>270.57</v>
       </c>
       <c r="D142" t="n">
-        <v>396.33</v>
+        <v>396.12</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>167.39</v>
       </c>
       <c r="D143" t="n">
-        <v>382.92</v>
+        <v>383.13</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>142.64</v>
       </c>
       <c r="D145" t="n">
-        <v>401.5</v>
+        <v>401.32</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>155.98</v>
       </c>
       <c r="D146" t="n">
-        <v>395.44</v>
+        <v>395.26</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>332.87</v>
       </c>
       <c r="D148" t="n">
-        <v>402.36</v>
+        <v>402.17</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>337.86</v>
       </c>
       <c r="D149" t="n">
-        <v>394.01</v>
+        <v>394.15</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
         <v>337.09</v>
       </c>
       <c r="D150" t="n">
-        <v>400.85</v>
+        <v>400.65</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
-        <v>374.73</v>
+        <v>374.53</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>337.26</v>
       </c>
       <c r="D152" t="n">
-        <v>400.87</v>
+        <v>400.66</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>344.39</v>
       </c>
       <c r="D153" t="n">
-        <v>401.59</v>
+        <v>401.51</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>335.66</v>
       </c>
       <c r="D154" t="n">
-        <v>394.1</v>
+        <v>394.18</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>332</v>
       </c>
       <c r="D155" t="n">
-        <v>392.38</v>
+        <v>392.5</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>325.56</v>
       </c>
       <c r="D156" t="n">
-        <v>377.76</v>
+        <v>377.59</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>338.65</v>
       </c>
       <c r="D157" t="n">
-        <v>398.5</v>
+        <v>398.48</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>344.59</v>
       </c>
       <c r="D159" t="n">
-        <v>395.71</v>
+        <v>395.88</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>343.98</v>
       </c>
       <c r="D160" t="n">
-        <v>401.44</v>
+        <v>401.27</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>339.88</v>
       </c>
       <c r="D161" t="n">
-        <v>395.14</v>
+        <v>395.27</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>341.14</v>
       </c>
       <c r="D162" t="n">
-        <v>396.3</v>
+        <v>396.27</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="n">
-        <v>397.83</v>
+        <v>397.93</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>326.49</v>
       </c>
       <c r="D164" t="n">
-        <v>391.29</v>
+        <v>391.21</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="n">
-        <v>400.51</v>
+        <v>400.36</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>328.57</v>
       </c>
       <c r="D166" t="n">
-        <v>394.43</v>
+        <v>394.58</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>330.21</v>
       </c>
       <c r="D167" t="n">
-        <v>401.78</v>
+        <v>401.62</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>340.09</v>
       </c>
       <c r="D168" t="n">
-        <v>398.22</v>
+        <v>398.26</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>339.56</v>
       </c>
       <c r="D169" t="n">
-        <v>401.8</v>
+        <v>401.59</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>346.67</v>
       </c>
       <c r="D170" t="n">
-        <v>401.2</v>
+        <v>401.02</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>332.77</v>
       </c>
       <c r="D171" t="n">
-        <v>394.37</v>
+        <v>394.47</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         <v>329.56</v>
       </c>
       <c r="D172" t="n">
-        <v>393.06</v>
+        <v>393.12</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>331.61</v>
       </c>
       <c r="D173" t="n">
-        <v>384.2</v>
+        <v>383.95</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>334.05</v>
       </c>
       <c r="D174" t="n">
-        <v>400.5</v>
+        <v>400.36</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         <v>333.32</v>
       </c>
       <c r="D175" t="n">
-        <v>395.8</v>
+        <v>395.9</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>339.06</v>
       </c>
       <c r="D176" t="n">
-        <v>397.31</v>
+        <v>397.37</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>342.1</v>
       </c>
       <c r="D177" t="n">
-        <v>396.87</v>
+        <v>396.85</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>345</v>
       </c>
       <c r="D178" t="n">
-        <v>394.64</v>
+        <v>394.83</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>305.29</v>
       </c>
       <c r="D179" t="n">
-        <v>389.91</v>
+        <v>390.04</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>285.1</v>
       </c>
       <c r="D180" t="n">
-        <v>391.88</v>
+        <v>391.86</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -4023,7 +4023,7 @@
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="n">
-        <v>399.86</v>
+        <v>399.76</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>326.55</v>
       </c>
       <c r="D182" t="n">
-        <v>398.94</v>
+        <v>398.77</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>326.24</v>
       </c>
       <c r="D183" t="n">
-        <v>391.71</v>
+        <v>391.97</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>326.93</v>
       </c>
       <c r="D184" t="n">
-        <v>390.71</v>
+        <v>390.75</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>335.11</v>
       </c>
       <c r="D185" t="n">
-        <v>399.61</v>
+        <v>399.38</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>338.23</v>
       </c>
       <c r="D186" t="n">
-        <v>395.95</v>
+        <v>396.05</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>339</v>
       </c>
       <c r="D187" t="n">
-        <v>396.25</v>
+        <v>396.36</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>334.88</v>
       </c>
       <c r="D188" t="n">
-        <v>399.09</v>
+        <v>398.89</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>335.88</v>
       </c>
       <c r="D189" t="n">
-        <v>393.37</v>
+        <v>393.5</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>338.2</v>
       </c>
       <c r="D190" t="n">
-        <v>394</v>
+        <v>394.07</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>338.23</v>
       </c>
       <c r="D191" t="n">
-        <v>396.46</v>
+        <v>396.42</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>340.61</v>
       </c>
       <c r="D192" t="n">
-        <v>394.73</v>
+        <v>394.93</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>335.06</v>
       </c>
       <c r="D194" t="n">
-        <v>404.05</v>
+        <v>403.88</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="n">
-        <v>400.81</v>
+        <v>400.64</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="n">
-        <v>397.5</v>
+        <v>397.63</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="n">
-        <v>395.75</v>
+        <v>395.8</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
       <c r="B198" t="inlineStr"/>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="n">
-        <v>377.5</v>
+        <v>377.36</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>325.72</v>
       </c>
       <c r="D199" t="n">
-        <v>400.25</v>
+        <v>400.08</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>326.03</v>
       </c>
       <c r="D200" t="n">
-        <v>389.17</v>
+        <v>389.43</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         <v>329.66</v>
       </c>
       <c r="D201" t="n">
-        <v>399.16</v>
+        <v>398.98</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>338.35</v>
       </c>
       <c r="D203" t="n">
-        <v>394.16</v>
+        <v>394.3</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         <v>335.52</v>
       </c>
       <c r="D204" t="n">
-        <v>398.57</v>
+        <v>398.46</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>346.17</v>
       </c>
       <c r="D205" t="n">
-        <v>398.59</v>
+        <v>398.63</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>337.07</v>
       </c>
       <c r="D206" t="n">
-        <v>396.72</v>
+        <v>396.82</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>333.61</v>
       </c>
       <c r="D207" t="n">
-        <v>397.71</v>
+        <v>397.72</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>335.62</v>
       </c>
       <c r="D208" t="n">
-        <v>401.23</v>
+        <v>401.05</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>339.74</v>
       </c>
       <c r="D209" t="n">
-        <v>394.47</v>
+        <v>394.61</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>327.59</v>
       </c>
       <c r="D210" t="n">
-        <v>396.57</v>
+        <v>396.37</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>323.16</v>
       </c>
       <c r="D211" t="n">
-        <v>365.08</v>
+        <v>365.16</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="n">
-        <v>348.3</v>
+        <v>348.24</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
       <c r="B214" t="inlineStr"/>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="n">
-        <v>372.68</v>
+        <v>372.49</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="n">
-        <v>340.54</v>
+        <v>340.83</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="n">
-        <v>399.75</v>
+        <v>399.59</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
       <c r="B217" t="inlineStr"/>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="n">
-        <v>387.28</v>
+        <v>387.42</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>339.43</v>
       </c>
       <c r="D218" t="n">
-        <v>396.52</v>
+        <v>396.66</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>330.86</v>
       </c>
       <c r="D219" t="n">
-        <v>396.77</v>
+        <v>396.62</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>323.62</v>
       </c>
       <c r="D220" t="n">
-        <v>374.85</v>
+        <v>374.65</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>341.44</v>
       </c>
       <c r="D222" t="n">
-        <v>394.02</v>
+        <v>393.92</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>340.57</v>
       </c>
       <c r="D223" t="n">
-        <v>396.93</v>
+        <v>396.99</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -4874,7 +4874,7 @@
         <v>333.38</v>
       </c>
       <c r="D224" t="n">
-        <v>375.37</v>
+        <v>375.13</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>332.99</v>
       </c>
       <c r="D225" t="n">
-        <v>399.22</v>
+        <v>398.99</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>335.4</v>
       </c>
       <c r="D227" t="n">
-        <v>392.62</v>
+        <v>392.72</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>316.98</v>
       </c>
       <c r="D228" t="n">
-        <v>365.98</v>
+        <v>366.06</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
       <c r="B229" t="inlineStr"/>
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="n">
-        <v>388.62</v>
+        <v>388.84</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
       <c r="B230" t="inlineStr"/>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="n">
-        <v>396.19</v>
+        <v>396.35</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="n">
-        <v>396.94</v>
+        <v>396.8</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>331.2</v>
       </c>
       <c r="D232" t="n">
-        <v>379.77</v>
+        <v>379.63</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>334.56</v>
       </c>
       <c r="D233" t="n">
-        <v>403.58</v>
+        <v>403.35</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         <v>326.7</v>
       </c>
       <c r="D234" t="n">
-        <v>372.39</v>
+        <v>372.32</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>343.75</v>
       </c>
       <c r="D235" t="n">
-        <v>400.34</v>
+        <v>400.2</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
         <v>336.08</v>
       </c>
       <c r="D236" t="n">
-        <v>371.21</v>
+        <v>371.32</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>329.94</v>
       </c>
       <c r="D238" t="n">
-        <v>391.74</v>
+        <v>391.7</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="n">
-        <v>398.5</v>
+        <v>398.39</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
       <c r="B240" t="inlineStr"/>
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="n">
-        <v>395.46</v>
+        <v>395.57</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
       <c r="B241" t="inlineStr"/>
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="n">
-        <v>393.42</v>
+        <v>393.66</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
       <c r="B243" t="inlineStr"/>
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="n">
-        <v>392.81</v>
+        <v>392.7</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>322.39</v>
       </c>
       <c r="D244" t="n">
-        <v>391.75</v>
+        <v>391.9</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>329.6</v>
       </c>
       <c r="D245" t="n">
-        <v>396.78</v>
+        <v>396.76</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>328.63</v>
       </c>
       <c r="D246" t="n">
-        <v>394.78</v>
+        <v>394.83</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>322.13</v>
       </c>
       <c r="D247" t="n">
-        <v>369.35</v>
+        <v>369.25</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
         <v>330.57</v>
       </c>
       <c r="D250" t="n">
-        <v>381.6</v>
+        <v>381.38</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>337.4</v>
       </c>
       <c r="D253" t="n">
-        <v>396.09</v>
+        <v>396.11</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>331.63</v>
       </c>
       <c r="D254" t="n">
-        <v>395.52</v>
+        <v>395.62</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>333.01</v>
       </c>
       <c r="D255" t="n">
-        <v>391.34</v>
+        <v>391.54</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>329.45</v>
       </c>
       <c r="D256" t="n">
-        <v>395.73</v>
+        <v>395.63</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>331.38</v>
       </c>
       <c r="D257" t="n">
-        <v>390.29</v>
+        <v>390.37</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>333.73</v>
       </c>
       <c r="D258" t="n">
-        <v>395.56</v>
+        <v>395.64</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>332</v>
       </c>
       <c r="D259" t="n">
-        <v>382.68</v>
+        <v>382.48</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>317.13</v>
       </c>
       <c r="D262" t="n">
-        <v>351.64</v>
+        <v>351.47</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>324.3</v>
       </c>
       <c r="D263" t="n">
-        <v>372.83</v>
+        <v>372.67</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>333.76</v>
       </c>
       <c r="D264" t="n">
-        <v>386.74</v>
+        <v>386.83</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
       <c r="B267" t="inlineStr"/>
       <c r="C267" t="inlineStr"/>
       <c r="D267" t="n">
-        <v>393.29</v>
+        <v>393.33</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
       <c r="B268" t="inlineStr"/>
       <c r="C268" t="inlineStr"/>
       <c r="D268" t="n">
-        <v>395.54</v>
+        <v>395.39</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
       <c r="B269" t="inlineStr"/>
       <c r="C269" t="inlineStr"/>
       <c r="D269" t="n">
-        <v>434.14</v>
+        <v>434.24</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>322.91</v>
       </c>
       <c r="D270" t="n">
-        <v>394.11</v>
+        <v>394.32</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>326.65</v>
       </c>
       <c r="D271" t="n">
-        <v>392.28</v>
+        <v>392.46</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>325.44</v>
       </c>
       <c r="D272" t="n">
-        <v>393.24</v>
+        <v>393.39</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -5825,7 +5825,7 @@
         <v>331.69</v>
       </c>
       <c r="D273" t="n">
-        <v>391.28</v>
+        <v>391.46</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>338.94</v>
       </c>
       <c r="D274" t="n">
-        <v>394.75</v>
+        <v>394.85</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>328.3</v>
       </c>
       <c r="D275" t="n">
-        <v>379.99</v>
+        <v>379.79</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>314.12</v>
       </c>
       <c r="D276" t="n">
-        <v>370.86</v>
+        <v>371.06</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>337.05</v>
       </c>
       <c r="D278" t="n">
-        <v>404.44</v>
+        <v>404.17</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>339.18</v>
       </c>
       <c r="D280" t="n">
-        <v>398.8</v>
+        <v>398.75</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>338.43</v>
       </c>
       <c r="D281" t="n">
-        <v>394.83</v>
+        <v>395.01</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         <v>336.21</v>
       </c>
       <c r="D282" t="n">
-        <v>394.05</v>
+        <v>394.19</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         <v>337.94</v>
       </c>
       <c r="D283" t="n">
-        <v>394.94</v>
+        <v>394.88</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>329.61</v>
       </c>
       <c r="D284" t="n">
-        <v>396.76</v>
+        <v>396.63</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>330.72</v>
       </c>
       <c r="D286" t="n">
-        <v>397.4</v>
+        <v>397.22</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
         <v>327.86</v>
       </c>
       <c r="D287" t="n">
-        <v>396.27</v>
+        <v>396.14</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
       <c r="B288" t="inlineStr"/>
       <c r="C288" t="inlineStr"/>
       <c r="D288" t="n">
-        <v>394.63</v>
+        <v>394.77</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>320.21</v>
       </c>
       <c r="D289" t="n">
-        <v>390.82</v>
+        <v>391.07</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>326.67</v>
       </c>
       <c r="D290" t="n">
-        <v>397.39</v>
+        <v>397.25</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>321.38</v>
       </c>
       <c r="D291" t="n">
-        <v>399.53</v>
+        <v>399.38</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>344.2</v>
       </c>
       <c r="D292" t="n">
-        <v>394.78</v>
+        <v>394.94</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
       <c r="B293" t="inlineStr"/>
       <c r="C293" t="inlineStr"/>
       <c r="D293" t="n">
-        <v>397.33</v>
+        <v>397.24</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>333.78</v>
       </c>
       <c r="D294" t="n">
-        <v>394.26</v>
+        <v>394.19</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>343.77</v>
       </c>
       <c r="D295" t="n">
-        <v>398.3</v>
+        <v>398.11</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>337.06</v>
       </c>
       <c r="D296" t="n">
-        <v>395.96</v>
+        <v>395.84</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
         <v>338.73</v>
       </c>
       <c r="D297" t="n">
-        <v>397.62</v>
+        <v>397.61</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
       <c r="B298" t="inlineStr"/>
       <c r="C298" t="inlineStr"/>
       <c r="D298" t="n">
-        <v>397.05</v>
+        <v>397.2</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>340.2</v>
       </c>
       <c r="D299" t="n">
-        <v>394.93</v>
+        <v>395.03</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>324.86</v>
       </c>
       <c r="D300" t="n">
-        <v>392.04</v>
+        <v>392.26</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
       <c r="B301" t="inlineStr"/>
       <c r="C301" t="inlineStr"/>
       <c r="D301" t="n">
-        <v>400.68</v>
+        <v>400.56</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>330.07</v>
       </c>
       <c r="D302" t="n">
-        <v>400.92</v>
+        <v>400.79</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
       <c r="B303" t="inlineStr"/>
       <c r="C303" t="inlineStr"/>
       <c r="D303" t="n">
-        <v>373.52</v>
+        <v>373.34</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
       <c r="B304" t="inlineStr"/>
       <c r="C304" t="inlineStr"/>
       <c r="D304" t="n">
-        <v>397.12</v>
+        <v>397.15</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
       <c r="B305" t="inlineStr"/>
       <c r="C305" t="inlineStr"/>
       <c r="D305" t="n">
-        <v>396.64</v>
+        <v>396.52</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
       <c r="B306" t="inlineStr"/>
       <c r="C306" t="inlineStr"/>
       <c r="D306" t="n">
-        <v>391.6</v>
+        <v>391.62</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -6485,7 +6485,7 @@
         <v>342.19</v>
       </c>
       <c r="D307" t="n">
-        <v>399.5</v>
+        <v>399.39</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
       <c r="B308" t="inlineStr"/>
       <c r="C308" t="inlineStr"/>
       <c r="D308" t="n">
-        <v>391.96</v>
+        <v>392.21</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>357.67</v>
       </c>
       <c r="D309" t="n">
-        <v>392.2</v>
+        <v>392.36</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>340.56</v>
       </c>
       <c r="D310" t="n">
-        <v>394.64</v>
+        <v>394.82</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>336.3</v>
       </c>
       <c r="D311" t="n">
-        <v>382.99</v>
+        <v>382.77</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>338.36</v>
       </c>
       <c r="D312" t="n">
-        <v>398.04</v>
+        <v>397.81</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>335.13</v>
       </c>
       <c r="D314" t="n">
-        <v>391.47</v>
+        <v>391.53</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         <v>332.31</v>
       </c>
       <c r="D315" t="n">
-        <v>373.8</v>
+        <v>373.62</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>333.33</v>
       </c>
       <c r="D316" t="n">
-        <v>395.15</v>
+        <v>395.36</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>339.5</v>
       </c>
       <c r="D317" t="n">
-        <v>392.91</v>
+        <v>393.1</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>338.44</v>
       </c>
       <c r="D318" t="n">
-        <v>394.38</v>
+        <v>394.6</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>338.83</v>
       </c>
       <c r="D319" t="n">
-        <v>395.19</v>
+        <v>395.33</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>342.47</v>
       </c>
       <c r="D320" t="n">
-        <v>396.27</v>
+        <v>396.26</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>329.13</v>
       </c>
       <c r="D322" t="n">
-        <v>395.42</v>
+        <v>395.49</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>335.75</v>
       </c>
       <c r="D323" t="n">
-        <v>391.88</v>
+        <v>392.04</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>336.69</v>
       </c>
       <c r="D324" t="n">
-        <v>398.86</v>
+        <v>398.71</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>338.12</v>
       </c>
       <c r="D325" t="n">
-        <v>390.66</v>
+        <v>390.92</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>332.75</v>
       </c>
       <c r="D327" t="n">
-        <v>391.15</v>
+        <v>391.33</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -6912,7 +6912,7 @@
       <c r="B328" t="inlineStr"/>
       <c r="C328" t="inlineStr"/>
       <c r="D328" t="n">
-        <v>399.18</v>
+        <v>399.06</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>330.11</v>
       </c>
       <c r="D329" t="n">
-        <v>378.81</v>
+        <v>378.63</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>330.67</v>
       </c>
       <c r="D330" t="n">
-        <v>394.11</v>
+        <v>394.36</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>324.12</v>
       </c>
       <c r="D331" t="n">
-        <v>385.73</v>
+        <v>385.89</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>320.47</v>
       </c>
       <c r="D332" t="n">
-        <v>368.39</v>
+        <v>368.37</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>337.29</v>
       </c>
       <c r="D333" t="n">
-        <v>351.16</v>
+        <v>351.25</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>334.43</v>
       </c>
       <c r="D334" t="n">
-        <v>394.06</v>
+        <v>394.09</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>320.77</v>
       </c>
       <c r="D335" t="n">
-        <v>379.1</v>
+        <v>379.03</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>346.6</v>
       </c>
       <c r="D336" t="n">
-        <v>402.46</v>
+        <v>402.42</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         <v>330.79</v>
       </c>
       <c r="D337" t="n">
-        <v>394.36</v>
+        <v>394.47</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
       <c r="B338" t="inlineStr"/>
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="n">
-        <v>398.83</v>
+        <v>398.63</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
       <c r="B339" t="inlineStr"/>
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="n">
-        <v>392.46</v>
+        <v>392.63</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>325.34</v>
       </c>
       <c r="D342" t="n">
-        <v>393.18</v>
+        <v>393.03</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>345.41</v>
       </c>
       <c r="D343" t="n">
-        <v>396.75</v>
+        <v>396.91</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         <v>336.72</v>
       </c>
       <c r="D344" t="n">
-        <v>390.68</v>
+        <v>390.93</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>342.33</v>
       </c>
       <c r="D345" t="n">
-        <v>399.64</v>
+        <v>399.42</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>337.37</v>
       </c>
       <c r="D347" t="n">
-        <v>396.04</v>
+        <v>396.11</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>335.61</v>
       </c>
       <c r="D348" t="n">
-        <v>396.63</v>
+        <v>396.56</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -7329,7 +7329,7 @@
       <c r="B349" t="inlineStr"/>
       <c r="C349" t="inlineStr"/>
       <c r="D349" t="n">
-        <v>378.09</v>
+        <v>378.2</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -7350,7 +7350,7 @@
         <v>337.42</v>
       </c>
       <c r="D350" t="n">
-        <v>398</v>
+        <v>397.97</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>333.57</v>
       </c>
       <c r="D351" t="n">
-        <v>394.29</v>
+        <v>394.37</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>339.8</v>
       </c>
       <c r="D352" t="n">
-        <v>398.65</v>
+        <v>398.61</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>335.3</v>
       </c>
       <c r="D353" t="n">
-        <v>393.24</v>
+        <v>393.08</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>334.81</v>
       </c>
       <c r="D354" t="n">
-        <v>392.45</v>
+        <v>392.67</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>337.65</v>
       </c>
       <c r="D355" t="n">
-        <v>399.77</v>
+        <v>399.81</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>347.48</v>
       </c>
       <c r="D356" t="n">
-        <v>394.69</v>
+        <v>394.83</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>337.54</v>
       </c>
       <c r="D357" t="n">
-        <v>398.21</v>
+        <v>398.13</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>340.36</v>
       </c>
       <c r="D358" t="n">
-        <v>395.72</v>
+        <v>395.85</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>341.18</v>
       </c>
       <c r="D359" t="n">
-        <v>396.36</v>
+        <v>396.18</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>340.19</v>
       </c>
       <c r="D360" t="n">
-        <v>393.79</v>
+        <v>393.97</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>339.89</v>
       </c>
       <c r="D361" t="n">
-        <v>393.55</v>
+        <v>393.42</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>328.92</v>
       </c>
       <c r="D362" t="n">
-        <v>372.72</v>
+        <v>372.58</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>334.31</v>
       </c>
       <c r="D363" t="n">
-        <v>397.23</v>
+        <v>397.22</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>338.39</v>
       </c>
       <c r="D364" t="n">
-        <v>395.96</v>
+        <v>396.03</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         <v>328.03</v>
       </c>
       <c r="D365" t="n">
-        <v>374.64</v>
+        <v>374.65</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>331</v>
       </c>
       <c r="D366" t="n">
-        <v>393.37</v>
+        <v>393.29</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
       <c r="B367" t="inlineStr"/>
       <c r="C367" t="inlineStr"/>
       <c r="D367" t="n">
-        <v>369.77</v>
+        <v>369.68</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
       <c r="B368" t="inlineStr"/>
       <c r="C368" t="inlineStr"/>
       <c r="D368" t="n">
-        <v>393.85</v>
+        <v>394.08</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
       <c r="B369" t="inlineStr"/>
       <c r="C369" t="inlineStr"/>
       <c r="D369" t="n">
-        <v>395.31</v>
+        <v>395.5</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
       <c r="B370" t="inlineStr"/>
       <c r="C370" t="inlineStr"/>
       <c r="D370" t="n">
-        <v>375.27</v>
+        <v>375.06</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
       <c r="B371" t="inlineStr"/>
       <c r="C371" t="inlineStr"/>
       <c r="D371" t="n">
-        <v>394.8</v>
+        <v>394.97</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>326.42</v>
       </c>
       <c r="D372" t="n">
-        <v>393.24</v>
+        <v>393.4</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>336.98</v>
       </c>
       <c r="D373" t="n">
-        <v>396.18</v>
+        <v>396.04</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>343.31</v>
       </c>
       <c r="D374" t="n">
-        <v>393.69</v>
+        <v>393.86</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>331.86</v>
       </c>
       <c r="D375" t="n">
-        <v>375.62</v>
+        <v>375.38</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>338.27</v>
       </c>
       <c r="D376" t="n">
-        <v>383.34</v>
+        <v>383.14</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>345.08</v>
       </c>
       <c r="D377" t="n">
-        <v>394.37</v>
+        <v>394.56</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
       </c>
       <c r="C378" t="inlineStr"/>
       <c r="D378" t="n">
-        <v>381.83</v>
+        <v>381.77</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>341.22</v>
       </c>
       <c r="D379" t="n">
-        <v>396.43</v>
+        <v>396.47</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>334.71</v>
       </c>
       <c r="D380" t="n">
-        <v>398.58</v>
+        <v>398.53</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>338.78</v>
       </c>
       <c r="D381" t="n">
-        <v>395.63</v>
+        <v>395.86</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -7998,7 +7998,7 @@
         <v>342.49</v>
       </c>
       <c r="D382" t="n">
-        <v>395.11</v>
+        <v>395.23</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>337.19</v>
       </c>
       <c r="D383" t="n">
-        <v>396.1</v>
+        <v>396.15</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>335.78</v>
       </c>
       <c r="D384" t="n">
-        <v>395.43</v>
+        <v>395.3</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>342.95</v>
       </c>
       <c r="D385" t="n">
-        <v>395.73</v>
+        <v>395.91</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
         <v>323.24</v>
       </c>
       <c r="D387" t="n">
-        <v>397.01</v>
+        <v>396.99</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
       <c r="B388" t="inlineStr"/>
       <c r="C388" t="inlineStr"/>
       <c r="D388" t="n">
-        <v>395.37</v>
+        <v>395.27</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
       <c r="B389" t="inlineStr"/>
       <c r="C389" t="inlineStr"/>
       <c r="D389" t="n">
-        <v>393.51</v>
+        <v>393.69</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>305.9</v>
       </c>
       <c r="D390" t="n">
-        <v>374.79</v>
+        <v>374.57</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>338.88</v>
       </c>
       <c r="D391" t="n">
-        <v>394.3</v>
+        <v>394.48</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>337.91</v>
       </c>
       <c r="D392" t="n">
-        <v>396.02</v>
+        <v>395.98</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
@@ -8213,7 +8213,7 @@
         <v>339.38</v>
       </c>
       <c r="D393" t="n">
-        <v>399.75</v>
+        <v>399.62</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>322.99</v>
       </c>
       <c r="D394" t="n">
-        <v>389.03</v>
+        <v>389.21</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         <v>336.72</v>
       </c>
       <c r="D395" t="n">
-        <v>392.21</v>
+        <v>392.43</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -8276,7 +8276,7 @@
         <v>341.87</v>
       </c>
       <c r="D396" t="n">
-        <v>394.96</v>
+        <v>395.12</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>337.09</v>
       </c>
       <c r="D397" t="n">
-        <v>396.2</v>
+        <v>396.01</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>328.82</v>
       </c>
       <c r="D398" t="n">
-        <v>384.23</v>
+        <v>384.42</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1673540319501551</v>
+        <v>-0.1664175907702576</v>
       </c>
       <c r="J4" t="n">
         <v>397</v>
@@ -12883,19 +12883,19 @@
         <v>367</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01832280104455897</v>
+        <v>0.01815891370214695</v>
       </c>
       <c r="M4" t="n">
-        <v>6.307019577234991</v>
+        <v>6.292109212648378</v>
       </c>
       <c r="N4" t="n">
-        <v>88.49970968085259</v>
+        <v>88.31662126869082</v>
       </c>
       <c r="O4" t="n">
-        <v>9.407428430812141</v>
+        <v>9.397692337414053</v>
       </c>
       <c r="P4" t="n">
-        <v>395.6254637854769</v>
+        <v>395.6117351463387</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12982,7 +12982,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-42.80289572143646,173.36169709285753</t>
+          <t>-42.80289519017223,173.36169626164167</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -13009,7 +13009,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-42.80285688010138,173.36163632178022</t>
+          <t>-42.802857942630745,173.3616379842099</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -13036,7 +13036,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-42.80286986656965,173.36165664036903</t>
+          <t>-42.80287010268723,173.36165700979802</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -13063,7 +13063,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-42.80288314818113,173.36167742075276</t>
+          <t>-42.80288249885798,173.36167640482267</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -13090,7 +13090,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-42.80289271093902,173.36169238263452</t>
+          <t>-42.8028912352049,173.36169007370185</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -13117,7 +13117,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-42.80286201565973,173.3616443568575</t>
+          <t>-42.802861366336295,173.3616433409281</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-42.80288226274048,173.36167603539357</t>
+          <t>-42.80288261691675,173.36167658953724</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -13171,7 +13171,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-42.802863078188985,173.36164601928743</t>
+          <t>-42.80286431780638,173.36164795878912</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -13194,7 +13194,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-42.802864494894585,173.3616482358608</t>
+          <t>-42.802865675482565,173.36165008300534</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -13213,7 +13213,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-42.80286750539388,173.36165294607952</t>
+          <t>-42.80286874501117,173.3616548855815</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -13232,7 +13232,7 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-42.80288125924107,173.36167446531988</t>
+          <t>-42.802881613417334,173.36167501946352</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -13259,7 +13259,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-42.80290280495908,173.36170817573696</t>
+          <t>-42.80290144728399,173.3617060515182</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -13286,7 +13286,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-42.802888815000856,173.3616862870525</t>
+          <t>-42.80288810664843,173.36168517876496</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -13313,7 +13313,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-42.80287447086206,173.36166384423439</t>
+          <t>-42.80287464795023,173.36166412130615</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -13340,7 +13340,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-42.80285546339554,173.3616341052074</t>
+          <t>-42.802856584954334,173.3616358599942</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -13359,7 +13359,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-42.80285823777779,173.3616384459959</t>
+          <t>-42.80285935933652,173.36164020078286</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -13378,7 +13378,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-42.80284206371721,173.36161314012787</t>
+          <t>-42.80284336236463,173.36161517198542</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -13397,7 +13397,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-42.8028865718848,173.36168277747532</t>
+          <t>-42.80288686703165,173.36168323926177</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-42.802874293773904,173.3616635671626</t>
+          <t>-42.80287281803919,173.3616612582313</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -13451,7 +13451,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-42.802891884527924,173.36169108963222</t>
+          <t>-42.8028912352049,173.36169007370185</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -13478,7 +13478,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-42.80284743539488,173.36162154463005</t>
+          <t>-42.80284849792447,173.3616232070592</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -13505,7 +13505,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-42.8028841516805,173.36167899082653</t>
+          <t>-42.80288332526927,173.36167769782458</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -13532,7 +13532,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-42.8028781897133,173.36166966274178</t>
+          <t>-42.80287724524316,173.36166818502554</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -13555,7 +13555,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-42.802873231244924,173.36166190473207</t>
+          <t>-42.80287388056819,173.36166292066184</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -13574,7 +13574,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-42.80280570157486,173.36155624815152</t>
+          <t>-42.80280682313487,173.36155800293548</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-42.8028794293303,173.3616716022444</t>
+          <t>-42.80287878000711,173.36167058631446</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -13628,7 +13628,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-42.80288899208897,173.3616865641244</t>
+          <t>-42.802888224707175,173.36168536347955</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -13655,7 +13655,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-42.80277600973924,173.36150979257732</t>
+          <t>-42.802775242355565,173.36150859193683</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -13682,7 +13682,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-42.80284737636547,173.36162145227286</t>
+          <t>-42.80284708121836,173.36162099048698</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-42.80286349139478,173.36164666578802</t>
+          <t>-42.80286313721838,173.36164611164466</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -13724,7 +13724,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-42.802790530997214,173.36153251239534</t>
+          <t>-42.802789940702276,173.36153158882527</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -13747,7 +13747,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-42.80285811971896,173.36163826128148</t>
+          <t>-42.80285906418949,173.36163973899684</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -13774,7 +13774,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-42.802708597985664,173.3614043210409</t>
+          <t>-42.802708125748865,173.36140358218682</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -13801,7 +13801,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-42.802869571422676,173.36165617858282</t>
+          <t>-42.80286939433449,173.3616559015111</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -13828,7 +13828,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-42.802894481819905,173.36169515335388</t>
+          <t>-42.80289341929137,173.36169349092225</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -13855,7 +13855,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-42.80285688010138,173.36163632178022</t>
+          <t>-42.80285617174846,173.3616352134938</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -13882,7 +13882,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-42.80285174454247,173.36162828670427</t>
+          <t>-42.80285310221902,173.36163041091962</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -13909,7 +13909,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-42.80290935721653,173.36171842740268</t>
+          <t>-42.80291047877402,173.36172018219253</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -13936,7 +13936,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-42.80291720811837,173.36173071093293</t>
+          <t>-42.80291590947305,173.36172867907055</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -13959,7 +13959,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-42.80287258192163,173.36166088880233</t>
+          <t>-42.80287393959758,173.3616630130191</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -13978,7 +13978,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-42.802806646046456,173.36155772586434</t>
+          <t>-42.80280700022328,173.36155828000665</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -13997,7 +13997,7 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-42.80282423682634,173.361585248274</t>
+          <t>-42.80282405973798,173.3615849712027</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -14016,7 +14016,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-42.802927774367596,173.3617472429071</t>
+          <t>-42.80292647572258,173.36174521104405</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -14043,7 +14043,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-42.80283450794974,173.36160131841302</t>
+          <t>-42.80283385862592,173.36160030248453</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -14070,7 +14070,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-42.80288627673795,173.36168231568888</t>
+          <t>-42.80288728023726,173.36168388576283</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -14097,7 +14097,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-42.80291118712611,173.3617212904809</t>
+          <t>-42.8029095933339,173.3617187968321</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -14147,7 +14147,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-42.80288916917707,173.36168684119627</t>
+          <t>-42.80288840179527,173.36168564055143</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -14174,7 +14174,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-42.802967619140375,173.3618095842011</t>
+          <t>-42.80296602535013,173.3618070905478</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -14224,7 +14224,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-42.80291083295006,173.36172073633668</t>
+          <t>-42.802910301686,173.36171990512042</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -14243,7 +14243,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-42.80289034976442,173.3616886883423</t>
+          <t>-42.80289029073506,173.361688595985</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -14270,7 +14270,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-42.80289212064539,173.36169145906143</t>
+          <t>-42.80289324220328,173.36169321385032</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -14289,7 +14289,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-42.802882557887365,173.36167649717996</t>
+          <t>-42.80288167244671,173.36167511182077</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -14316,7 +14316,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-42.802901565342694,173.36170623623286</t>
+          <t>-42.80290262787103,173.36170789866492</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -14343,7 +14343,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-42.80289129423427,173.36169016605913</t>
+          <t>-42.802890172676314,173.3616884112704</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -14362,7 +14362,7 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-42.802854814072006,173.36163308927823</t>
+          <t>-42.80285434183671,173.36163235042065</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -14381,7 +14381,7 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-42.80280924334323,173.36156178957486</t>
+          <t>-42.80280965654953,173.36156243607428</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -14400,7 +14400,7 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-42.80281656299701,173.36157324185177</t>
+          <t>-42.80281609076131,173.3615725029951</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -14423,7 +14423,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-42.80284696315952,173.36162080577267</t>
+          <t>-42.80284802568911,173.3616224682018</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -14450,7 +14450,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-42.80279584365144,173.36154082452651</t>
+          <t>-42.80279507626808,173.36153962388525</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -14496,7 +14496,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-42.80280989266741,173.36156280550253</t>
+          <t>-42.80281012878528,173.36156317493078</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -14519,7 +14519,7 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-42.80287187356897,173.36165978051534</t>
+          <t>-42.8028716374514,173.36165941108635</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -14546,7 +14546,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-42.80287051589297,173.3616576562987</t>
+          <t>-42.80286927627573,173.36165571679663</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -14573,7 +14573,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-42.802912367712885,173.3617231376282</t>
+          <t>-42.802913253152944,173.36172452298874</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -14600,7 +14600,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-42.802655235196475,173.36132083059996</t>
+          <t>-42.802654881018476,173.36132027646033</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -14627,7 +14627,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-42.802851331336555,173.36162764020395</t>
+          <t>-42.802852098718965,173.36162884084737</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -14654,7 +14654,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-42.802866088688354,173.36165072950595</t>
+          <t>-42.80286691509992,173.36165202250717</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -14681,7 +14681,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-42.80284796665969,173.36162237584463</t>
+          <t>-42.802849029189254,173.36162403827382</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -14708,7 +14708,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-42.80281473308367,173.3615703787823</t>
+          <t>-42.802813788612255,173.36156890106906</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -14735,7 +14735,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-42.802863786541785,173.36164712757412</t>
+          <t>-42.802864376835785,173.36164805114635</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -14789,7 +14789,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-42.80285369251315,173.36163133449153</t>
+          <t>-42.80285357445434,173.36163114977714</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -14808,7 +14808,7 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-42.80288722120788,173.36168379340555</t>
+          <t>-42.8028865718848,173.36168277747532</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -14827,7 +14827,7 @@
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-42.8027758326507,173.36150951550644</t>
+          <t>-42.80277618682778,173.3615100696482</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -14846,7 +14846,7 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-42.80281839291027,173.36157610492143</t>
+          <t>-42.802819101263765,173.3615772132065</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -14869,7 +14869,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-42.80285304318961,173.36163031856242</t>
+          <t>-42.80285416474846,173.36163207334909</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -14892,7 +14892,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-42.802897846493366,173.3617004177211</t>
+          <t>-42.802897787464,173.36170032536376</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -14915,7 +14915,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-42.80287033880479,173.36165737922695</t>
+          <t>-42.80286998462844,173.36165682508351</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -14942,7 +14942,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-42.80290191951881,173.36170679037687</t>
+          <t>-42.802902686900374,173.36170799102229</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -14969,7 +14969,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-42.802890467823154,173.3616888730569</t>
+          <t>-42.802889051118335,173.3616866564817</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -14996,7 +14996,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-42.8028738215388,173.3616628283046</t>
+          <t>-42.80287240483347,173.36166061173057</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -15023,7 +15023,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-42.80279484015014,173.36153925445717</t>
+          <t>-42.802794899179624,173.3615393468142</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -15050,7 +15050,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-42.80281904223432,173.36157712084938</t>
+          <t>-42.802818806116484,173.36157675142104</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -15077,7 +15077,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-42.80286189760093,173.36164417214306</t>
+          <t>-42.80286272401256,173.36164546514414</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -15100,7 +15100,7 @@
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-42.80276626986851,173.36149455368096</t>
+          <t>-42.802767450459015,173.36149640081965</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -15127,7 +15127,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-42.802848261806794,173.3616228376305</t>
+          <t>-42.8028497965717,173.36162523891716</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -15154,7 +15154,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-42.80289619367133,173.36169783171607</t>
+          <t>-42.80289631173005,173.3616980164307</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -15223,7 +15223,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>-42.802735751593566,173.36144680516992</t>
+          <t>-42.802736223830074,173.36144754402466</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -15250,7 +15250,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-42.80286909918754,173.3616554397249</t>
+          <t>-42.80286904015815,173.36165534736767</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -15277,7 +15277,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>-42.80276792269521,173.36149713967515</t>
+          <t>-42.802767037252345,173.3614957543211</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>-42.80282122632421,173.36158053806184</t>
+          <t>-42.80282034088238,173.36157915270542</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -15331,7 +15331,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>-42.80286402265939,173.36164749700302</t>
+          <t>-42.802864967129786,173.36164897471863</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -15350,7 +15350,7 @@
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-42.8028564078661,173.36163558292262</t>
+          <t>-42.802855227277895,173.3616337357786</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -15369,7 +15369,7 @@
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-42.80288598159108,173.36168185390244</t>
+          <t>-42.80288515517986,173.3616805609004</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -15392,7 +15392,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-42.80287612368487,173.3616664302376</t>
+          <t>-42.802876832037484,173.3616675385247</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -15419,7 +15419,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>-42.80285239386605,173.36162930263333</t>
+          <t>-42.80285375154258,173.36163142684873</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -15446,7 +15446,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>-42.80285965448355,173.36164066256893</t>
+          <t>-42.802860067689394,173.36164130906943</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -15500,7 +15500,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>-42.802880964094165,173.36167400353347</t>
+          <t>-42.802880314770995,173.36167298760347</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -15519,7 +15519,7 @@
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>-42.80279761453605,173.36154359523724</t>
+          <t>-42.80279867706677,173.36154525766375</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -15546,7 +15546,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>-42.80285788360134,173.3616378918527</t>
+          <t>-42.80285871001305,173.36163918485357</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -15569,7 +15569,7 @@
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>-42.80279407276677,173.36153805381596</t>
+          <t>-42.80279507626808,173.36153962388525</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>-42.80282394167909,173.3615847864885</t>
+          <t>-42.8028245319736,173.36158571005953</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -15611,7 +15611,7 @@
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>-42.80285900516009,173.36163964663962</t>
+          <t>-42.80285811971896,173.36163826128148</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -15634,7 +15634,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>-42.802889464323925,173.36168730298277</t>
+          <t>-42.80288857888338,173.3616859176233</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -15661,7 +15661,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>-42.80283621980341,173.36160399677004</t>
+          <t>-42.80283710524494,173.36160538212718</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>-42.80286207468913,173.3616444492147</t>
+          <t>-42.802862428865545,173.36164500335803</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -15742,7 +15742,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-42.802897020082355,173.36169912471857</t>
+          <t>-42.80289814164014,173.3617008795077</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>-42.80285469601318,173.36163290456383</t>
+          <t>-42.80285628980727,173.3616353982082</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -15796,7 +15796,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>-42.80289755134657,173.36169995593445</t>
+          <t>-42.80289684299428,173.3616988476466</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -15815,7 +15815,7 @@
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
-          <t>-42.80288686703165,173.36168323926177</t>
+          <t>-42.80288627673795,173.36168231568888</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -15838,7 +15838,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>-42.8029051071037,173.3617117776733</t>
+          <t>-42.80290416263412,173.3617102999558</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -15865,7 +15865,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>-42.802863550424185,173.36164675814524</t>
+          <t>-42.802863786541785,173.36164712757412</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -15892,7 +15892,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-42.802710014696025,173.36140653760324</t>
+          <t>-42.80271054596242,173.36140736881413</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -15919,7 +15919,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-42.802902745929735,173.3617080833796</t>
+          <t>-42.802901742430755,173.36170651330488</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -15946,7 +15946,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>-42.80288456488613,173.36167963732754</t>
+          <t>-42.80288397459238,173.36167871375469</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -15969,7 +15969,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>-42.8028709290987,173.3616583027994</t>
+          <t>-42.80287146036323,173.36165913401462</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -16007,7 +16007,7 @@
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>-42.80289589852455,173.36169736992946</t>
+          <t>-42.802895131142854,173.36169616928436</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -16034,7 +16034,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>-42.80285386960139,173.3616316115631</t>
+          <t>-42.80285286610137,173.36163004149083</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -16061,7 +16061,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>-42.80291012459797,173.36171962804838</t>
+          <t>-42.802909062069816,173.3617179656159</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -16088,7 +16088,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-42.80278149948366,173.36151838177557</t>
+          <t>-42.80278214880822,173.36151939770235</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -16115,7 +16115,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>-42.802902450782966,173.3617076215929</t>
+          <t>-42.80290162437205,173.3617063285902</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -16142,7 +16142,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-42.8028504458953,173.36162625484616</t>
+          <t>-42.802852098718965,173.36162884084737</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -16169,7 +16169,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-42.80286939433449,173.3616559015111</t>
+          <t>-42.80286963045207,173.36165627094007</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -16196,7 +16196,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-42.80289790552272,173.3617005100784</t>
+          <t>-42.802896961052994,173.36169903236123</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -16223,7 +16223,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-42.80290008960887,173.36170392729954</t>
+          <t>-42.8028992631979,173.3617026342969</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -16246,7 +16246,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-42.80283114327163,173.36159605405655</t>
+          <t>-42.80283173356606,173.3615969776278</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -16265,7 +16265,7 @@
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>-42.80285983157177,173.36164093964055</t>
+          <t>-42.802861543424505,173.3616436179998</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -16315,7 +16315,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>-42.80290109310788,173.36170549737417</t>
+          <t>-42.8028999125208,173.36170365022755</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -16342,7 +16342,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>-42.80287240483347,173.36166061173057</t>
+          <t>-42.80287175551018,173.36165959580083</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -16361,7 +16361,7 @@
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>-42.80286526227678,173.36164943650476</t>
+          <t>-42.80286573451197,173.36165017536257</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -16388,7 +16388,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>-42.802889110147696,173.361686748839</t>
+          <t>-42.802889051118335,173.3616866564817</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -16434,7 +16434,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>-42.802868981128746,173.36165525501042</t>
+          <t>-42.802867741511456,173.36165331550845</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -16457,7 +16457,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>-42.802789822643284,173.36153140411128</t>
+          <t>-42.80279106226268,173.3615333436084</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -16499,7 +16499,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>-42.80289949931533,173.36170300372623</t>
+          <t>-42.80289843678692,173.36170134129435</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -16522,7 +16522,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>-42.80286372751239,173.3616470352169</t>
+          <t>-42.80286266498316,173.3616453727869</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -16568,7 +16568,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>-42.80290457583956,173.3617109464572</t>
+          <t>-42.80290345428194,173.3617091916677</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -16595,7 +16595,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>-42.8028552863073,173.3616338281358</t>
+          <t>-42.802856112719056,173.3616351211366</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -16622,7 +16622,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>-42.8028956624071,173.36169700050021</t>
+          <t>-42.802894481819905,173.36169515335388</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -16645,7 +16645,7 @@
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
-          <t>-42.80274147746101,173.36145576378448</t>
+          <t>-42.80274029686983,173.36145391664732</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -16672,7 +16672,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>-42.80289578046582,173.36169718521484</t>
+          <t>-42.80289454084925,173.3616952457112</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -16699,7 +16699,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>-42.802900030579515,173.3617038349422</t>
+          <t>-42.802899558344684,173.36170309608357</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -16726,7 +16726,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>-42.80285581757201,173.36163465935059</t>
+          <t>-42.80285628980727,173.3616353982082</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -16753,7 +16753,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>-42.80284566451221,173.3616187739149</t>
+          <t>-42.80284637286529,173.36161988220093</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -16780,7 +16780,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>-42.80275936341347,173.36148374792097</t>
+          <t>-42.80275835991137,173.36148217785345</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>-42.80288179050546,173.36167529653534</t>
+          <t>-42.80288167244671,173.36167511182077</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -16853,7 +16853,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>-42.80286532130617,173.361649528862</t>
+          <t>-42.80286632480593,173.36165109893489</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -16880,7 +16880,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>-42.80289914513919,173.36170244958225</t>
+          <t>-42.80289814164014,173.3617008795077</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -16903,7 +16903,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>-42.80286195663032,173.36164426450028</t>
+          <t>-42.80286272401256,173.36164546514414</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -16926,7 +16926,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>-42.802868804040564,173.3616549779387</t>
+          <t>-42.80286862695239,173.361654700867</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -16945,7 +16945,7 @@
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
         <is>
-          <t>-42.802877835537,173.3616691085982</t>
+          <t>-42.80287842583082,173.36167003217085</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -16968,7 +16968,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>-42.802839230304556,173.3616087069845</t>
+          <t>-42.802838758069086,173.3616079681273</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -16987,7 +16987,7 @@
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr">
         <is>
-          <t>-42.80289365540883,173.3616938603515</t>
+          <t>-42.80289276996839,173.36169247499183</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -17010,7 +17010,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>-42.80285776554253,173.36163770713827</t>
+          <t>-42.80285865098364,173.36163909249638</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -17033,7 +17033,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>-42.80290115213723,173.36170558973154</t>
+          <t>-42.802900207667584,173.3617041120142</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -17060,7 +17060,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>-42.80288013768285,173.36167271053168</t>
+          <t>-42.802880373800384,173.36167307996075</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -17087,7 +17087,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>-42.80290127019594,173.3617057744462</t>
+          <t>-42.802900030579515,173.3617038349422</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -17114,7 +17114,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>-42.80289772843465,173.36170023300642</t>
+          <t>-42.80289666590621,173.36169857057465</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -17141,7 +17141,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>-42.80285741136608,173.36163715299506</t>
+          <t>-42.80285800166015,173.3616380765671</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -17168,7 +17168,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>-42.80284967851286,173.3616250542028</t>
+          <t>-42.80285003268938,173.3616256083459</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -17195,7 +17195,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>-42.802797378418106,173.36154322580913</t>
+          <t>-42.802795902680934,173.36154091688354</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -17222,7 +17222,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>-42.80289359637946,173.36169376799418</t>
+          <t>-42.80289276996839,173.36169247499183</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -17249,7 +17249,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>-42.80286585257076,173.36165036007705</t>
+          <t>-42.80286644286475,173.36165128364934</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -17276,7 +17276,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>-42.80287476600899,173.36166430602066</t>
+          <t>-42.80287512018531,173.36166486016418</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -17303,7 +17303,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>-42.802872168715915,173.36166024230158</t>
+          <t>-42.802872050657136,173.36166005758707</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -17330,7 +17330,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>-42.80285900516009,173.36163964663962</t>
+          <t>-42.802860126718805,173.36164140142662</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -17353,7 +17353,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>-42.8028310842422,173.36159596169944</t>
+          <t>-42.802831851624944,173.3615971623421</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -17376,7 +17376,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>-42.802842713040924,173.36161415605665</t>
+          <t>-42.80284259498207,173.3616139713423</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -17395,7 +17395,7 @@
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr">
         <is>
-          <t>-42.802889818500105,173.36168785712658</t>
+          <t>-42.80288922820644,173.36168693355359</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -17418,7 +17418,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>-42.802884387798,173.3616793602557</t>
+          <t>-42.80288338429863,173.3616777901819</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -17441,7 +17441,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>-42.80284170954064,173.36161258598491</t>
+          <t>-42.80284324430576,173.36161498727108</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -17468,7 +17468,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>-42.80283580659735,173.36160335027006</t>
+          <t>-42.8028360427151,173.36160371969862</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -17495,7 +17495,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>-42.802888342765904,173.36168554819412</t>
+          <t>-42.802886985090396,173.36168342397636</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -17522,7 +17522,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>-42.80286673801172,173.3616517454355</t>
+          <t>-42.8028673283057,173.3616526690078</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -17549,7 +17549,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>-42.80286850889358,173.36165451615253</t>
+          <t>-42.80286915821693,173.36165553208215</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -17576,7 +17576,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>-42.80288527323861,173.36168074561496</t>
+          <t>-42.80288409265113,173.36167889846928</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -17603,7 +17603,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>-42.80285150842481,173.3616279172755</t>
+          <t>-42.802852275807204,173.36162911791894</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -17630,7 +17630,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>-42.802855227277895,173.3616337357786</t>
+          <t>-42.80285564048377,173.361634382279</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -17657,7 +17657,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>-42.80286974851087,173.36165645565455</t>
+          <t>-42.80286951239329,173.3616560862256</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -17684,7 +17684,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>-42.802859536424734,173.3616404778545</t>
+          <t>-42.80286071701285,173.36164232499877</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -17734,7 +17734,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>-42.80291455179835,173.36172655485092</t>
+          <t>-42.80291354829963,173.36172498477558</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -17753,7 +17753,7 @@
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr">
         <is>
-          <t>-42.802895426289666,173.3616966310709</t>
+          <t>-42.80289442279053,173.36169506099657</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -17772,7 +17772,7 @@
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
-          <t>-42.80287588756733,173.36166606080855</t>
+          <t>-42.80287665494933,173.36166726145294</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -17791,7 +17791,7 @@
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
-          <t>-42.80286555742377,173.3616498982909</t>
+          <t>-42.80286585257076,173.36165036007705</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -17810,7 +17810,7 @@
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
-          <t>-42.802757828645554,173.36148134664128</t>
+          <t>-42.802757002232035,173.36148005364458</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -17833,7 +17833,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>-42.80289212064539,173.36169145906143</t>
+          <t>-42.80289111714618,173.36168988898723</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -17860,7 +17860,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>-42.802826716063215,173.3615891272726</t>
+          <t>-42.80282825082885,173.3615915285576</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -17887,7 +17887,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>-42.80288568644421,173.361681392116</t>
+          <t>-42.8028846239155,173.36167972968482</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -17937,7 +17937,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>-42.80285617174846,173.3616352134938</t>
+          <t>-42.802856998160216,173.36163650649462</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -17964,7 +17964,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>-42.80288220371111,173.3616759430363</t>
+          <t>-42.80288155438796,173.36167492710624</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -17991,7 +17991,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>-42.80288232176985,173.36167612775083</t>
+          <t>-42.802882557887365,173.36167649717996</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -18018,7 +18018,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>-42.80287128327505,173.36165885694288</t>
+          <t>-42.80287187356897,173.36165978051534</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -18045,7 +18045,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>-42.8028771271844,173.36166800031106</t>
+          <t>-42.80287718621378,173.36166809266828</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -18072,7 +18072,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>-42.80289790552272,173.3617005100784</t>
+          <t>-42.80289684299428,173.3616988476466</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -18099,7 +18099,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>-42.80285800166015,173.3616380765671</t>
+          <t>-42.802858828071855,173.361639369568</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -18126,7 +18126,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>-42.80287039783418,173.3616574715842</t>
+          <t>-42.802869217246325,173.36165562443938</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -18153,7 +18153,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>-42.80268451390263,173.36136663949668</t>
+          <t>-42.80268498613968,173.36136737835022</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -18172,7 +18172,7 @@
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr">
         <is>
-          <t>-42.802585462075655,173.36121166521758</t>
+          <t>-42.802585107897116,173.3612111110792</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -18214,7 +18214,7 @@
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr">
         <is>
-          <t>-42.8027293764001,173.36143683063193</t>
+          <t>-42.8027282548382,173.3614350758523</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -18233,7 +18233,7 @@
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr">
         <is>
-          <t>-42.80253965496079,173.36113999670732</t>
+          <t>-42.80254136682544,173.3611426750389</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -18252,7 +18252,7 @@
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr">
         <is>
-          <t>-42.80288916917707,173.36168684119627</t>
+          <t>-42.802888224707175,173.36168536347955</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -18271,7 +18271,7 @@
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr">
         <is>
-          <t>-42.80281555949617,173.36157167178138</t>
+          <t>-42.802816385908635,173.36157296478052</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -18298,7 +18298,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>-42.80287010268723,173.36165700979802</t>
+          <t>-42.8028709290987,173.3616583027994</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -18325,7 +18325,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>-42.802871578422014,173.3616593187291</t>
+          <t>-42.80287069298114,173.36165793337042</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -18352,7 +18352,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>-42.80274218581569,173.36145687206678</t>
+          <t>-42.80274100522454,173.36145502492957</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -18398,7 +18398,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>-42.80285534533672,173.361633920493</t>
+          <t>-42.802854755042596,173.36163299692103</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -18425,7 +18425,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>-42.80287252289225,173.36166079644508</t>
+          <t>-42.80287287706859,173.36166135058855</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -18452,7 +18452,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>-42.80274525535253,173.36146167462383</t>
+          <t>-42.80274383864325,173.361459458059</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -18479,7 +18479,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>-42.80288604062045,173.36168194625972</t>
+          <t>-42.80288468294488,173.3616798220421</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -18529,7 +18529,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>-42.80284708121836,173.36162099048698</t>
+          <t>-42.80284767151258,173.36162191405876</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -18556,7 +18556,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>-42.802689826569086,173.36137495159954</t>
+          <t>-42.80269029880608,173.36137569045317</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -18575,7 +18575,7 @@
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr">
         <is>
-          <t>-42.80282346944345,173.36158404763165</t>
+          <t>-42.802824768091405,173.36158607948795</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -18594,7 +18594,7 @@
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr">
         <is>
-          <t>-42.80286815471722,173.36165396200911</t>
+          <t>-42.80286909918754,173.3616554397249</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -18613,7 +18613,7 @@
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
-          <t>-42.80287258192163,173.36166088880233</t>
+          <t>-42.80287175551018,173.36165959580083</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -18640,7 +18640,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>-42.80277122834841,173.36150231166394</t>
+          <t>-42.802770401935135,173.3615010186667</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -18667,7 +18667,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>-42.802911777419496,173.36172221405454</t>
+          <t>-42.80291041974468,173.36172008983516</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -18694,7 +18694,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>-42.802727664542445,173.36143415228412</t>
+          <t>-42.80272725133542,173.3614335057864</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -18721,7 +18721,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>-42.80289265190965,173.36169229027723</t>
+          <t>-42.80289182549855,173.3616909972749</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -18748,7 +18748,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>-42.80272069905203,173.36142325418075</t>
+          <t>-42.80272134837745,173.36142427010554</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -18794,7 +18794,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>-42.80284188662892,173.3616128630564</t>
+          <t>-42.802841650511205,173.36161249362777</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -18813,7 +18813,7 @@
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr">
         <is>
-          <t>-42.80288179050546,173.36167529653534</t>
+          <t>-42.802881141182304,173.3616742806053</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -18832,7 +18832,7 @@
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr">
         <is>
-          <t>-42.80286384557118,173.36164721993134</t>
+          <t>-42.802864494894585,173.3616482358608</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -18851,7 +18851,7 @@
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr">
         <is>
-          <t>-42.802851803571876,173.36162837906144</t>
+          <t>-42.80285322027785,173.36163059563398</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -18889,7 +18889,7 @@
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr">
         <is>
-          <t>-42.80284820277737,173.36162274527334</t>
+          <t>-42.80284755345374,173.3616217293444</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>-42.80284194565835,173.3616129554136</t>
+          <t>-42.802842831099774,173.36161434077096</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -18939,7 +18939,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>-42.8028716374514,173.36165941108635</t>
+          <t>-42.802871519392625,173.36165922637187</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -18966,7 +18966,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>-42.80285983157177,173.36164093964055</t>
+          <t>-42.802860126718805,173.36164140142662</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -18993,7 +18993,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>-42.80270971954805,173.36140607581942</t>
+          <t>-42.80270912925205,173.36140515225176</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -19066,7 +19066,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>-42.802782030749206,173.36151921298838</t>
+          <t>-42.80278073210007,173.36151718113484</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -19135,7 +19135,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>-42.802867564423266,173.36165303843674</t>
+          <t>-42.80286768248206,173.36165322315122</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -19162,7 +19162,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>-42.80286419974758,173.36164777407467</t>
+          <t>-42.80286479004159,173.36164869764696</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -19189,7 +19189,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>-42.80283952545171,173.36160916877023</t>
+          <t>-42.802840706040335,173.3616110159133</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -19216,7 +19216,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>-42.80286543936497,173.36164971357644</t>
+          <t>-42.802864849070986,173.36164879000418</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -19243,7 +19243,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>-42.80283332736095,173.36159947127032</t>
+          <t>-42.80283379959647,173.36160021012742</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -19270,7 +19270,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>-42.80286443586518,173.36164814350357</t>
+          <t>-42.802864908100396,173.3616488823614</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -19297,7 +19297,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>-42.802788405935374,173.36152918754325</t>
+          <t>-42.80278722534541,173.3615273404033</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -19370,7 +19370,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>-42.80260517801055,173.36124251226354</t>
+          <t>-42.80260417450508,173.36124094220386</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -19393,7 +19393,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>-42.802730261843685,173.36143821598432</t>
+          <t>-42.80272931737051,173.36143673827513</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -19416,7 +19416,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>-42.80281237190507,173.36156668449934</t>
+          <t>-42.80281290317027,173.36156751571298</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -19477,7 +19477,7 @@
       <c r="C267" t="inlineStr"/>
       <c r="D267" t="inlineStr">
         <is>
-          <t>-42.80285103618947,173.36162717841802</t>
+          <t>-42.802851272307144,173.36162754784675</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -19496,7 +19496,7 @@
       <c r="C268" t="inlineStr"/>
       <c r="D268" t="inlineStr">
         <is>
-          <t>-42.80286431780638,173.36164795878912</t>
+          <t>-42.80286343236537,173.3616465734308</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -19515,7 +19515,7 @@
       <c r="C269" t="inlineStr"/>
       <c r="D269" t="inlineStr">
         <is>
-          <t>-42.803092170726025,173.36200445898388</t>
+          <t>-42.803092761017105,173.3620053825629</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -19542,7 +19542,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>-42.80285587660141,173.36163475170778</t>
+          <t>-42.80285711621902,173.36163669120901</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -19569,7 +19569,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>-42.80284507421797,173.36161785034318</t>
+          <t>-42.8028461367476,173.36161951277225</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -19596,7 +19596,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>-42.8028507410424,173.3616267166321</t>
+          <t>-42.802851626483644,173.36162810198988</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -19619,7 +19619,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>-42.80283917127512,173.36160861462733</t>
+          <t>-42.80284023380489,173.36161027705603</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -19646,7 +19646,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>-42.80285965448355,173.36164066256893</t>
+          <t>-42.8028602447776,173.36164158614105</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -19673,7 +19673,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>-42.80277252699783,173.36150434351686</t>
+          <t>-42.80277134640746,173.36150249637785</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -19700,7 +19700,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>-42.80271863301653,173.36142002169296</t>
+          <t>-42.80271981360824,173.3614218688288</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -19746,7 +19746,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>-42.80291685394237,173.36173015678864</t>
+          <t>-42.802915260150364,173.36172766313942</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>-42.80288356138676,173.3616780672537</t>
+          <t>-42.802883266239874,173.3616776054673</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -19819,7 +19819,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>-42.802860126718805,173.36164140142662</t>
+          <t>-42.80286118924808,173.36164306385646</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -19846,7 +19846,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>-42.80285552242495,173.3616341975646</t>
+          <t>-42.8028563488367,173.3616354905654</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -19873,7 +19873,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>-42.80286077604226,173.36164241735597</t>
+          <t>-42.80286042186583,173.36164186321267</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -19900,7 +19900,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>-42.802871519392625,173.36165922637187</t>
+          <t>-42.802870752010534,173.36165802572768</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -19946,7 +19946,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>-42.802875297273474,173.36166513723597</t>
+          <t>-42.802874234744515,173.36166347480537</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -19969,7 +19969,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>-42.80286862695239,173.361654700867</t>
+          <t>-42.802867859570256,173.36165350022293</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -19988,7 +19988,7 @@
       <c r="C288" t="inlineStr"/>
       <c r="D288" t="inlineStr">
         <is>
-          <t>-42.80285894613068,173.36163955428242</t>
+          <t>-42.80285977254236,173.36164084728335</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>-42.80283645592115,173.36160436619863</t>
+          <t>-42.802837931657024,173.3616066751272</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -20034,7 +20034,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>-42.802875238244084,173.36166504487872</t>
+          <t>-42.802874411832676,173.36166375187713</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -20061,7 +20061,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>-42.80288787053095,173.36168480933577</t>
+          <t>-42.802886985090396,173.36168342397636</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -20088,7 +20088,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>-42.80285983157177,173.36164093964055</t>
+          <t>-42.80286077604226,173.36164241735597</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -20107,7 +20107,7 @@
       <c r="C293" t="inlineStr"/>
       <c r="D293" t="inlineStr">
         <is>
-          <t>-42.80287488406777,173.3616644907352</t>
+          <t>-42.802874352803286,173.36166365951985</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -20134,7 +20134,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>-42.802856762042566,173.3616361370658</t>
+          <t>-42.8028563488367,173.3616354905654</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -20161,7 +20161,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>-42.80288060991789,173.36167344938983</t>
+          <t>-42.802879488359686,173.36167169460168</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -20188,7 +20188,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>-42.80286679704112,173.36165183779272</t>
+          <t>-42.802866088688354,173.36165072950595</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -20215,7 +20215,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>-42.80287659591995,173.36166716909568</t>
+          <t>-42.80287653689057,173.36166707673843</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -20234,7 +20234,7 @@
       <c r="C298" t="inlineStr"/>
       <c r="D298" t="inlineStr">
         <is>
-          <t>-42.802873231244924,173.36166190473207</t>
+          <t>-42.80287411668575,173.36166329009086</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -20261,7 +20261,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>-42.80286071701285,173.36164232499877</t>
+          <t>-42.80286130730689,173.36164324857089</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -20288,7 +20288,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>-42.80284365751175,173.36161563377124</t>
+          <t>-42.802844956159106,173.36161766562887</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -20307,7 +20307,7 @@
       <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr">
         <is>
-          <t>-42.802894658907974,173.36169543042584</t>
+          <t>-42.802893950555635,173.36169432213808</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -20330,7 +20330,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>-42.80289607561262,173.36169764700142</t>
+          <t>-42.80289530823094,173.3616964463563</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -20349,7 +20349,7 @@
       <c r="C303" t="inlineStr"/>
       <c r="D303" t="inlineStr">
         <is>
-          <t>-42.80273433488397,173.36144458860574</t>
+          <t>-42.802733272351766,173.36144292618266</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -20368,7 +20368,7 @@
       <c r="C304" t="inlineStr"/>
       <c r="D304" t="inlineStr">
         <is>
-          <t>-42.80287364445064,173.36166255123283</t>
+          <t>-42.8028738215388,173.3616628283046</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -20387,7 +20387,7 @@
       <c r="C305" t="inlineStr"/>
       <c r="D305" t="inlineStr">
         <is>
-          <t>-42.80287081103993,173.3616581180849</t>
+          <t>-42.80287010268723,173.36165700979802</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -20406,7 +20406,7 @@
       <c r="C306" t="inlineStr"/>
       <c r="D306" t="inlineStr">
         <is>
-          <t>-42.80284106021691,173.36161157005623</t>
+          <t>-42.80284117827577,173.36161175477054</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -20429,7 +20429,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>-42.80288769344284,173.3616845322639</t>
+          <t>-42.80288704411977,173.36168351633367</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -20448,7 +20448,7 @@
       <c r="C308" t="inlineStr"/>
       <c r="D308" t="inlineStr">
         <is>
-          <t>-42.80284318527633,173.3616148949139</t>
+          <t>-42.80284466101199,173.36161720384302</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -20471,7 +20471,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>-42.80284460198257,173.36161711148586</t>
+          <t>-42.802845546453355,173.36161858920053</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -20498,7 +20498,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>-42.80285900516009,173.36163964663962</t>
+          <t>-42.802860067689394,173.36164130906943</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -20525,7 +20525,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>-42.80279023584975,173.3615320506103</t>
+          <t>-42.80278893720083,173.36153001875624</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -20552,7 +20552,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>-42.80287907515402,173.3616710481008</t>
+          <t>-42.802877717478225,173.36166892388366</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -20602,7 +20602,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>-42.80284029283432,173.36161036941323</t>
+          <t>-42.802840647010896,173.36161092355613</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -20629,7 +20629,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>-42.80273598771181,173.3614471745973</t>
+          <t>-42.80273492517965,173.36144551217413</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -20656,7 +20656,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>-42.80286201565973,173.3616443568575</t>
+          <t>-42.80286325527718,173.3616462963591</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -20683,7 +20683,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>-42.802848793071576,173.36162366884508</t>
+          <t>-42.80284991463054,173.36162542363152</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -20710,7 +20710,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>-42.80285747039549,173.36163724535226</t>
+          <t>-42.80285876904245,173.36163927721077</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -20737,7 +20737,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>-42.80286225177734,173.36164472628636</t>
+          <t>-42.802863078188985,173.36164601928743</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -20764,7 +20764,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>-42.80286862695239,173.361654700867</t>
+          <t>-42.802868567922985,173.36165460850975</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -20818,7 +20818,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>-42.802863609453574,173.36164685050247</t>
+          <t>-42.80286402265939,173.36164749700302</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -20845,7 +20845,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>-42.802842713040924,173.36161415605665</t>
+          <t>-42.80284365751175,173.36161563377124</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>-42.80288391556301,173.3616786213974</t>
+          <t>-42.80288303012237,173.3616772360382</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -20899,7 +20899,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>-42.802835511450176,173.36160288848436</t>
+          <t>-42.802837046215515,173.36160528977004</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -20949,7 +20949,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>-42.8028384038925,173.3616074139844</t>
+          <t>-42.80283946642228,173.3616090764131</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -20968,7 +20968,7 @@
       <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr">
         <is>
-          <t>-42.802885804502964,173.36168157683053</t>
+          <t>-42.80288509615049,173.3616804685431</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -20995,7 +20995,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>-42.8027655615142,173.36149344539777</t>
+          <t>-42.80276449898271,173.36149178297302</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -21018,7 +21018,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>-42.80285587660141,173.36163475170778</t>
+          <t>-42.80285735233666,173.36163706063786</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -21045,7 +21045,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>-42.80280640992856,173.36155735643612</t>
+          <t>-42.80280735440013,173.361558834149</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -21072,7 +21072,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>-42.80270405270625,173.36139720957078</t>
+          <t>-42.802703934647035,173.36139702485727</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -21099,7 +21099,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>-42.8026023445833,173.36123807915394</t>
+          <t>-42.802602875850916,173.36123891036198</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -21126,7 +21126,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>-42.80285558145435,173.3616342899218</t>
+          <t>-42.8028557585426,173.3616345669934</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -21153,7 +21153,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>-42.80276727337045,173.36149612374882</t>
+          <t>-42.80276686016377,173.3614954772503</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -21180,7 +21180,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>-42.802905166133044,173.36171187003066</t>
+          <t>-42.80290493001565,173.36171150060127</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -21203,7 +21203,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>-42.80285735233666,173.36163706063786</t>
+          <t>-42.80285800166015,173.3616380765671</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -21222,7 +21222,7 @@
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr">
         <is>
-          <t>-42.80288373847489,173.36167834432558</t>
+          <t>-42.802882557887365,173.36167649717996</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -21241,7 +21241,7 @@
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
         <is>
-          <t>-42.8028461367476,173.36161951277225</t>
+          <t>-42.80284714024778,173.36162108284415</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -21314,7 +21314,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>-42.80285038686588,173.361626162489</t>
+          <t>-42.8028495014246,173.36162477713125</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -21337,7 +21337,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>-42.80287146036323,173.36165913401462</t>
+          <t>-42.80287240483347,173.36166061173057</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -21364,7 +21364,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>-42.80283562950905,173.36160307319864</t>
+          <t>-42.80283710524494,173.36160538212718</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -21391,7 +21391,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>-42.802888519854015,173.36168582526602</t>
+          <t>-42.80288722120788,173.36168379340555</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -21441,7 +21441,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>-42.8028672692763,173.36165257665058</t>
+          <t>-42.80286768248206,173.36165322315122</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -21468,7 +21468,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>-42.802870752010534,173.36165802572768</t>
+          <t>-42.80287033880479,173.36165737922695</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -21487,7 +21487,7 @@
       <c r="C349" t="inlineStr"/>
       <c r="D349" t="inlineStr">
         <is>
-          <t>-42.80276131138809,173.36148679569916</t>
+          <t>-42.802761960712935,173.36148781162527</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -21514,7 +21514,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>-42.80287883903649,173.36167067867174</t>
+          <t>-42.80287866194834,173.36167040159992</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -21541,7 +21541,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>-42.802856939130805,173.36163641413742</t>
+          <t>-42.80285741136608,173.36163715299506</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -21568,7 +21568,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>-42.802882675946115,173.3616766818945</t>
+          <t>-42.80288243982862,173.3616763124654</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -21595,7 +21595,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>-42.8028507410424,173.3616267166321</t>
+          <t>-42.8028497965717,173.36162523891716</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -21622,7 +21622,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>-42.80284607771817,173.36161942041508</t>
+          <t>-42.80284737636547,173.36162145227286</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -21649,7 +21649,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>-42.8028892872358,173.3616870259109</t>
+          <t>-42.80288952335329,173.36168739534008</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -21676,7 +21676,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>-42.80285930030711,173.36164010842566</t>
+          <t>-42.802860126718805,173.36164140142662</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -21703,7 +21703,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>-42.80288007865347,173.3616726181744</t>
+          <t>-42.80287960641844,173.36167187931622</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -21730,7 +21730,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>-42.802865380335575,173.36164962121921</t>
+          <t>-42.80286614771776,173.36165082186318</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -21757,7 +21757,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>-42.80286915821693,173.36165553208215</t>
+          <t>-42.802868095687835,173.36165386965186</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>-42.80285398766022,173.3616317962775</t>
+          <t>-42.80285505018965,173.36163345870702</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -21811,7 +21811,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>-42.80285257095429,173.3616295797049</t>
+          <t>-42.802851803571876,173.36162837906144</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -21838,7 +21838,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>-42.80272961251839,173.36143720005924</t>
+          <t>-42.80272878610436,173.3614359070637</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -21865,7 +21865,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>-42.802874293773904,173.3616635671626</t>
+          <t>-42.802874234744515,173.36166347480537</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -21892,7 +21892,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>-42.80286679704112,173.36165183779272</t>
+          <t>-42.8028672102469,173.36165248429336</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -21919,7 +21919,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>-42.80274094619499,173.36145493257274</t>
+          <t>-42.80274100522454,173.36145502492957</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -21942,7 +21942,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>-42.80285150842481,173.3616279172755</t>
+          <t>-42.80285103618947,173.36162717841802</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -21961,7 +21961,7 @@
       <c r="C367" t="inlineStr"/>
       <c r="D367" t="inlineStr">
         <is>
-          <t>-42.802712198791106,173.36140995480372</t>
+          <t>-42.80271166752475,173.36140912359278</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -21980,7 +21980,7 @@
       <c r="C368" t="inlineStr"/>
       <c r="D368" t="inlineStr">
         <is>
-          <t>-42.80285434183671,173.36163235042065</t>
+          <t>-42.80285569951318,173.3616344746362</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -21999,7 +21999,7 @@
       <c r="C369" t="inlineStr"/>
       <c r="D369" t="inlineStr">
         <is>
-          <t>-42.80286296013016,173.361645834573</t>
+          <t>-42.80286408168879,173.36164758936025</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -22018,7 +22018,7 @@
       <c r="C370" t="inlineStr"/>
       <c r="D370" t="inlineStr">
         <is>
-          <t>-42.80274466505701,173.36146075105512</t>
+          <t>-42.80274342543637,173.3614588115609</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -22037,7 +22037,7 @@
       <c r="C371" t="inlineStr"/>
       <c r="D371" t="inlineStr">
         <is>
-          <t>-42.80285994963059,173.36164112435497</t>
+          <t>-42.80286095313047,173.36164269442762</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -22064,7 +22064,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>-42.8028507410424,173.3616267166321</t>
+          <t>-42.80285168551306,173.36162819434705</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -22091,7 +22091,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>-42.802868095687835,173.36165386965186</t>
+          <t>-42.8028672692763,173.36165257665058</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -22118,7 +22118,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>-42.8028533973661,173.36163087270558</t>
+          <t>-42.802854400866124,173.36163244277787</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -22145,7 +22145,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>-42.802746731091325,173.36146398354566</t>
+          <t>-42.80274531438209,173.36146176698068</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -22172,7 +22172,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>-42.80279230188203,173.36153528310558</t>
+          <t>-42.80279112129217,173.36153343596538</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -22199,7 +22199,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>-42.80285741136608,173.36163715299506</t>
+          <t>-42.80285853292483,173.36163890778195</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -22222,7 +22222,7 @@
       <c r="C378" t="inlineStr"/>
       <c r="D378" t="inlineStr">
         <is>
-          <t>-42.80278338842783,173.36152133719895</t>
+          <t>-42.802783034250794,173.36152078305705</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -22249,7 +22249,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>-42.802869571422676,173.36165617858282</t>
+          <t>-42.80286980754026,173.3616565480118</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
@@ -22276,7 +22276,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>-42.80288226274048,173.36167603539357</t>
+          <t>-42.8028819675936,173.36167557360716</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -22303,7 +22303,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>-42.802864849070986,173.36164879000418</t>
+          <t>-42.80286620674715,173.3616509142204</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -22330,7 +22330,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>-42.80286177954212,173.36164398742864</t>
+          <t>-42.802862487894956,173.36164509571526</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -22357,7 +22357,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>-42.80286762345267,173.361653130794</t>
+          <t>-42.802867918599645,173.36165359258015</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -22384,7 +22384,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>-42.80286366848297,173.36164694285966</t>
+          <t>-42.80286290110077,173.36164574221579</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -22411,7 +22411,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>-42.80286543936497,173.36164971357644</t>
+          <t>-42.802866501894144,173.36165137600656</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
@@ -22457,7 +22457,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>-42.80287299512738,173.36166153530306</t>
+          <t>-42.80287287706859,173.36166135058855</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
@@ -22476,7 +22476,7 @@
       <c r="C388" t="inlineStr"/>
       <c r="D388" t="inlineStr">
         <is>
-          <t>-42.80286331430658,173.36164638871634</t>
+          <t>-42.80286272401256,173.36164546514414</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
@@ -22495,7 +22495,7 @@
       <c r="C389" t="inlineStr"/>
       <c r="D389" t="inlineStr">
         <is>
-          <t>-42.80285233483662,173.36162921027613</t>
+          <t>-42.8028533973661,173.36163087270558</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
@@ -22518,7 +22518,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>-42.802741831638336,173.36145631792562</t>
+          <t>-42.80274053298807,173.36145428607472</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
@@ -22541,7 +22541,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>-42.802856998160216,173.36163650649462</t>
+          <t>-42.80285806068956,173.3616381689243</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -22568,7 +22568,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>-42.8028671512175,173.3616523919361</t>
+          <t>-42.80286691509992,173.36165202250717</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -22595,7 +22595,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>-42.80288916917707,173.36168684119627</t>
+          <t>-42.80288840179527,173.36168564055143</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -22622,7 +22622,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>-42.80282588965093,173.36158783427302</t>
+          <t>-42.80282695218102,173.36158949670104</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -22649,7 +22649,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>-42.80284466101199,173.36161720384302</t>
+          <t>-42.80284595965934,173.36161923570072</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -22676,7 +22676,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>-42.802860894101066,173.3616426020704</t>
+          <t>-42.80286183857152,173.36164407978586</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
@@ -22703,7 +22703,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>-42.80286821374663,173.36165405436634</t>
+          <t>-42.8028670921881,173.36165229957888</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -22730,7 +22730,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>-42.80279755550656,173.3615435028802</t>
+          <t>-42.80279867706677,173.36154525766375</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
